--- a/tests/Unit/Roster/data/birželis.xlsx
+++ b/tests/Unit/Roster/data/birželis.xlsx
@@ -3144,13 +3144,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A2:AR603"/>
+  <dimension ref="A2:AS603"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X7" activeCellId="0" sqref="X7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI3" activeCellId="0" sqref="AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.66"/>
@@ -3159,12 +3159,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="14" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="40" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="14" style="0" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="41" style="0" width="9.66"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,8 +3325,9 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="AJ7" s="1"/>
       <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
@@ -3377,13 +3378,14 @@
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="14"/>
-      <c r="AK8" s="15"/>
+      <c r="AK8" s="14"/>
       <c r="AL8" s="15"/>
-      <c r="AM8" s="16" t="s">
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="17"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
@@ -3478,21 +3480,24 @@
       <c r="AH9" s="19" t="n">
         <v>29</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="24" t="s">
+      <c r="AI9" s="19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AL9" s="25" t="s">
+      <c r="AM9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AM9" s="26" t="s">
+      <c r="AN9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AN9" s="27" t="s">
+      <c r="AO9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AO9" s="28" t="s">
+      <c r="AP9" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3543,24 +3548,25 @@
       <c r="AF10" s="36"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="40" t="n">
-        <f aca="false">COUNTIF(F100:AJ101, "&gt;1")</f>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="40" t="n">
+        <f aca="false">COUNTIF(F100:AK101, "&gt;1")</f>
         <v>1</v>
       </c>
-      <c r="AL10" s="41" t="n">
-        <f aca="false">SUM(F100:AJ101)</f>
+      <c r="AM10" s="41" t="n">
+        <f aca="false">SUM(F100:AK101)</f>
         <v>12</v>
       </c>
-      <c r="AM10" s="42" t="n">
-        <f aca="false">AN10*3.7</f>
+      <c r="AN10" s="42" t="n">
+        <f aca="false">AO10*3.7</f>
         <v>74</v>
       </c>
-      <c r="AN10" s="43" t="n">
+      <c r="AO10" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="AO10" s="44" t="n">
+      <c r="AP10" s="44" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -3601,13 +3607,14 @@
       <c r="AF11" s="48"/>
       <c r="AG11" s="48"/>
       <c r="AH11" s="48"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="43"/>
-      <c r="AO11" s="44"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="44"/>
     </row>
     <row r="12" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="n">
@@ -3656,24 +3663,25 @@
       <c r="AF12" s="35"/>
       <c r="AG12" s="35"/>
       <c r="AH12" s="35"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="40" t="n">
-        <f aca="false">COUNTIF(F102:AJ103, "&gt;1")</f>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="40" t="n">
+        <f aca="false">COUNTIF(F102:AK103, "&gt;1")</f>
         <v>1</v>
       </c>
-      <c r="AL12" s="41" t="n">
-        <f aca="false">SUM(F102:AJ103)</f>
+      <c r="AM12" s="41" t="n">
+        <f aca="false">SUM(F102:AK103)</f>
         <v>12</v>
       </c>
-      <c r="AM12" s="42" t="n">
-        <f aca="false">AN12*3.7</f>
+      <c r="AN12" s="42" t="n">
+        <f aca="false">AO12*3.7</f>
         <v>74</v>
       </c>
-      <c r="AN12" s="61" t="n">
+      <c r="AO12" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO12" s="62" t="n">
+      <c r="AP12" s="62" t="n">
         <v>48</v>
       </c>
     </row>
@@ -3714,13 +3722,14 @@
       <c r="AF13" s="64"/>
       <c r="AG13" s="64"/>
       <c r="AH13" s="64"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="61"/>
-      <c r="AO13" s="62"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="62"/>
     </row>
     <row r="14" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="n">
@@ -3771,24 +3780,25 @@
       <c r="AF14" s="78"/>
       <c r="AG14" s="78"/>
       <c r="AH14" s="78"/>
-      <c r="AI14" s="80"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="40" t="n">
-        <f aca="false">COUNTIF(F104:AJ105, "&gt;1")</f>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="40" t="n">
+        <f aca="false">COUNTIF(F104:AK105, "&gt;1")</f>
         <v>2</v>
       </c>
-      <c r="AL14" s="41" t="e">
-        <f aca="false">SUM(F104:AJ105)</f>
+      <c r="AM14" s="41" t="e">
+        <f aca="false">SUM(F104:AK105)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM14" s="42" t="n">
-        <f aca="false">AN14*1.85</f>
+      <c r="AN14" s="42" t="n">
+        <f aca="false">AO14*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN14" s="61" t="n">
+      <c r="AO14" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO14" s="62" t="n">
+      <c r="AP14" s="62" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3831,13 +3841,14 @@
       <c r="AF15" s="67"/>
       <c r="AG15" s="67"/>
       <c r="AH15" s="67"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="61"/>
-      <c r="AO15" s="62"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="62"/>
     </row>
     <row r="16" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="n">
@@ -3892,24 +3903,25 @@
       <c r="AF16" s="78"/>
       <c r="AG16" s="78"/>
       <c r="AH16" s="78"/>
-      <c r="AI16" s="80"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="40" t="n">
-        <f aca="false">COUNTIF(F106:AJ107, "&gt;1")</f>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="40" t="n">
+        <f aca="false">COUNTIF(F106:AK107, "&gt;1")</f>
         <v>4</v>
       </c>
-      <c r="AL16" s="41" t="n">
-        <f aca="false">SUM(F106:AJ107)</f>
+      <c r="AM16" s="41" t="n">
+        <f aca="false">SUM(F106:AK107)</f>
         <v>36</v>
       </c>
-      <c r="AM16" s="42" t="n">
-        <f aca="false">AN16*1.85</f>
+      <c r="AN16" s="42" t="n">
+        <f aca="false">AO16*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN16" s="86" t="n">
+      <c r="AO16" s="86" t="n">
         <v>20</v>
       </c>
-      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
     </row>
     <row r="17" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="29"/>
@@ -3954,13 +3966,14 @@
       <c r="AF17" s="67"/>
       <c r="AG17" s="67"/>
       <c r="AH17" s="67"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="88"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="86"/>
-      <c r="AO17" s="62"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="86"/>
+      <c r="AP17" s="62"/>
     </row>
     <row r="18" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="n">
@@ -4011,23 +4024,24 @@
       <c r="AF18" s="36"/>
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="40" t="n">
-        <f aca="false">COUNTIF(F108:AJ109, "&gt;1")</f>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="40" t="n">
+        <f aca="false">COUNTIF(F108:AK109, "&gt;1")</f>
         <v>2</v>
       </c>
-      <c r="AL18" s="41" t="e">
-        <f aca="false">SUM(F108:AJ109)</f>
+      <c r="AM18" s="41" t="e">
+        <f aca="false">SUM(F108:AK109)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM18" s="42" t="n">
+      <c r="AN18" s="42" t="n">
         <v>93</v>
       </c>
-      <c r="AN18" s="86" t="n">
+      <c r="AO18" s="86" t="n">
         <v>20</v>
       </c>
-      <c r="AO18" s="62" t="n">
+      <c r="AP18" s="62" t="n">
         <v>85</v>
       </c>
     </row>
@@ -4070,13 +4084,14 @@
       <c r="AF19" s="67"/>
       <c r="AG19" s="67"/>
       <c r="AH19" s="67"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="86"/>
-      <c r="AO19" s="62"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="86"/>
+      <c r="AP19" s="62"/>
     </row>
     <row r="20" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="n">
@@ -4131,27 +4146,28 @@
       <c r="AF20" s="35"/>
       <c r="AG20" s="35"/>
       <c r="AH20" s="36"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="40" t="n">
-        <f aca="false">COUNTIF(F110:AJ111, "&gt;1")</f>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="40" t="n">
+        <f aca="false">COUNTIF(F110:AK111, "&gt;1")</f>
         <v>4</v>
       </c>
-      <c r="AL20" s="41" t="n">
-        <f aca="false">SUM(F110:AJ111)</f>
+      <c r="AM20" s="41" t="n">
+        <f aca="false">SUM(F110:AK111)</f>
         <v>36</v>
       </c>
-      <c r="AM20" s="42" t="n">
-        <f aca="false">AN20*1.85</f>
+      <c r="AN20" s="42" t="n">
+        <f aca="false">AO20*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN20" s="86" t="n">
+      <c r="AO20" s="86" t="n">
         <v>20</v>
       </c>
-      <c r="AO20" s="62" t="n">
+      <c r="AP20" s="62" t="n">
         <v>42</v>
       </c>
-      <c r="AP20" s="45" t="s">
+      <c r="AQ20" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4198,14 +4214,15 @@
       <c r="AF21" s="64"/>
       <c r="AG21" s="64"/>
       <c r="AH21" s="67"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="86"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="45" t="s">
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="73"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="86"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4260,27 +4277,30 @@
       <c r="AH22" s="36" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="40" t="n">
-        <f aca="false">COUNTIF(F112:AJ113, "&gt;1")</f>
-        <v>3</v>
-      </c>
-      <c r="AL22" s="41" t="e">
-        <f aca="false">SUM(F112:AJ113)</f>
+      <c r="AI22" s="36" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="40" t="n">
+        <f aca="false">COUNTIF(F112:AK113, "&gt;1")</f>
+        <v>4</v>
+      </c>
+      <c r="AM22" s="41" t="e">
+        <f aca="false">SUM(F112:AK113)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM22" s="42" t="n">
-        <f aca="false">AN22*1.85</f>
+      <c r="AN22" s="42" t="n">
+        <f aca="false">AO22*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN22" s="86" t="n">
+      <c r="AO22" s="86" t="n">
         <v>20</v>
       </c>
-      <c r="AO22" s="62" t="n">
+      <c r="AP22" s="62" t="n">
         <v>38</v>
       </c>
-      <c r="AP22" s="45" t="s">
+      <c r="AQ22" s="45" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4325,13 +4345,16 @@
       <c r="AH23" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="86"/>
-      <c r="AO23" s="62"/>
+      <c r="AI23" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="86"/>
+      <c r="AP23" s="62"/>
     </row>
     <row r="24" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="101" t="n">
@@ -4384,24 +4407,25 @@
       <c r="AF24" s="35"/>
       <c r="AG24" s="36"/>
       <c r="AH24" s="36"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="40" t="n">
-        <f aca="false">COUNTIF(F114:AJ115, "&gt;1")</f>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="40" t="n">
+        <f aca="false">COUNTIF(F114:AK115, "&gt;1")</f>
         <v>2</v>
       </c>
-      <c r="AL24" s="41" t="e">
-        <f aca="false">SUM(F114:AJ115)</f>
+      <c r="AM24" s="41" t="e">
+        <f aca="false">SUM(F114:AK115)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM24" s="42" t="n">
-        <f aca="false">AN24*1.85</f>
+      <c r="AN24" s="42" t="n">
+        <f aca="false">AO24*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN24" s="86" t="n">
+      <c r="AO24" s="86" t="n">
         <v>20</v>
       </c>
-      <c r="AO24" s="62" t="n">
+      <c r="AP24" s="62" t="n">
         <v>62</v>
       </c>
     </row>
@@ -4446,13 +4470,14 @@
       <c r="AF25" s="64"/>
       <c r="AG25" s="67"/>
       <c r="AH25" s="67"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="86"/>
-      <c r="AO25" s="62"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="86"/>
+      <c r="AP25" s="62"/>
     </row>
     <row r="26" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="101" t="n">
@@ -4513,24 +4538,25 @@
       </c>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="40" t="n">
-        <f aca="false">COUNTIF(F116:AJ117, "&gt;1")</f>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="40" t="n">
+        <f aca="false">COUNTIF(F116:AK117, "&gt;1")</f>
         <v>7</v>
       </c>
-      <c r="AL26" s="41" t="e">
-        <f aca="false">SUM(F116:AJ117)</f>
+      <c r="AM26" s="41" t="e">
+        <f aca="false">SUM(F116:AK117)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM26" s="42" t="n">
-        <f aca="false">AN26*1.85</f>
+      <c r="AN26" s="42" t="n">
+        <f aca="false">AO26*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN26" s="86" t="n">
+      <c r="AO26" s="86" t="n">
         <v>20</v>
       </c>
-      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
     </row>
     <row r="27" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="104"/>
@@ -4581,13 +4607,14 @@
       </c>
       <c r="AG27" s="67"/>
       <c r="AH27" s="67"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="86"/>
-      <c r="AO27" s="62"/>
+      <c r="AI27" s="67"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="86"/>
+      <c r="AP27" s="62"/>
     </row>
     <row r="28" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="110" t="n">
@@ -4652,25 +4679,28 @@
       <c r="AH28" s="36" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="40" t="n">
-        <f aca="false">COUNTIF(F118:AJ119, "&gt;1")</f>
-        <v>9</v>
-      </c>
-      <c r="AL28" s="41" t="n">
-        <f aca="false">SUM(F118:AJ119)</f>
-        <v>96</v>
-      </c>
-      <c r="AM28" s="42" t="n">
-        <f aca="false">AN28*1.85</f>
+      <c r="AI28" s="36" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="40" t="n">
+        <f aca="false">COUNTIF(F118:AK119, "&gt;1")</f>
+        <v>10</v>
+      </c>
+      <c r="AM28" s="41" t="n">
+        <f aca="false">SUM(F118:AK119)</f>
+        <v>108</v>
+      </c>
+      <c r="AN28" s="42" t="n">
+        <f aca="false">AO28*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN28" s="86" t="n">
+      <c r="AO28" s="86" t="n">
         <v>20</v>
       </c>
-      <c r="AO28" s="62"/>
-      <c r="AQ28" s="113"/>
+      <c r="AP28" s="62"/>
+      <c r="AR28" s="113"/>
     </row>
     <row r="29" s="45" customFormat="true" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="104"/>
@@ -4725,13 +4755,16 @@
       <c r="AH29" s="67" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="AI29" s="72"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="86"/>
-      <c r="AO29" s="62"/>
+      <c r="AI29" s="67" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="86"/>
+      <c r="AP29" s="62"/>
     </row>
     <row r="30" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="115" t="n">
@@ -4792,25 +4825,26 @@
       <c r="AF30" s="112"/>
       <c r="AG30" s="36"/>
       <c r="AH30" s="35"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="40" t="n">
-        <f aca="false">COUNTIF(F120:AJ121, "&gt;1")</f>
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="40" t="n">
+        <f aca="false">COUNTIF(F120:AK121, "&gt;1")</f>
         <v>5</v>
       </c>
-      <c r="AL30" s="41" t="e">
-        <f aca="false">SUM(F120:AJ121)</f>
+      <c r="AM30" s="41" t="e">
+        <f aca="false">SUM(F120:AK121)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM30" s="42" t="n">
-        <f aca="false">AN30*0.92</f>
+      <c r="AN30" s="42" t="n">
+        <f aca="false">AO30*0.92</f>
         <v>18.4</v>
       </c>
-      <c r="AN30" s="61" t="n">
+      <c r="AO30" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO30" s="62"/>
-      <c r="AQ30" s="113"/>
+      <c r="AP30" s="62"/>
+      <c r="AR30" s="113"/>
     </row>
     <row r="31" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="115"/>
@@ -4861,13 +4895,14 @@
       <c r="AF31" s="67"/>
       <c r="AG31" s="67"/>
       <c r="AH31" s="64"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="73"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="61"/>
-      <c r="AO31" s="62"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="62"/>
     </row>
     <row r="32" s="45" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="n">
@@ -4932,24 +4967,25 @@
         <v>0.333333333333333</v>
       </c>
       <c r="AH32" s="36"/>
-      <c r="AI32" s="118"/>
-      <c r="AJ32" s="60"/>
-      <c r="AK32" s="40" t="n">
-        <f aca="false">COUNTIF(F122:AJ123, "&gt;1")</f>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="60"/>
+      <c r="AL32" s="40" t="n">
+        <f aca="false">COUNTIF(F122:AK123, "&gt;1")</f>
         <v>9</v>
       </c>
-      <c r="AL32" s="41" t="n">
-        <f aca="false">SUM(F122:AJ123)</f>
+      <c r="AM32" s="41" t="n">
+        <f aca="false">SUM(F122:AK123)</f>
         <v>88</v>
       </c>
-      <c r="AM32" s="42" t="n">
-        <f aca="false">AN32*0.92</f>
+      <c r="AN32" s="42" t="n">
+        <f aca="false">AO32*0.92</f>
         <v>18.4</v>
       </c>
-      <c r="AN32" s="61" t="n">
+      <c r="AO32" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
     </row>
     <row r="33" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
@@ -5004,13 +5040,14 @@
         <v>0.833333333333333</v>
       </c>
       <c r="AH33" s="67"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="40"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="61"/>
-      <c r="AO33" s="62"/>
+      <c r="AI33" s="67"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="61"/>
+      <c r="AP33" s="62"/>
     </row>
     <row r="34" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="29" t="n">
@@ -5069,24 +5106,25 @@
       <c r="AF34" s="78"/>
       <c r="AG34" s="78"/>
       <c r="AH34" s="36"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="60"/>
-      <c r="AK34" s="40" t="n">
-        <f aca="false">COUNTIF(F124:AJ125, "&gt;1")</f>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="118"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="40" t="n">
+        <f aca="false">COUNTIF(F124:AK125, "&gt;1")</f>
         <v>6</v>
       </c>
-      <c r="AL34" s="41" t="e">
-        <f aca="false">SUM(F124:AJ125)</f>
+      <c r="AM34" s="41" t="e">
+        <f aca="false">SUM(F124:AK125)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM34" s="121" t="n">
-        <f aca="false">AN34*1.85</f>
+      <c r="AN34" s="121" t="n">
+        <f aca="false">AO34*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN34" s="40" t="n">
+      <c r="AO34" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="AO34" s="62"/>
+      <c r="AP34" s="62"/>
     </row>
     <row r="35" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="29"/>
@@ -5135,13 +5173,14 @@
       <c r="AF35" s="67"/>
       <c r="AG35" s="67"/>
       <c r="AH35" s="67"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="40"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="121"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="62"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="73"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="121"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="62"/>
     </row>
     <row r="36" s="45" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="n">
@@ -5194,25 +5233,26 @@
       <c r="AF36" s="35"/>
       <c r="AG36" s="35"/>
       <c r="AH36" s="35"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="40" t="n">
-        <f aca="false">COUNTIF(F126:AJ127, "&gt;1")</f>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="40" t="n">
+        <f aca="false">COUNTIF(F126:AK127, "&gt;1")</f>
         <v>3</v>
       </c>
-      <c r="AL36" s="41" t="n">
-        <f aca="false">SUM(F126:AJ127)</f>
+      <c r="AM36" s="41" t="n">
+        <f aca="false">SUM(F126:AK127)</f>
         <v>24</v>
       </c>
-      <c r="AM36" s="42" t="n">
-        <f aca="false">AN36*1.85</f>
+      <c r="AN36" s="42" t="n">
+        <f aca="false">AO36*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN36" s="61" t="n">
+      <c r="AO36" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO36" s="62"/>
-      <c r="AP36" s="45" t="s">
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5257,13 +5297,14 @@
       <c r="AF37" s="64"/>
       <c r="AG37" s="64"/>
       <c r="AH37" s="64"/>
-      <c r="AI37" s="72"/>
-      <c r="AJ37" s="73"/>
-      <c r="AK37" s="40"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="61"/>
-      <c r="AO37" s="62"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="61"/>
+      <c r="AP37" s="62"/>
     </row>
     <row r="38" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="n">
@@ -5314,24 +5355,25 @@
       <c r="AF38" s="36"/>
       <c r="AG38" s="36"/>
       <c r="AH38" s="36"/>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="60"/>
-      <c r="AK38" s="40" t="n">
-        <f aca="false">COUNTIF(F128:AJ129, "&gt;1")</f>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="60"/>
+      <c r="AL38" s="40" t="n">
+        <f aca="false">COUNTIF(F128:AK129, "&gt;1")</f>
         <v>2</v>
       </c>
-      <c r="AL38" s="41" t="n">
-        <f aca="false">SUM(F128:AJ129)</f>
+      <c r="AM38" s="41" t="n">
+        <f aca="false">SUM(F128:AK129)</f>
         <v>24</v>
       </c>
-      <c r="AM38" s="42" t="n">
-        <f aca="false">AN38*1.85</f>
+      <c r="AN38" s="42" t="n">
+        <f aca="false">AO38*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN38" s="61" t="n">
+      <c r="AO38" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO38" s="62"/>
+      <c r="AP38" s="62"/>
     </row>
     <row r="39" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29"/>
@@ -5372,13 +5414,14 @@
       <c r="AF39" s="67"/>
       <c r="AG39" s="67"/>
       <c r="AH39" s="67"/>
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="73"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="61"/>
-      <c r="AO39" s="62"/>
+      <c r="AI39" s="67"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="42"/>
+      <c r="AO39" s="61"/>
+      <c r="AP39" s="62"/>
     </row>
     <row r="40" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="n">
@@ -5433,25 +5476,26 @@
       <c r="AF40" s="35"/>
       <c r="AG40" s="36"/>
       <c r="AH40" s="36"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="60"/>
-      <c r="AK40" s="40" t="n">
-        <f aca="false">COUNTIF(F130:AJ131, "&gt;1")</f>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="60"/>
+      <c r="AL40" s="40" t="n">
+        <f aca="false">COUNTIF(F130:AK131, "&gt;1")</f>
         <v>4</v>
       </c>
-      <c r="AL40" s="41" t="n">
-        <f aca="false">SUM(F130:AJ131)</f>
+      <c r="AM40" s="41" t="n">
+        <f aca="false">SUM(F130:AK131)</f>
         <v>36</v>
       </c>
-      <c r="AM40" s="42" t="n">
-        <f aca="false">AN40*1.85</f>
+      <c r="AN40" s="42" t="n">
+        <f aca="false">AO40*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN40" s="61" t="n">
+      <c r="AO40" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO40" s="62"/>
-      <c r="AQ40" s="113"/>
+      <c r="AP40" s="62"/>
+      <c r="AR40" s="113"/>
     </row>
     <row r="41" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29"/>
@@ -5496,13 +5540,14 @@
       <c r="AF41" s="64"/>
       <c r="AG41" s="67"/>
       <c r="AH41" s="67"/>
-      <c r="AI41" s="72"/>
-      <c r="AJ41" s="73"/>
-      <c r="AK41" s="40"/>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="61"/>
-      <c r="AO41" s="62"/>
+      <c r="AI41" s="67"/>
+      <c r="AJ41" s="72"/>
+      <c r="AK41" s="73"/>
+      <c r="AL41" s="40"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="61"/>
+      <c r="AP41" s="62"/>
     </row>
     <row r="42" s="122" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="n">
@@ -5555,27 +5600,28 @@
       <c r="AF42" s="36"/>
       <c r="AG42" s="36"/>
       <c r="AH42" s="36"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="40" t="n">
-        <f aca="false">COUNTIF(F132:AJ133, "&gt;1")</f>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="60"/>
+      <c r="AL42" s="40" t="n">
+        <f aca="false">COUNTIF(F132:AK133, "&gt;1")</f>
         <v>3</v>
       </c>
-      <c r="AL42" s="41" t="n">
-        <f aca="false">SUM(F132:AJ133)</f>
+      <c r="AM42" s="41" t="n">
+        <f aca="false">SUM(F132:AK133)</f>
         <v>24</v>
       </c>
-      <c r="AM42" s="42" t="n">
-        <f aca="false">AN42*1.85</f>
+      <c r="AN42" s="42" t="n">
+        <f aca="false">AO42*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN42" s="61" t="n">
+      <c r="AO42" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO42" s="62"/>
-      <c r="AP42" s="1"/>
+      <c r="AP42" s="62"/>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
     </row>
     <row r="43" s="122" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29"/>
@@ -5618,16 +5664,17 @@
       <c r="AF43" s="67"/>
       <c r="AG43" s="67"/>
       <c r="AH43" s="67"/>
-      <c r="AI43" s="72"/>
-      <c r="AJ43" s="73"/>
-      <c r="AK43" s="40"/>
-      <c r="AL43" s="41"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="61"/>
-      <c r="AO43" s="62"/>
-      <c r="AP43" s="1"/>
+      <c r="AI43" s="67"/>
+      <c r="AJ43" s="72"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="40"/>
+      <c r="AM43" s="41"/>
+      <c r="AN43" s="42"/>
+      <c r="AO43" s="61"/>
+      <c r="AP43" s="62"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
     </row>
     <row r="44" s="122" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="s">
@@ -5682,27 +5729,28 @@
       <c r="AF44" s="36"/>
       <c r="AG44" s="36"/>
       <c r="AH44" s="36"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="40" t="n">
-        <f aca="false">COUNTIF(F134:AJ135, "&gt;1")</f>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="60"/>
+      <c r="AL44" s="40" t="n">
+        <f aca="false">COUNTIF(F134:AK135, "&gt;1")</f>
         <v>4</v>
       </c>
-      <c r="AL44" s="41" t="n">
-        <f aca="false">SUM(F134:AJ135)</f>
+      <c r="AM44" s="41" t="n">
+        <f aca="false">SUM(F134:AK135)</f>
         <v>36</v>
       </c>
-      <c r="AM44" s="42" t="n">
-        <f aca="false">AN44*1.85</f>
+      <c r="AN44" s="42" t="n">
+        <f aca="false">AO44*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN44" s="61" t="n">
+      <c r="AO44" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="1"/>
+      <c r="AP44" s="62"/>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
     </row>
     <row r="45" s="122" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29"/>
@@ -5747,16 +5795,17 @@
       <c r="AF45" s="67"/>
       <c r="AG45" s="67"/>
       <c r="AH45" s="67"/>
-      <c r="AI45" s="72"/>
-      <c r="AJ45" s="73"/>
-      <c r="AK45" s="40"/>
-      <c r="AL45" s="41"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="61"/>
-      <c r="AO45" s="62"/>
-      <c r="AP45" s="1"/>
+      <c r="AI45" s="67"/>
+      <c r="AJ45" s="72"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="41"/>
+      <c r="AN45" s="42"/>
+      <c r="AO45" s="61"/>
+      <c r="AP45" s="62"/>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
     </row>
     <row r="46" s="122" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="s">
@@ -5803,27 +5852,28 @@
       <c r="AF46" s="36"/>
       <c r="AG46" s="36"/>
       <c r="AH46" s="36"/>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="40" t="n">
-        <f aca="false">COUNTIF(F136:AJ137, "&gt;1")</f>
-        <v>0</v>
-      </c>
-      <c r="AL46" s="41" t="n">
-        <f aca="false">SUM(F136:AJ137)</f>
-        <v>0</v>
-      </c>
-      <c r="AM46" s="42" t="n">
-        <f aca="false">AN46*1.85</f>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="60"/>
+      <c r="AL46" s="40" t="n">
+        <f aca="false">COUNTIF(F136:AK137, "&gt;1")</f>
+        <v>0</v>
+      </c>
+      <c r="AM46" s="41" t="n">
+        <f aca="false">SUM(F136:AK137)</f>
+        <v>0</v>
+      </c>
+      <c r="AN46" s="42" t="n">
+        <f aca="false">AO46*1.85</f>
         <v>37</v>
       </c>
-      <c r="AN46" s="61" t="n">
+      <c r="AO46" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="AO46" s="62"/>
-      <c r="AP46" s="1"/>
+      <c r="AP46" s="62"/>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
     </row>
     <row r="47" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29"/>
@@ -5860,13 +5910,14 @@
       <c r="AF47" s="67"/>
       <c r="AG47" s="67"/>
       <c r="AH47" s="67"/>
-      <c r="AI47" s="72"/>
-      <c r="AJ47" s="73"/>
-      <c r="AK47" s="40"/>
-      <c r="AL47" s="41"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="61"/>
-      <c r="AO47" s="62"/>
+      <c r="AI47" s="67"/>
+      <c r="AJ47" s="72"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="41"/>
+      <c r="AN47" s="42"/>
+      <c r="AO47" s="61"/>
+      <c r="AP47" s="62"/>
     </row>
     <row r="48" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
@@ -5921,24 +5972,27 @@
       <c r="AH48" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="60"/>
-      <c r="AK48" s="40" t="n">
-        <f aca="false">COUNTIF(F138:AJ139, "&gt;1")</f>
-        <v>4</v>
-      </c>
-      <c r="AL48" s="41" t="n">
-        <f aca="false">SUM(F138:AJ139)</f>
-        <v>36</v>
-      </c>
-      <c r="AM48" s="42" t="n">
-        <f aca="false">AN48*3.7</f>
+      <c r="AI48" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="38"/>
+      <c r="AK48" s="60"/>
+      <c r="AL48" s="40" t="n">
+        <f aca="false">COUNTIF(F138:AK139, "&gt;1")</f>
+        <v>5</v>
+      </c>
+      <c r="AM48" s="41" t="n">
+        <f aca="false">SUM(F138:AK139)</f>
+        <v>44</v>
+      </c>
+      <c r="AN48" s="42" t="n">
+        <f aca="false">AO48*3.7</f>
         <v>74</v>
       </c>
-      <c r="AN48" s="29" t="n">
+      <c r="AO48" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="AO48" s="123"/>
+      <c r="AP48" s="123"/>
     </row>
     <row r="49" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29"/>
@@ -5983,13 +6037,16 @@
       <c r="AH49" s="67" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="AI49" s="72"/>
-      <c r="AJ49" s="73"/>
-      <c r="AK49" s="40"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="29"/>
-      <c r="AO49" s="123"/>
+      <c r="AI49" s="67" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AJ49" s="72"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="40"/>
+      <c r="AM49" s="41"/>
+      <c r="AN49" s="42"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="123"/>
     </row>
     <row r="50" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="s">
@@ -6036,24 +6093,25 @@
       <c r="AF50" s="36"/>
       <c r="AG50" s="36"/>
       <c r="AH50" s="36"/>
-      <c r="AI50" s="38"/>
-      <c r="AJ50" s="60"/>
-      <c r="AK50" s="40" t="n">
-        <f aca="false">COUNTIF(F140:AJ141, "&gt;1")</f>
-        <v>0</v>
-      </c>
-      <c r="AL50" s="41" t="n">
-        <f aca="false">SUM(F140:AJ141)</f>
-        <v>0</v>
-      </c>
-      <c r="AM50" s="42" t="n">
-        <f aca="false">AN50*3.7</f>
+      <c r="AI50" s="36"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="60"/>
+      <c r="AL50" s="40" t="n">
+        <f aca="false">COUNTIF(F140:AK141, "&gt;1")</f>
+        <v>0</v>
+      </c>
+      <c r="AM50" s="41" t="n">
+        <f aca="false">SUM(F140:AK141)</f>
+        <v>0</v>
+      </c>
+      <c r="AN50" s="42" t="n">
+        <f aca="false">AO50*3.7</f>
         <v>74</v>
       </c>
-      <c r="AN50" s="29" t="n">
+      <c r="AO50" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="AO50" s="123"/>
+      <c r="AP50" s="123"/>
     </row>
     <row r="51" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29"/>
@@ -6090,13 +6148,14 @@
       <c r="AF51" s="67"/>
       <c r="AG51" s="67"/>
       <c r="AH51" s="67"/>
-      <c r="AI51" s="72"/>
-      <c r="AJ51" s="73"/>
-      <c r="AK51" s="40"/>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="42"/>
-      <c r="AN51" s="29"/>
-      <c r="AO51" s="123"/>
+      <c r="AI51" s="67"/>
+      <c r="AJ51" s="72"/>
+      <c r="AK51" s="73"/>
+      <c r="AL51" s="40"/>
+      <c r="AM51" s="41"/>
+      <c r="AN51" s="42"/>
+      <c r="AO51" s="29"/>
+      <c r="AP51" s="123"/>
     </row>
     <row r="52" s="137" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="128"/>
@@ -6133,16 +6192,17 @@
       <c r="AF52" s="36"/>
       <c r="AG52" s="36"/>
       <c r="AH52" s="36"/>
-      <c r="AI52" s="38"/>
-      <c r="AJ52" s="60"/>
-      <c r="AK52" s="133"/>
-      <c r="AL52" s="134"/>
-      <c r="AM52" s="128"/>
+      <c r="AI52" s="36"/>
+      <c r="AJ52" s="38"/>
+      <c r="AK52" s="60"/>
+      <c r="AL52" s="133"/>
+      <c r="AM52" s="134"/>
       <c r="AN52" s="128"/>
-      <c r="AO52" s="135"/>
-      <c r="AP52" s="136"/>
+      <c r="AO52" s="128"/>
+      <c r="AP52" s="135"/>
       <c r="AQ52" s="136"/>
       <c r="AR52" s="136"/>
+      <c r="AS52" s="136"/>
     </row>
     <row r="53" s="137" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="128"/>
@@ -6179,16 +6239,17 @@
       <c r="AF53" s="67"/>
       <c r="AG53" s="67"/>
       <c r="AH53" s="67"/>
-      <c r="AI53" s="72"/>
-      <c r="AJ53" s="73"/>
-      <c r="AK53" s="133"/>
-      <c r="AL53" s="134"/>
-      <c r="AM53" s="128"/>
+      <c r="AI53" s="67"/>
+      <c r="AJ53" s="72"/>
+      <c r="AK53" s="73"/>
+      <c r="AL53" s="133"/>
+      <c r="AM53" s="134"/>
       <c r="AN53" s="128"/>
-      <c r="AO53" s="135"/>
-      <c r="AP53" s="136"/>
+      <c r="AO53" s="128"/>
+      <c r="AP53" s="135"/>
       <c r="AQ53" s="136"/>
       <c r="AR53" s="136"/>
+      <c r="AS53" s="136"/>
     </row>
     <row r="54" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="138"/>
@@ -6227,13 +6288,14 @@
       <c r="AF54" s="36"/>
       <c r="AG54" s="36"/>
       <c r="AH54" s="36"/>
-      <c r="AI54" s="38"/>
-      <c r="AJ54" s="60"/>
-      <c r="AK54" s="139"/>
-      <c r="AL54" s="140"/>
-      <c r="AM54" s="29"/>
+      <c r="AI54" s="36"/>
+      <c r="AJ54" s="38"/>
+      <c r="AK54" s="60"/>
+      <c r="AL54" s="139"/>
+      <c r="AM54" s="140"/>
       <c r="AN54" s="29"/>
-      <c r="AO54" s="123"/>
+      <c r="AO54" s="29"/>
+      <c r="AP54" s="123"/>
     </row>
     <row r="55" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="138"/>
@@ -6270,13 +6332,14 @@
       <c r="AF55" s="67"/>
       <c r="AG55" s="67"/>
       <c r="AH55" s="67"/>
-      <c r="AI55" s="72"/>
-      <c r="AJ55" s="73"/>
-      <c r="AK55" s="139"/>
-      <c r="AL55" s="140"/>
-      <c r="AM55" s="29"/>
+      <c r="AI55" s="67"/>
+      <c r="AJ55" s="72"/>
+      <c r="AK55" s="73"/>
+      <c r="AL55" s="139"/>
+      <c r="AM55" s="140"/>
       <c r="AN55" s="29"/>
-      <c r="AO55" s="123"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="123"/>
     </row>
     <row r="56" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29"/>
@@ -6315,13 +6378,14 @@
       <c r="AF56" s="36"/>
       <c r="AG56" s="36"/>
       <c r="AH56" s="36"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="60"/>
-      <c r="AK56" s="139"/>
-      <c r="AL56" s="140"/>
-      <c r="AM56" s="29"/>
+      <c r="AI56" s="36"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="60"/>
+      <c r="AL56" s="139"/>
+      <c r="AM56" s="140"/>
       <c r="AN56" s="29"/>
-      <c r="AO56" s="123"/>
+      <c r="AO56" s="29"/>
+      <c r="AP56" s="123"/>
     </row>
     <row r="57" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29"/>
@@ -6358,13 +6422,14 @@
       <c r="AF57" s="67"/>
       <c r="AG57" s="67"/>
       <c r="AH57" s="67"/>
-      <c r="AI57" s="72"/>
-      <c r="AJ57" s="73"/>
-      <c r="AK57" s="139"/>
-      <c r="AL57" s="140"/>
-      <c r="AM57" s="29"/>
+      <c r="AI57" s="67"/>
+      <c r="AJ57" s="72"/>
+      <c r="AK57" s="73"/>
+      <c r="AL57" s="139"/>
+      <c r="AM57" s="140"/>
       <c r="AN57" s="29"/>
-      <c r="AO57" s="123"/>
+      <c r="AO57" s="29"/>
+      <c r="AP57" s="123"/>
     </row>
     <row r="58" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29"/>
@@ -6403,13 +6468,14 @@
       <c r="AF58" s="36"/>
       <c r="AG58" s="36"/>
       <c r="AH58" s="36"/>
-      <c r="AI58" s="38"/>
-      <c r="AJ58" s="60"/>
-      <c r="AK58" s="139"/>
-      <c r="AL58" s="140"/>
-      <c r="AM58" s="29"/>
+      <c r="AI58" s="36"/>
+      <c r="AJ58" s="38"/>
+      <c r="AK58" s="60"/>
+      <c r="AL58" s="139"/>
+      <c r="AM58" s="140"/>
       <c r="AN58" s="29"/>
-      <c r="AO58" s="123"/>
+      <c r="AO58" s="29"/>
+      <c r="AP58" s="123"/>
     </row>
     <row r="59" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29"/>
@@ -6446,13 +6512,14 @@
       <c r="AF59" s="67"/>
       <c r="AG59" s="67"/>
       <c r="AH59" s="67"/>
-      <c r="AI59" s="72"/>
-      <c r="AJ59" s="73"/>
-      <c r="AK59" s="139"/>
-      <c r="AL59" s="140"/>
-      <c r="AM59" s="29"/>
+      <c r="AI59" s="67"/>
+      <c r="AJ59" s="72"/>
+      <c r="AK59" s="73"/>
+      <c r="AL59" s="139"/>
+      <c r="AM59" s="140"/>
       <c r="AN59" s="29"/>
-      <c r="AO59" s="123"/>
+      <c r="AO59" s="29"/>
+      <c r="AP59" s="123"/>
     </row>
     <row r="60" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29"/>
@@ -6491,13 +6558,14 @@
       <c r="AF60" s="36"/>
       <c r="AG60" s="36"/>
       <c r="AH60" s="36"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="60"/>
-      <c r="AK60" s="139"/>
-      <c r="AL60" s="140"/>
-      <c r="AM60" s="29"/>
+      <c r="AI60" s="36"/>
+      <c r="AJ60" s="38"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="139"/>
+      <c r="AM60" s="140"/>
       <c r="AN60" s="29"/>
-      <c r="AO60" s="123"/>
+      <c r="AO60" s="29"/>
+      <c r="AP60" s="123"/>
     </row>
     <row r="61" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29"/>
@@ -6534,13 +6602,14 @@
       <c r="AF61" s="67"/>
       <c r="AG61" s="67"/>
       <c r="AH61" s="67"/>
-      <c r="AI61" s="72"/>
-      <c r="AJ61" s="73"/>
-      <c r="AK61" s="139"/>
-      <c r="AL61" s="140"/>
-      <c r="AM61" s="29"/>
+      <c r="AI61" s="67"/>
+      <c r="AJ61" s="72"/>
+      <c r="AK61" s="73"/>
+      <c r="AL61" s="139"/>
+      <c r="AM61" s="140"/>
       <c r="AN61" s="29"/>
-      <c r="AO61" s="123"/>
+      <c r="AO61" s="29"/>
+      <c r="AP61" s="123"/>
     </row>
     <row r="62" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29"/>
@@ -6578,12 +6647,13 @@
       <c r="AG62" s="37"/>
       <c r="AH62" s="36"/>
       <c r="AI62" s="36"/>
-      <c r="AJ62" s="60"/>
-      <c r="AK62" s="139"/>
-      <c r="AL62" s="140"/>
-      <c r="AM62" s="29"/>
+      <c r="AJ62" s="36"/>
+      <c r="AK62" s="60"/>
+      <c r="AL62" s="139"/>
+      <c r="AM62" s="140"/>
       <c r="AN62" s="29"/>
-      <c r="AO62" s="123"/>
+      <c r="AO62" s="29"/>
+      <c r="AP62" s="123"/>
     </row>
     <row r="63" s="45" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29"/>
@@ -6621,12 +6691,13 @@
       <c r="AG63" s="58"/>
       <c r="AH63" s="67"/>
       <c r="AI63" s="67"/>
-      <c r="AJ63" s="73"/>
-      <c r="AK63" s="139"/>
-      <c r="AL63" s="140"/>
-      <c r="AM63" s="29"/>
+      <c r="AJ63" s="67"/>
+      <c r="AK63" s="73"/>
+      <c r="AL63" s="139"/>
+      <c r="AM63" s="140"/>
       <c r="AN63" s="29"/>
-      <c r="AO63" s="123"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="123"/>
     </row>
     <row r="64" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29"/>
@@ -6664,12 +6735,13 @@
       <c r="AG64" s="36"/>
       <c r="AH64" s="36"/>
       <c r="AI64" s="36"/>
-      <c r="AJ64" s="60"/>
-      <c r="AK64" s="139"/>
-      <c r="AL64" s="140"/>
-      <c r="AM64" s="29"/>
+      <c r="AJ64" s="36"/>
+      <c r="AK64" s="60"/>
+      <c r="AL64" s="139"/>
+      <c r="AM64" s="140"/>
       <c r="AN64" s="29"/>
-      <c r="AO64" s="123"/>
+      <c r="AO64" s="29"/>
+      <c r="AP64" s="123"/>
     </row>
     <row r="65" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29"/>
@@ -6707,12 +6779,13 @@
       <c r="AG65" s="67"/>
       <c r="AH65" s="67"/>
       <c r="AI65" s="67"/>
-      <c r="AJ65" s="73"/>
-      <c r="AK65" s="139"/>
-      <c r="AL65" s="140"/>
-      <c r="AM65" s="29"/>
+      <c r="AJ65" s="67"/>
+      <c r="AK65" s="73"/>
+      <c r="AL65" s="139"/>
+      <c r="AM65" s="140"/>
       <c r="AN65" s="29"/>
-      <c r="AO65" s="123"/>
+      <c r="AO65" s="29"/>
+      <c r="AP65" s="123"/>
     </row>
     <row r="66" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29"/>
@@ -6750,12 +6823,13 @@
       <c r="AG66" s="36"/>
       <c r="AH66" s="36"/>
       <c r="AI66" s="36"/>
-      <c r="AJ66" s="60"/>
-      <c r="AK66" s="139"/>
-      <c r="AL66" s="140"/>
-      <c r="AM66" s="29"/>
+      <c r="AJ66" s="36"/>
+      <c r="AK66" s="60"/>
+      <c r="AL66" s="139"/>
+      <c r="AM66" s="140"/>
       <c r="AN66" s="29"/>
-      <c r="AO66" s="123"/>
+      <c r="AO66" s="29"/>
+      <c r="AP66" s="123"/>
     </row>
     <row r="67" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29"/>
@@ -6793,12 +6867,13 @@
       <c r="AG67" s="67"/>
       <c r="AH67" s="67"/>
       <c r="AI67" s="67"/>
-      <c r="AJ67" s="73"/>
-      <c r="AK67" s="139"/>
-      <c r="AL67" s="140"/>
-      <c r="AM67" s="29"/>
+      <c r="AJ67" s="67"/>
+      <c r="AK67" s="73"/>
+      <c r="AL67" s="139"/>
+      <c r="AM67" s="140"/>
       <c r="AN67" s="29"/>
-      <c r="AO67" s="123"/>
+      <c r="AO67" s="29"/>
+      <c r="AP67" s="123"/>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29"/>
@@ -6836,12 +6911,13 @@
       <c r="AG68" s="36"/>
       <c r="AH68" s="36"/>
       <c r="AI68" s="36"/>
-      <c r="AJ68" s="60"/>
-      <c r="AK68" s="139"/>
-      <c r="AL68" s="140"/>
-      <c r="AM68" s="29"/>
+      <c r="AJ68" s="36"/>
+      <c r="AK68" s="60"/>
+      <c r="AL68" s="139"/>
+      <c r="AM68" s="140"/>
       <c r="AN68" s="29"/>
-      <c r="AO68" s="123"/>
+      <c r="AO68" s="29"/>
+      <c r="AP68" s="123"/>
     </row>
     <row r="69" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="29"/>
@@ -6879,12 +6955,13 @@
       <c r="AG69" s="67"/>
       <c r="AH69" s="67"/>
       <c r="AI69" s="67"/>
-      <c r="AJ69" s="73"/>
-      <c r="AK69" s="139"/>
-      <c r="AL69" s="140"/>
-      <c r="AM69" s="29"/>
+      <c r="AJ69" s="67"/>
+      <c r="AK69" s="73"/>
+      <c r="AL69" s="139"/>
+      <c r="AM69" s="140"/>
       <c r="AN69" s="29"/>
-      <c r="AO69" s="123"/>
+      <c r="AO69" s="29"/>
+      <c r="AP69" s="123"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="141"/>
@@ -6916,12 +6993,13 @@
       <c r="AF70" s="141"/>
       <c r="AG70" s="142"/>
       <c r="AH70" s="142"/>
-      <c r="AI70" s="141"/>
-      <c r="AJ70" s="143"/>
-      <c r="AK70" s="1"/>
+      <c r="AI70" s="142"/>
+      <c r="AJ70" s="141"/>
+      <c r="AK70" s="143"/>
       <c r="AL70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="142"/>
       <c r="G71" s="141"/>
       <c r="H71" s="141"/>
@@ -6953,19 +7031,20 @@
       <c r="AF71" s="141"/>
       <c r="AG71" s="142"/>
       <c r="AH71" s="142"/>
-      <c r="AI71" s="141"/>
+      <c r="AI71" s="142"/>
       <c r="AJ71" s="141"/>
-      <c r="AK71" s="1"/>
+      <c r="AK71" s="141"/>
       <c r="AL71" s="1"/>
-      <c r="AM71" s="145" t="n">
-        <f aca="false">SUM(AM10:AM33)</f>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="145" t="n">
+        <f aca="false">SUM(AN10:AN33)</f>
         <v>536.8</v>
       </c>
-      <c r="AN71" s="0" t="n">
+      <c r="AO71" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="142"/>
       <c r="G72" s="141"/>
       <c r="H72" s="141"/>
@@ -6997,12 +7076,13 @@
       <c r="AF72" s="141"/>
       <c r="AG72" s="142"/>
       <c r="AH72" s="142"/>
-      <c r="AI72" s="141"/>
+      <c r="AI72" s="142"/>
       <c r="AJ72" s="141"/>
-      <c r="AK72" s="1"/>
+      <c r="AK72" s="141"/>
       <c r="AL72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="142"/>
       <c r="G73" s="141"/>
       <c r="H73" s="141"/>
@@ -7034,12 +7114,13 @@
       <c r="AF73" s="141"/>
       <c r="AG73" s="142"/>
       <c r="AH73" s="142"/>
-      <c r="AI73" s="141"/>
+      <c r="AI73" s="142"/>
       <c r="AJ73" s="141"/>
-      <c r="AK73" s="1"/>
+      <c r="AK73" s="141"/>
       <c r="AL73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="142"/>
       <c r="G74" s="141"/>
       <c r="H74" s="141"/>
@@ -7071,12 +7152,13 @@
       <c r="AF74" s="141"/>
       <c r="AG74" s="142"/>
       <c r="AH74" s="142"/>
-      <c r="AI74" s="141"/>
+      <c r="AI74" s="142"/>
       <c r="AJ74" s="141"/>
-      <c r="AK74" s="1"/>
+      <c r="AK74" s="141"/>
       <c r="AL74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="142"/>
       <c r="G75" s="141"/>
       <c r="H75" s="141"/>
@@ -7108,12 +7190,13 @@
       <c r="AF75" s="141"/>
       <c r="AG75" s="142"/>
       <c r="AH75" s="142"/>
-      <c r="AI75" s="141"/>
+      <c r="AI75" s="142"/>
       <c r="AJ75" s="141"/>
-      <c r="AK75" s="1"/>
+      <c r="AK75" s="141"/>
       <c r="AL75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="142"/>
       <c r="G76" s="141"/>
       <c r="H76" s="141"/>
@@ -7145,12 +7228,13 @@
       <c r="AF76" s="141"/>
       <c r="AG76" s="142"/>
       <c r="AH76" s="142"/>
-      <c r="AI76" s="141"/>
+      <c r="AI76" s="142"/>
       <c r="AJ76" s="141"/>
-      <c r="AK76" s="1"/>
+      <c r="AK76" s="141"/>
       <c r="AL76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="142"/>
       <c r="G77" s="141"/>
       <c r="H77" s="141"/>
@@ -7182,12 +7266,13 @@
       <c r="AF77" s="141"/>
       <c r="AG77" s="142"/>
       <c r="AH77" s="142"/>
-      <c r="AI77" s="141"/>
+      <c r="AI77" s="142"/>
       <c r="AJ77" s="141"/>
-      <c r="AK77" s="1"/>
+      <c r="AK77" s="141"/>
       <c r="AL77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F78" s="142"/>
       <c r="G78" s="141"/>
       <c r="H78" s="141"/>
@@ -7219,12 +7304,13 @@
       <c r="AF78" s="141"/>
       <c r="AG78" s="142"/>
       <c r="AH78" s="142"/>
-      <c r="AI78" s="141"/>
+      <c r="AI78" s="142"/>
       <c r="AJ78" s="141"/>
-      <c r="AK78" s="1"/>
+      <c r="AK78" s="141"/>
       <c r="AL78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="142"/>
       <c r="G79" s="141"/>
       <c r="H79" s="141"/>
@@ -7256,12 +7342,13 @@
       <c r="AF79" s="141"/>
       <c r="AG79" s="142"/>
       <c r="AH79" s="142"/>
-      <c r="AI79" s="141"/>
+      <c r="AI79" s="142"/>
       <c r="AJ79" s="141"/>
-      <c r="AK79" s="1"/>
+      <c r="AK79" s="141"/>
       <c r="AL79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F80" s="142"/>
       <c r="G80" s="141"/>
       <c r="H80" s="141"/>
@@ -7293,12 +7380,13 @@
       <c r="AF80" s="141"/>
       <c r="AG80" s="142"/>
       <c r="AH80" s="142"/>
-      <c r="AI80" s="141"/>
+      <c r="AI80" s="142"/>
       <c r="AJ80" s="141"/>
-      <c r="AK80" s="1"/>
+      <c r="AK80" s="141"/>
       <c r="AL80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="142"/>
       <c r="G81" s="141"/>
       <c r="H81" s="141"/>
@@ -7330,12 +7418,13 @@
       <c r="AF81" s="141"/>
       <c r="AG81" s="142"/>
       <c r="AH81" s="142"/>
-      <c r="AI81" s="141"/>
+      <c r="AI81" s="142"/>
       <c r="AJ81" s="141"/>
-      <c r="AK81" s="1"/>
+      <c r="AK81" s="141"/>
       <c r="AL81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F82" s="142"/>
       <c r="G82" s="141"/>
       <c r="H82" s="141"/>
@@ -7367,12 +7456,13 @@
       <c r="AF82" s="141"/>
       <c r="AG82" s="142"/>
       <c r="AH82" s="142"/>
-      <c r="AI82" s="141"/>
+      <c r="AI82" s="142"/>
       <c r="AJ82" s="141"/>
-      <c r="AK82" s="1"/>
+      <c r="AK82" s="141"/>
       <c r="AL82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="142"/>
       <c r="G83" s="141"/>
       <c r="H83" s="141"/>
@@ -7404,12 +7494,13 @@
       <c r="AF83" s="141"/>
       <c r="AG83" s="142"/>
       <c r="AH83" s="142"/>
-      <c r="AI83" s="141"/>
+      <c r="AI83" s="142"/>
       <c r="AJ83" s="141"/>
-      <c r="AK83" s="1"/>
+      <c r="AK83" s="141"/>
       <c r="AL83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="142"/>
       <c r="G84" s="141"/>
       <c r="H84" s="141"/>
@@ -7441,12 +7532,13 @@
       <c r="AF84" s="141"/>
       <c r="AG84" s="142"/>
       <c r="AH84" s="142"/>
-      <c r="AI84" s="141"/>
+      <c r="AI84" s="142"/>
       <c r="AJ84" s="141"/>
-      <c r="AK84" s="1"/>
+      <c r="AK84" s="141"/>
       <c r="AL84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F85" s="142"/>
       <c r="G85" s="141"/>
       <c r="H85" s="141"/>
@@ -7478,12 +7570,13 @@
       <c r="AF85" s="141"/>
       <c r="AG85" s="142"/>
       <c r="AH85" s="142"/>
-      <c r="AI85" s="141"/>
+      <c r="AI85" s="142"/>
       <c r="AJ85" s="141"/>
-      <c r="AK85" s="1"/>
+      <c r="AK85" s="141"/>
       <c r="AL85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F86" s="142"/>
       <c r="G86" s="141"/>
       <c r="H86" s="141"/>
@@ -7515,12 +7608,13 @@
       <c r="AF86" s="141"/>
       <c r="AG86" s="142"/>
       <c r="AH86" s="142"/>
-      <c r="AI86" s="141"/>
+      <c r="AI86" s="142"/>
       <c r="AJ86" s="141"/>
-      <c r="AK86" s="1"/>
+      <c r="AK86" s="141"/>
       <c r="AL86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F87" s="142"/>
       <c r="G87" s="141"/>
       <c r="H87" s="141"/>
@@ -7552,12 +7646,13 @@
       <c r="AF87" s="141"/>
       <c r="AG87" s="142"/>
       <c r="AH87" s="142"/>
-      <c r="AI87" s="141"/>
+      <c r="AI87" s="142"/>
       <c r="AJ87" s="141"/>
-      <c r="AK87" s="1"/>
+      <c r="AK87" s="141"/>
       <c r="AL87" s="1"/>
-    </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F88" s="142"/>
       <c r="G88" s="141"/>
       <c r="H88" s="141"/>
@@ -7589,10 +7684,11 @@
       <c r="AF88" s="141"/>
       <c r="AG88" s="142"/>
       <c r="AH88" s="142"/>
-      <c r="AI88" s="141"/>
+      <c r="AI88" s="142"/>
       <c r="AJ88" s="141"/>
-      <c r="AK88" s="1"/>
+      <c r="AK88" s="141"/>
       <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F89" s="142"/>
@@ -7624,10 +7720,11 @@
       <c r="AF89" s="141"/>
       <c r="AG89" s="142"/>
       <c r="AH89" s="142"/>
-      <c r="AI89" s="141"/>
+      <c r="AI89" s="142"/>
       <c r="AJ89" s="141"/>
-      <c r="AK89" s="1"/>
+      <c r="AK89" s="141"/>
       <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F90" s="142"/>
@@ -7659,10 +7756,11 @@
       <c r="AF90" s="141"/>
       <c r="AG90" s="142"/>
       <c r="AH90" s="142"/>
-      <c r="AI90" s="141"/>
+      <c r="AI90" s="142"/>
       <c r="AJ90" s="141"/>
-      <c r="AK90" s="1"/>
+      <c r="AK90" s="141"/>
       <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F91" s="142"/>
@@ -7694,10 +7792,11 @@
       <c r="AF91" s="141"/>
       <c r="AG91" s="142"/>
       <c r="AH91" s="142"/>
-      <c r="AI91" s="141"/>
+      <c r="AI91" s="142"/>
       <c r="AJ91" s="141"/>
-      <c r="AK91" s="1"/>
+      <c r="AK91" s="141"/>
       <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F92" s="142"/>
@@ -7729,10 +7828,11 @@
       <c r="AF92" s="141"/>
       <c r="AG92" s="142"/>
       <c r="AH92" s="142"/>
-      <c r="AI92" s="141"/>
+      <c r="AI92" s="142"/>
       <c r="AJ92" s="141"/>
-      <c r="AK92" s="1"/>
+      <c r="AK92" s="141"/>
       <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F93" s="142"/>
@@ -7764,10 +7864,11 @@
       <c r="AF93" s="141"/>
       <c r="AG93" s="142"/>
       <c r="AH93" s="142"/>
-      <c r="AI93" s="141"/>
+      <c r="AI93" s="142"/>
       <c r="AJ93" s="141"/>
-      <c r="AK93" s="1"/>
+      <c r="AK93" s="141"/>
       <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F94" s="142"/>
@@ -7799,10 +7900,11 @@
       <c r="AF94" s="141"/>
       <c r="AG94" s="142"/>
       <c r="AH94" s="142"/>
-      <c r="AI94" s="141"/>
+      <c r="AI94" s="142"/>
       <c r="AJ94" s="141"/>
-      <c r="AK94" s="1"/>
+      <c r="AK94" s="141"/>
       <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F95" s="142"/>
@@ -7834,10 +7936,11 @@
       <c r="AF95" s="141"/>
       <c r="AG95" s="142"/>
       <c r="AH95" s="142"/>
-      <c r="AI95" s="141"/>
+      <c r="AI95" s="142"/>
       <c r="AJ95" s="141"/>
-      <c r="AK95" s="1"/>
+      <c r="AK95" s="141"/>
       <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F96" s="142"/>
@@ -7869,10 +7972,11 @@
       <c r="AF96" s="141"/>
       <c r="AG96" s="142"/>
       <c r="AH96" s="142"/>
-      <c r="AI96" s="141"/>
+      <c r="AI96" s="142"/>
       <c r="AJ96" s="141"/>
-      <c r="AK96" s="1"/>
+      <c r="AK96" s="141"/>
       <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F97" s="142"/>
@@ -7904,10 +8008,11 @@
       <c r="AF97" s="141"/>
       <c r="AG97" s="142"/>
       <c r="AH97" s="142"/>
-      <c r="AI97" s="141"/>
+      <c r="AI97" s="142"/>
       <c r="AJ97" s="141"/>
-      <c r="AK97" s="1"/>
+      <c r="AK97" s="141"/>
       <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F98" s="142"/>
@@ -7939,10 +8044,11 @@
       <c r="AF98" s="141"/>
       <c r="AG98" s="142"/>
       <c r="AH98" s="142"/>
-      <c r="AI98" s="141"/>
+      <c r="AI98" s="142"/>
       <c r="AJ98" s="141"/>
-      <c r="AK98" s="1"/>
+      <c r="AK98" s="141"/>
       <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F99" s="142"/>
@@ -7974,10 +8080,11 @@
       <c r="AF99" s="141"/>
       <c r="AG99" s="142"/>
       <c r="AH99" s="142"/>
-      <c r="AI99" s="141"/>
+      <c r="AI99" s="142"/>
       <c r="AJ99" s="141"/>
-      <c r="AK99" s="1"/>
+      <c r="AK99" s="141"/>
       <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F100" s="146" t="n">
@@ -8096,16 +8203,20 @@
         <f aca="false">MOD(AH11-AH10, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI100" s="147" t="n">
+      <c r="AI100" s="146" t="n">
         <f aca="false">MOD(AI11-AI10, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AJ100" s="148" t="n">
+      <c r="AJ100" s="147" t="n">
         <f aca="false">MOD(AJ11-AJ10, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK100" s="1"/>
+      <c r="AK100" s="148" t="n">
+        <f aca="false">MOD(AK11-AK10, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="146"/>
@@ -8137,10 +8248,11 @@
       <c r="AF101" s="147"/>
       <c r="AG101" s="146"/>
       <c r="AH101" s="146"/>
-      <c r="AI101" s="147"/>
-      <c r="AJ101" s="148"/>
-      <c r="AK101" s="1"/>
+      <c r="AI101" s="146"/>
+      <c r="AJ101" s="147"/>
+      <c r="AK101" s="148"/>
       <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F102" s="146" t="n">
@@ -8259,7 +8371,7 @@
         <f aca="false">MOD(AH13-AH12, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI102" s="147" t="n">
+      <c r="AI102" s="146" t="n">
         <f aca="false">MOD(AI13-AI12, 1)*24</f>
         <v>0</v>
       </c>
@@ -8267,8 +8379,12 @@
         <f aca="false">MOD(AJ13-AJ12, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK102" s="1"/>
+      <c r="AK102" s="147" t="n">
+        <f aca="false">MOD(AK13-AK12, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F103" s="146"/>
@@ -8300,10 +8416,11 @@
       <c r="AF103" s="147"/>
       <c r="AG103" s="146"/>
       <c r="AH103" s="146"/>
-      <c r="AI103" s="147"/>
+      <c r="AI103" s="146"/>
       <c r="AJ103" s="147"/>
-      <c r="AK103" s="1"/>
+      <c r="AK103" s="147"/>
       <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F104" s="146" t="n">
@@ -8421,7 +8538,7 @@
         <f aca="false">MOD(AH15-AH14, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI104" s="147" t="n">
+      <c r="AI104" s="146" t="n">
         <f aca="false">MOD(AI15-AI14, 1)*24</f>
         <v>0</v>
       </c>
@@ -8429,8 +8546,12 @@
         <f aca="false">MOD(AJ15-AJ14, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK104" s="1"/>
+      <c r="AK104" s="147" t="n">
+        <f aca="false">MOD(AK15-AK14, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F105" s="146"/>
@@ -8462,10 +8583,11 @@
       <c r="AF105" s="147"/>
       <c r="AG105" s="146"/>
       <c r="AH105" s="146"/>
-      <c r="AI105" s="147"/>
+      <c r="AI105" s="146"/>
       <c r="AJ105" s="147"/>
-      <c r="AK105" s="1"/>
+      <c r="AK105" s="147"/>
       <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F106" s="146" t="n">
@@ -8584,7 +8706,7 @@
         <f aca="false">MOD(AH17-AH16, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI106" s="147" t="n">
+      <c r="AI106" s="146" t="n">
         <f aca="false">MOD(AI17-AI16, 1)*24</f>
         <v>0</v>
       </c>
@@ -8592,8 +8714,12 @@
         <f aca="false">MOD(AJ17-AJ16, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK106" s="1"/>
+      <c r="AK106" s="147" t="n">
+        <f aca="false">MOD(AK17-AK16, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="146"/>
@@ -8625,10 +8751,11 @@
       <c r="AF107" s="147"/>
       <c r="AG107" s="146"/>
       <c r="AH107" s="146"/>
-      <c r="AI107" s="147"/>
+      <c r="AI107" s="146"/>
       <c r="AJ107" s="147"/>
-      <c r="AK107" s="1"/>
+      <c r="AK107" s="147"/>
       <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="146" t="n">
@@ -8747,7 +8874,7 @@
         <f aca="false">MOD(AH19-AH18, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI108" s="147" t="n">
+      <c r="AI108" s="146" t="n">
         <f aca="false">MOD(AI19-AI18, 1)*24</f>
         <v>0</v>
       </c>
@@ -8755,8 +8882,12 @@
         <f aca="false">MOD(AJ19-AJ18, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK108" s="1"/>
+      <c r="AK108" s="147" t="n">
+        <f aca="false">MOD(AK19-AK18, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F109" s="146"/>
@@ -8788,10 +8919,11 @@
       <c r="AF109" s="147"/>
       <c r="AG109" s="146"/>
       <c r="AH109" s="146"/>
-      <c r="AI109" s="147"/>
+      <c r="AI109" s="146"/>
       <c r="AJ109" s="147"/>
-      <c r="AK109" s="1"/>
+      <c r="AK109" s="147"/>
       <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F110" s="146" t="n">
@@ -8910,7 +9042,7 @@
         <f aca="false">MOD(AH21-AH20, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI110" s="147" t="n">
+      <c r="AI110" s="146" t="n">
         <f aca="false">MOD(AI21-AI20, 1)*24</f>
         <v>0</v>
       </c>
@@ -8918,8 +9050,12 @@
         <f aca="false">MOD(AJ21-AJ20, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK110" s="1"/>
+      <c r="AK110" s="147" t="n">
+        <f aca="false">MOD(AK21-AK20, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F111" s="146"/>
@@ -8951,10 +9087,11 @@
       <c r="AF111" s="147"/>
       <c r="AG111" s="146"/>
       <c r="AH111" s="146"/>
-      <c r="AI111" s="147"/>
+      <c r="AI111" s="146"/>
       <c r="AJ111" s="147"/>
-      <c r="AK111" s="1"/>
+      <c r="AK111" s="147"/>
       <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F112" s="146" t="n">
@@ -9073,16 +9210,20 @@
         <f aca="false">MOD(AH23-AH22, 1)*24</f>
         <v>4</v>
       </c>
-      <c r="AI112" s="147" t="n">
+      <c r="AI112" s="146" t="n">
         <f aca="false">MOD(AI23-AI22, 1)*24</f>
-        <v>0</v>
+        <v>4.00000000000001</v>
       </c>
       <c r="AJ112" s="147" t="n">
         <f aca="false">MOD(AJ23-AJ22, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK112" s="1"/>
+      <c r="AK112" s="147" t="n">
+        <f aca="false">MOD(AK23-AK22, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F113" s="146"/>
@@ -9114,10 +9255,11 @@
       <c r="AF113" s="147"/>
       <c r="AG113" s="146"/>
       <c r="AH113" s="146"/>
-      <c r="AI113" s="147"/>
+      <c r="AI113" s="146"/>
       <c r="AJ113" s="147"/>
-      <c r="AK113" s="1"/>
+      <c r="AK113" s="147"/>
       <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F114" s="146" t="n">
@@ -9236,7 +9378,7 @@
         <f aca="false">MOD(AH25-AH24, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI114" s="147" t="n">
+      <c r="AI114" s="146" t="n">
         <f aca="false">MOD(AI25-AI24, 1)*24</f>
         <v>0</v>
       </c>
@@ -9244,8 +9386,12 @@
         <f aca="false">MOD(AJ25-AJ24, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK114" s="1"/>
+      <c r="AK114" s="147" t="n">
+        <f aca="false">MOD(AK25-AK24, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL114" s="1"/>
+      <c r="AM114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F115" s="146"/>
@@ -9277,10 +9423,11 @@
       <c r="AF115" s="147"/>
       <c r="AG115" s="146"/>
       <c r="AH115" s="146"/>
-      <c r="AI115" s="147"/>
+      <c r="AI115" s="146"/>
       <c r="AJ115" s="147"/>
-      <c r="AK115" s="1"/>
+      <c r="AK115" s="147"/>
       <c r="AL115" s="1"/>
+      <c r="AM115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F116" s="146" t="n">
@@ -9399,7 +9546,7 @@
         <f aca="false">MOD(AH27-AH26, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI116" s="147" t="n">
+      <c r="AI116" s="146" t="n">
         <f aca="false">MOD(AI27-AI26, 1)*24</f>
         <v>0</v>
       </c>
@@ -9407,8 +9554,12 @@
         <f aca="false">MOD(AJ27-AJ26, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK116" s="1"/>
+      <c r="AK116" s="147" t="n">
+        <f aca="false">MOD(AK27-AK26, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL116" s="1"/>
+      <c r="AM116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F117" s="146"/>
@@ -9440,10 +9591,11 @@
       <c r="AF117" s="147"/>
       <c r="AG117" s="146"/>
       <c r="AH117" s="146"/>
-      <c r="AI117" s="147"/>
+      <c r="AI117" s="146"/>
       <c r="AJ117" s="147"/>
-      <c r="AK117" s="1"/>
+      <c r="AK117" s="147"/>
       <c r="AL117" s="1"/>
+      <c r="AM117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F118" s="146" t="n">
@@ -9562,16 +9714,20 @@
         <f aca="false">MOD(AH29-AH28, 1)*24</f>
         <v>12</v>
       </c>
-      <c r="AI118" s="147" t="n">
+      <c r="AI118" s="146" t="n">
         <f aca="false">MOD(AI29-AI28, 1)*24</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AJ118" s="147" t="n">
         <f aca="false">MOD(AJ29-AJ28, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK118" s="1"/>
+      <c r="AK118" s="147" t="n">
+        <f aca="false">MOD(AK29-AK28, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F119" s="146"/>
@@ -9603,10 +9759,11 @@
       <c r="AF119" s="147"/>
       <c r="AG119" s="146"/>
       <c r="AH119" s="146"/>
-      <c r="AI119" s="147"/>
+      <c r="AI119" s="146"/>
       <c r="AJ119" s="147"/>
-      <c r="AK119" s="1"/>
+      <c r="AK119" s="147"/>
       <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F120" s="146" t="n">
@@ -9725,7 +9882,7 @@
         <f aca="false">MOD(AH31-AH30, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI120" s="147" t="n">
+      <c r="AI120" s="146" t="n">
         <f aca="false">MOD(AI31-AI30, 1)*24</f>
         <v>0</v>
       </c>
@@ -9733,8 +9890,12 @@
         <f aca="false">MOD(AJ31-AJ30, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK120" s="1"/>
+      <c r="AK120" s="147" t="n">
+        <f aca="false">MOD(AK31-AK30, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F121" s="146"/>
@@ -9766,10 +9927,11 @@
       <c r="AF121" s="147"/>
       <c r="AG121" s="146"/>
       <c r="AH121" s="146"/>
-      <c r="AI121" s="147"/>
+      <c r="AI121" s="146"/>
       <c r="AJ121" s="147"/>
-      <c r="AK121" s="1"/>
+      <c r="AK121" s="147"/>
       <c r="AL121" s="1"/>
+      <c r="AM121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F122" s="146" t="n">
@@ -9888,7 +10050,7 @@
         <f aca="false">MOD(AH33-AH32, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI122" s="147" t="n">
+      <c r="AI122" s="146" t="n">
         <f aca="false">MOD(AI33-AI32, 1)*24</f>
         <v>0</v>
       </c>
@@ -9896,8 +10058,12 @@
         <f aca="false">MOD(AJ33-AJ32, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK122" s="1"/>
+      <c r="AK122" s="147" t="n">
+        <f aca="false">MOD(AK33-AK32, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL122" s="1"/>
+      <c r="AM122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F123" s="146"/>
@@ -9929,10 +10095,11 @@
       <c r="AF123" s="147"/>
       <c r="AG123" s="146"/>
       <c r="AH123" s="146"/>
-      <c r="AI123" s="147"/>
+      <c r="AI123" s="146"/>
       <c r="AJ123" s="147"/>
-      <c r="AK123" s="1"/>
+      <c r="AK123" s="147"/>
       <c r="AL123" s="1"/>
+      <c r="AM123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F124" s="146" t="n">
@@ -10051,7 +10218,7 @@
         <f aca="false">MOD(AH35-AH34, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI124" s="147" t="n">
+      <c r="AI124" s="146" t="n">
         <f aca="false">MOD(AI35-AI34, 1)*24</f>
         <v>0</v>
       </c>
@@ -10059,8 +10226,12 @@
         <f aca="false">MOD(AJ35-AJ34, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK124" s="1"/>
+      <c r="AK124" s="147" t="n">
+        <f aca="false">MOD(AK35-AK34, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL124" s="1"/>
+      <c r="AM124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F125" s="146"/>
@@ -10092,10 +10263,11 @@
       <c r="AF125" s="147"/>
       <c r="AG125" s="146"/>
       <c r="AH125" s="146"/>
-      <c r="AI125" s="147"/>
+      <c r="AI125" s="146"/>
       <c r="AJ125" s="147"/>
-      <c r="AK125" s="1"/>
+      <c r="AK125" s="147"/>
       <c r="AL125" s="1"/>
+      <c r="AM125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F126" s="146" t="n">
@@ -10214,7 +10386,7 @@
         <f aca="false">MOD(AH37-AH36, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI126" s="147" t="n">
+      <c r="AI126" s="146" t="n">
         <f aca="false">MOD(AI37-AI36, 1)*24</f>
         <v>0</v>
       </c>
@@ -10222,8 +10394,12 @@
         <f aca="false">MOD(AJ37-AJ36, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK126" s="1"/>
+      <c r="AK126" s="147" t="n">
+        <f aca="false">MOD(AK37-AK36, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL126" s="1"/>
+      <c r="AM126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="146"/>
@@ -10255,10 +10431,11 @@
       <c r="AF127" s="147"/>
       <c r="AG127" s="146"/>
       <c r="AH127" s="146"/>
-      <c r="AI127" s="147"/>
+      <c r="AI127" s="146"/>
       <c r="AJ127" s="147"/>
-      <c r="AK127" s="1"/>
+      <c r="AK127" s="147"/>
       <c r="AL127" s="1"/>
+      <c r="AM127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F128" s="146" t="n">
@@ -10377,7 +10554,7 @@
         <f aca="false">MOD(AH39-AH38, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI128" s="147" t="n">
+      <c r="AI128" s="146" t="n">
         <f aca="false">MOD(AI39-AI38, 1)*24</f>
         <v>0</v>
       </c>
@@ -10385,8 +10562,12 @@
         <f aca="false">MOD(AJ39-AJ38, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK128" s="1"/>
+      <c r="AK128" s="147" t="n">
+        <f aca="false">MOD(AK39-AK38, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL128" s="1"/>
+      <c r="AM128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F129" s="146"/>
@@ -10418,10 +10599,11 @@
       <c r="AF129" s="147"/>
       <c r="AG129" s="146"/>
       <c r="AH129" s="146"/>
-      <c r="AI129" s="147"/>
+      <c r="AI129" s="146"/>
       <c r="AJ129" s="147"/>
-      <c r="AK129" s="1"/>
+      <c r="AK129" s="147"/>
       <c r="AL129" s="1"/>
+      <c r="AM129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F130" s="146" t="n">
@@ -10540,7 +10722,7 @@
         <f aca="false">MOD(AH41-AH40, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI130" s="147" t="n">
+      <c r="AI130" s="146" t="n">
         <f aca="false">MOD(AI41-AI40, 1)*24</f>
         <v>0</v>
       </c>
@@ -10548,8 +10730,12 @@
         <f aca="false">MOD(AJ41-AJ40, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK130" s="1"/>
+      <c r="AK130" s="147" t="n">
+        <f aca="false">MOD(AK41-AK40, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL130" s="1"/>
+      <c r="AM130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F131" s="146"/>
@@ -10581,10 +10767,11 @@
       <c r="AF131" s="147"/>
       <c r="AG131" s="146"/>
       <c r="AH131" s="146"/>
-      <c r="AI131" s="147"/>
+      <c r="AI131" s="146"/>
       <c r="AJ131" s="147"/>
-      <c r="AK131" s="1"/>
+      <c r="AK131" s="147"/>
       <c r="AL131" s="1"/>
+      <c r="AM131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F132" s="146" t="n">
@@ -10703,7 +10890,7 @@
         <f aca="false">MOD(AH43-AH42, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI132" s="147" t="n">
+      <c r="AI132" s="146" t="n">
         <f aca="false">MOD(AI43-AI42, 1)*24</f>
         <v>0</v>
       </c>
@@ -10711,8 +10898,12 @@
         <f aca="false">MOD(AJ43-AJ42, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK132" s="1"/>
+      <c r="AK132" s="147" t="n">
+        <f aca="false">MOD(AK43-AK42, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL132" s="1"/>
+      <c r="AM132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F133" s="146"/>
@@ -10744,10 +10935,11 @@
       <c r="AF133" s="147"/>
       <c r="AG133" s="146"/>
       <c r="AH133" s="146"/>
-      <c r="AI133" s="147"/>
+      <c r="AI133" s="146"/>
       <c r="AJ133" s="147"/>
-      <c r="AK133" s="1"/>
+      <c r="AK133" s="147"/>
       <c r="AL133" s="1"/>
+      <c r="AM133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F134" s="146" t="n">
@@ -10866,7 +11058,7 @@
         <f aca="false">MOD(AH45-AH44, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI134" s="147" t="n">
+      <c r="AI134" s="146" t="n">
         <f aca="false">MOD(AI45-AI44, 1)*24</f>
         <v>0</v>
       </c>
@@ -10874,8 +11066,12 @@
         <f aca="false">MOD(AJ45-AJ44, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK134" s="1"/>
+      <c r="AK134" s="147" t="n">
+        <f aca="false">MOD(AK45-AK44, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F135" s="146"/>
@@ -10907,10 +11103,11 @@
       <c r="AF135" s="147"/>
       <c r="AG135" s="146"/>
       <c r="AH135" s="146"/>
-      <c r="AI135" s="147"/>
+      <c r="AI135" s="146"/>
       <c r="AJ135" s="147"/>
-      <c r="AK135" s="1"/>
+      <c r="AK135" s="147"/>
       <c r="AL135" s="1"/>
+      <c r="AM135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F136" s="146" t="n">
@@ -11029,7 +11226,7 @@
         <f aca="false">MOD(AH47-AH46, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI136" s="147" t="n">
+      <c r="AI136" s="146" t="n">
         <f aca="false">MOD(AI47-AI46, 1)*24</f>
         <v>0</v>
       </c>
@@ -11037,8 +11234,12 @@
         <f aca="false">MOD(AJ47-AJ46, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK136" s="1"/>
+      <c r="AK136" s="147" t="n">
+        <f aca="false">MOD(AK47-AK46, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL136" s="1"/>
+      <c r="AM136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F137" s="146"/>
@@ -11070,10 +11271,11 @@
       <c r="AF137" s="147"/>
       <c r="AG137" s="146"/>
       <c r="AH137" s="146"/>
-      <c r="AI137" s="147"/>
+      <c r="AI137" s="146"/>
       <c r="AJ137" s="147"/>
-      <c r="AK137" s="1"/>
+      <c r="AK137" s="147"/>
       <c r="AL137" s="1"/>
+      <c r="AM137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F138" s="146" t="n">
@@ -11192,16 +11394,20 @@
         <f aca="false">MOD(AH49-AH48, 1)*24</f>
         <v>8</v>
       </c>
-      <c r="AI138" s="147" t="n">
+      <c r="AI138" s="146" t="n">
         <f aca="false">MOD(AI49-AI48, 1)*24</f>
-        <v>0</v>
+        <v>7.99999999999999</v>
       </c>
       <c r="AJ138" s="147" t="n">
         <f aca="false">MOD(AJ49-AJ48, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK138" s="1"/>
+      <c r="AK138" s="147" t="n">
+        <f aca="false">MOD(AK49-AK48, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL138" s="1"/>
+      <c r="AM138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F139" s="146"/>
@@ -11233,10 +11439,11 @@
       <c r="AF139" s="147"/>
       <c r="AG139" s="146"/>
       <c r="AH139" s="146"/>
-      <c r="AI139" s="147"/>
+      <c r="AI139" s="146"/>
       <c r="AJ139" s="147"/>
-      <c r="AK139" s="1"/>
+      <c r="AK139" s="147"/>
       <c r="AL139" s="1"/>
+      <c r="AM139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F140" s="146" t="n">
@@ -11355,7 +11562,7 @@
         <f aca="false">MOD(AH51-AH50, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI140" s="147" t="n">
+      <c r="AI140" s="146" t="n">
         <f aca="false">MOD(AI51-AI50, 1)*24</f>
         <v>0</v>
       </c>
@@ -11363,8 +11570,12 @@
         <f aca="false">MOD(AJ51-AJ50, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK140" s="1"/>
+      <c r="AK140" s="147" t="n">
+        <f aca="false">MOD(AK51-AK50, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL140" s="1"/>
+      <c r="AM140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F141" s="146"/>
@@ -11396,10 +11607,11 @@
       <c r="AF141" s="147"/>
       <c r="AG141" s="146"/>
       <c r="AH141" s="146"/>
-      <c r="AI141" s="147"/>
+      <c r="AI141" s="146"/>
       <c r="AJ141" s="147"/>
-      <c r="AK141" s="1"/>
+      <c r="AK141" s="147"/>
       <c r="AL141" s="1"/>
+      <c r="AM141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F142" s="146" t="n">
@@ -11518,7 +11730,7 @@
         <f aca="false">MOD(AH53-AH52, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI142" s="147" t="n">
+      <c r="AI142" s="146" t="n">
         <f aca="false">MOD(AI53-AI52, 1)*24</f>
         <v>0</v>
       </c>
@@ -11526,8 +11738,12 @@
         <f aca="false">MOD(AJ53-AJ52, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK142" s="1"/>
+      <c r="AK142" s="147" t="n">
+        <f aca="false">MOD(AK53-AK52, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL142" s="1"/>
+      <c r="AM142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F143" s="146"/>
@@ -11559,10 +11775,11 @@
       <c r="AF143" s="147"/>
       <c r="AG143" s="146"/>
       <c r="AH143" s="146"/>
-      <c r="AI143" s="147"/>
+      <c r="AI143" s="146"/>
       <c r="AJ143" s="147"/>
-      <c r="AK143" s="1"/>
+      <c r="AK143" s="147"/>
       <c r="AL143" s="1"/>
+      <c r="AM143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F144" s="146" t="n">
@@ -11681,7 +11898,7 @@
         <f aca="false">MOD(AH55-AH54, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI144" s="147" t="n">
+      <c r="AI144" s="146" t="n">
         <f aca="false">MOD(AI55-AI54, 1)*24</f>
         <v>0</v>
       </c>
@@ -11689,8 +11906,12 @@
         <f aca="false">MOD(AJ55-AJ54, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK144" s="1"/>
+      <c r="AK144" s="147" t="n">
+        <f aca="false">MOD(AK55-AK54, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL144" s="1"/>
+      <c r="AM144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F145" s="146"/>
@@ -11722,10 +11943,11 @@
       <c r="AF145" s="147"/>
       <c r="AG145" s="146"/>
       <c r="AH145" s="146"/>
-      <c r="AI145" s="147"/>
+      <c r="AI145" s="146"/>
       <c r="AJ145" s="147"/>
-      <c r="AK145" s="1"/>
+      <c r="AK145" s="147"/>
       <c r="AL145" s="1"/>
+      <c r="AM145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F146" s="146" t="n">
@@ -11844,7 +12066,7 @@
         <f aca="false">MOD(AH57-AH56, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI146" s="147" t="n">
+      <c r="AI146" s="146" t="n">
         <f aca="false">MOD(AI57-AI56, 1)*24</f>
         <v>0</v>
       </c>
@@ -11852,8 +12074,12 @@
         <f aca="false">MOD(AJ57-AJ56, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK146" s="1"/>
+      <c r="AK146" s="147" t="n">
+        <f aca="false">MOD(AK57-AK56, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL146" s="1"/>
+      <c r="AM146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F147" s="146"/>
@@ -11885,10 +12111,11 @@
       <c r="AF147" s="147"/>
       <c r="AG147" s="146"/>
       <c r="AH147" s="146"/>
-      <c r="AI147" s="147"/>
+      <c r="AI147" s="146"/>
       <c r="AJ147" s="147"/>
-      <c r="AK147" s="1"/>
+      <c r="AK147" s="147"/>
       <c r="AL147" s="1"/>
+      <c r="AM147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F148" s="146" t="n">
@@ -12007,7 +12234,7 @@
         <f aca="false">MOD(AH59-AH58, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI148" s="147" t="n">
+      <c r="AI148" s="146" t="n">
         <f aca="false">MOD(AI59-AI58, 1)*24</f>
         <v>0</v>
       </c>
@@ -12015,8 +12242,12 @@
         <f aca="false">MOD(AJ59-AJ58, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK148" s="1"/>
+      <c r="AK148" s="147" t="n">
+        <f aca="false">MOD(AK59-AK58, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL148" s="1"/>
+      <c r="AM148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F149" s="146"/>
@@ -12048,10 +12279,11 @@
       <c r="AF149" s="147"/>
       <c r="AG149" s="146"/>
       <c r="AH149" s="146"/>
-      <c r="AI149" s="147"/>
+      <c r="AI149" s="146"/>
       <c r="AJ149" s="147"/>
-      <c r="AK149" s="1"/>
+      <c r="AK149" s="147"/>
       <c r="AL149" s="1"/>
+      <c r="AM149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F150" s="146" t="n">
@@ -12170,7 +12402,7 @@
         <f aca="false">MOD(AH61-AH60, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI150" s="147" t="n">
+      <c r="AI150" s="146" t="n">
         <f aca="false">MOD(AI61-AI60, 1)*24</f>
         <v>0</v>
       </c>
@@ -12178,8 +12410,12 @@
         <f aca="false">MOD(AJ61-AJ60, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK150" s="1"/>
+      <c r="AK150" s="147" t="n">
+        <f aca="false">MOD(AK61-AK60, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL150" s="1"/>
+      <c r="AM150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F151" s="146"/>
@@ -12211,10 +12447,11 @@
       <c r="AF151" s="147"/>
       <c r="AG151" s="146"/>
       <c r="AH151" s="146"/>
-      <c r="AI151" s="147"/>
+      <c r="AI151" s="146"/>
       <c r="AJ151" s="147"/>
-      <c r="AK151" s="1"/>
+      <c r="AK151" s="147"/>
       <c r="AL151" s="1"/>
+      <c r="AM151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F152" s="146" t="n">
@@ -12333,7 +12570,7 @@
         <f aca="false">MOD(AH63-AH62, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI152" s="147" t="n">
+      <c r="AI152" s="146" t="n">
         <f aca="false">MOD(AI63-AI62, 1)*24</f>
         <v>0</v>
       </c>
@@ -12341,8 +12578,12 @@
         <f aca="false">MOD(AJ63-AJ62, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK152" s="1"/>
+      <c r="AK152" s="147" t="n">
+        <f aca="false">MOD(AK63-AK62, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL152" s="1"/>
+      <c r="AM152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F153" s="146"/>
@@ -12374,10 +12615,11 @@
       <c r="AF153" s="147"/>
       <c r="AG153" s="146"/>
       <c r="AH153" s="146"/>
-      <c r="AI153" s="147"/>
+      <c r="AI153" s="146"/>
       <c r="AJ153" s="147"/>
-      <c r="AK153" s="1"/>
+      <c r="AK153" s="147"/>
       <c r="AL153" s="1"/>
+      <c r="AM153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F154" s="146" t="n">
@@ -12496,7 +12738,7 @@
         <f aca="false">MOD(AH65-AH64, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI154" s="147" t="n">
+      <c r="AI154" s="146" t="n">
         <f aca="false">MOD(AI65-AI64, 1)*24</f>
         <v>0</v>
       </c>
@@ -12504,8 +12746,12 @@
         <f aca="false">MOD(AJ65-AJ64, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK154" s="1"/>
+      <c r="AK154" s="147" t="n">
+        <f aca="false">MOD(AK65-AK64, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL154" s="1"/>
+      <c r="AM154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F155" s="146"/>
@@ -12537,10 +12783,11 @@
       <c r="AF155" s="147"/>
       <c r="AG155" s="146"/>
       <c r="AH155" s="146"/>
-      <c r="AI155" s="147"/>
+      <c r="AI155" s="146"/>
       <c r="AJ155" s="147"/>
-      <c r="AK155" s="1"/>
+      <c r="AK155" s="147"/>
       <c r="AL155" s="1"/>
+      <c r="AM155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F156" s="146" t="n">
@@ -12659,7 +12906,7 @@
         <f aca="false">MOD(AH67-AH66, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI156" s="147" t="n">
+      <c r="AI156" s="146" t="n">
         <f aca="false">MOD(AI67-AI66, 1)*24</f>
         <v>0</v>
       </c>
@@ -12667,8 +12914,12 @@
         <f aca="false">MOD(AJ67-AJ66, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK156" s="1"/>
+      <c r="AK156" s="147" t="n">
+        <f aca="false">MOD(AK67-AK66, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL156" s="1"/>
+      <c r="AM156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F157" s="146"/>
@@ -12700,10 +12951,11 @@
       <c r="AF157" s="147"/>
       <c r="AG157" s="146"/>
       <c r="AH157" s="146"/>
-      <c r="AI157" s="147"/>
+      <c r="AI157" s="146"/>
       <c r="AJ157" s="147"/>
-      <c r="AK157" s="1"/>
+      <c r="AK157" s="147"/>
       <c r="AL157" s="1"/>
+      <c r="AM157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F158" s="146" t="n">
@@ -12822,7 +13074,7 @@
         <f aca="false">MOD(AH69-AH68, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AI158" s="147" t="n">
+      <c r="AI158" s="146" t="n">
         <f aca="false">MOD(AI69-AI68, 1)*24</f>
         <v>0</v>
       </c>
@@ -12830,8 +13082,12 @@
         <f aca="false">MOD(AJ69-AJ68, 1)*24</f>
         <v>0</v>
       </c>
-      <c r="AK158" s="1"/>
+      <c r="AK158" s="147" t="n">
+        <f aca="false">MOD(AK69-AK68, 1)*24</f>
+        <v>0</v>
+      </c>
       <c r="AL158" s="1"/>
+      <c r="AM158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F159" s="146"/>
@@ -12863,10 +13119,11 @@
       <c r="AF159" s="147"/>
       <c r="AG159" s="146"/>
       <c r="AH159" s="146"/>
-      <c r="AI159" s="147"/>
+      <c r="AI159" s="146"/>
       <c r="AJ159" s="147"/>
-      <c r="AK159" s="1"/>
+      <c r="AK159" s="147"/>
       <c r="AL159" s="1"/>
+      <c r="AM159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F160" s="146"/>
@@ -12898,10 +13155,11 @@
       <c r="AF160" s="147"/>
       <c r="AG160" s="146"/>
       <c r="AH160" s="146"/>
-      <c r="AI160" s="147"/>
+      <c r="AI160" s="146"/>
       <c r="AJ160" s="147"/>
-      <c r="AK160" s="1"/>
+      <c r="AK160" s="147"/>
       <c r="AL160" s="1"/>
+      <c r="AM160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F161" s="146"/>
@@ -12933,10 +13191,11 @@
       <c r="AF161" s="147"/>
       <c r="AG161" s="146"/>
       <c r="AH161" s="146"/>
-      <c r="AI161" s="147"/>
+      <c r="AI161" s="146"/>
       <c r="AJ161" s="147"/>
-      <c r="AK161" s="1"/>
+      <c r="AK161" s="147"/>
       <c r="AL161" s="1"/>
+      <c r="AM161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F162" s="146"/>
@@ -12968,10 +13227,11 @@
       <c r="AF162" s="147"/>
       <c r="AG162" s="146"/>
       <c r="AH162" s="146"/>
-      <c r="AI162" s="147"/>
+      <c r="AI162" s="146"/>
       <c r="AJ162" s="147"/>
-      <c r="AK162" s="1"/>
+      <c r="AK162" s="147"/>
       <c r="AL162" s="1"/>
+      <c r="AM162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F163" s="146"/>
@@ -13003,10 +13263,11 @@
       <c r="AF163" s="147"/>
       <c r="AG163" s="146"/>
       <c r="AH163" s="146"/>
-      <c r="AI163" s="147"/>
+      <c r="AI163" s="146"/>
       <c r="AJ163" s="147"/>
-      <c r="AK163" s="1"/>
+      <c r="AK163" s="147"/>
       <c r="AL163" s="1"/>
+      <c r="AM163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F164" s="146"/>
@@ -13038,10 +13299,11 @@
       <c r="AF164" s="147"/>
       <c r="AG164" s="146"/>
       <c r="AH164" s="146"/>
-      <c r="AI164" s="147"/>
+      <c r="AI164" s="146"/>
       <c r="AJ164" s="147"/>
-      <c r="AK164" s="1"/>
+      <c r="AK164" s="147"/>
       <c r="AL164" s="1"/>
+      <c r="AM164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F165" s="146"/>
@@ -13073,10 +13335,11 @@
       <c r="AF165" s="147"/>
       <c r="AG165" s="146"/>
       <c r="AH165" s="146"/>
-      <c r="AI165" s="147"/>
+      <c r="AI165" s="146"/>
       <c r="AJ165" s="147"/>
-      <c r="AK165" s="1"/>
+      <c r="AK165" s="147"/>
       <c r="AL165" s="1"/>
+      <c r="AM165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F166" s="146"/>
@@ -13108,10 +13371,11 @@
       <c r="AF166" s="147"/>
       <c r="AG166" s="146"/>
       <c r="AH166" s="146"/>
-      <c r="AI166" s="147"/>
+      <c r="AI166" s="146"/>
       <c r="AJ166" s="147"/>
-      <c r="AK166" s="1"/>
+      <c r="AK166" s="147"/>
       <c r="AL166" s="1"/>
+      <c r="AM166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F167" s="146"/>
@@ -13143,10 +13407,11 @@
       <c r="AF167" s="147"/>
       <c r="AG167" s="146"/>
       <c r="AH167" s="146"/>
-      <c r="AI167" s="147"/>
+      <c r="AI167" s="146"/>
       <c r="AJ167" s="147"/>
-      <c r="AK167" s="1"/>
+      <c r="AK167" s="147"/>
       <c r="AL167" s="1"/>
+      <c r="AM167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F168" s="146"/>
@@ -13178,10 +13443,11 @@
       <c r="AF168" s="147"/>
       <c r="AG168" s="146"/>
       <c r="AH168" s="146"/>
-      <c r="AI168" s="147"/>
+      <c r="AI168" s="146"/>
       <c r="AJ168" s="147"/>
-      <c r="AK168" s="1"/>
+      <c r="AK168" s="147"/>
       <c r="AL168" s="1"/>
+      <c r="AM168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F169" s="146"/>
@@ -13213,10 +13479,11 @@
       <c r="AF169" s="147"/>
       <c r="AG169" s="146"/>
       <c r="AH169" s="146"/>
-      <c r="AI169" s="147"/>
+      <c r="AI169" s="146"/>
       <c r="AJ169" s="147"/>
-      <c r="AK169" s="1"/>
+      <c r="AK169" s="147"/>
       <c r="AL169" s="1"/>
+      <c r="AM169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F170" s="149"/>
@@ -13248,10 +13515,11 @@
       <c r="AF170" s="150"/>
       <c r="AG170" s="149"/>
       <c r="AH170" s="149"/>
-      <c r="AI170" s="150"/>
-      <c r="AJ170" s="151"/>
-      <c r="AK170" s="1"/>
+      <c r="AI170" s="149"/>
+      <c r="AJ170" s="150"/>
+      <c r="AK170" s="151"/>
       <c r="AL170" s="1"/>
+      <c r="AM170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F171" s="149"/>
@@ -13283,10 +13551,11 @@
       <c r="AF171" s="150"/>
       <c r="AG171" s="149"/>
       <c r="AH171" s="149"/>
-      <c r="AI171" s="150"/>
-      <c r="AJ171" s="151"/>
-      <c r="AK171" s="1"/>
+      <c r="AI171" s="149"/>
+      <c r="AJ171" s="150"/>
+      <c r="AK171" s="151"/>
       <c r="AL171" s="1"/>
+      <c r="AM171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F172" s="149"/>
@@ -13318,10 +13587,11 @@
       <c r="AF172" s="150"/>
       <c r="AG172" s="149"/>
       <c r="AH172" s="149"/>
-      <c r="AI172" s="150"/>
-      <c r="AJ172" s="151"/>
-      <c r="AK172" s="1"/>
+      <c r="AI172" s="149"/>
+      <c r="AJ172" s="150"/>
+      <c r="AK172" s="151"/>
       <c r="AL172" s="1"/>
+      <c r="AM172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F173" s="149"/>
@@ -13353,10 +13623,11 @@
       <c r="AF173" s="150"/>
       <c r="AG173" s="149"/>
       <c r="AH173" s="149"/>
-      <c r="AI173" s="150"/>
-      <c r="AJ173" s="151"/>
-      <c r="AK173" s="1"/>
+      <c r="AI173" s="149"/>
+      <c r="AJ173" s="150"/>
+      <c r="AK173" s="151"/>
       <c r="AL173" s="1"/>
+      <c r="AM173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F174" s="149"/>
@@ -13388,10 +13659,11 @@
       <c r="AF174" s="150"/>
       <c r="AG174" s="149"/>
       <c r="AH174" s="149"/>
-      <c r="AI174" s="150"/>
-      <c r="AJ174" s="151"/>
-      <c r="AK174" s="1"/>
+      <c r="AI174" s="149"/>
+      <c r="AJ174" s="150"/>
+      <c r="AK174" s="151"/>
       <c r="AL174" s="1"/>
+      <c r="AM174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F175" s="149"/>
@@ -13423,10 +13695,11 @@
       <c r="AF175" s="150"/>
       <c r="AG175" s="149"/>
       <c r="AH175" s="149"/>
-      <c r="AI175" s="150"/>
-      <c r="AJ175" s="151"/>
-      <c r="AK175" s="1"/>
+      <c r="AI175" s="149"/>
+      <c r="AJ175" s="150"/>
+      <c r="AK175" s="151"/>
       <c r="AL175" s="1"/>
+      <c r="AM175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F176" s="149"/>
@@ -13458,10 +13731,11 @@
       <c r="AF176" s="150"/>
       <c r="AG176" s="149"/>
       <c r="AH176" s="149"/>
-      <c r="AI176" s="150"/>
-      <c r="AJ176" s="151"/>
-      <c r="AK176" s="1"/>
+      <c r="AI176" s="149"/>
+      <c r="AJ176" s="150"/>
+      <c r="AK176" s="151"/>
       <c r="AL176" s="1"/>
+      <c r="AM176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F177" s="149"/>
@@ -13493,10 +13767,11 @@
       <c r="AF177" s="150"/>
       <c r="AG177" s="149"/>
       <c r="AH177" s="149"/>
-      <c r="AI177" s="150"/>
-      <c r="AJ177" s="151"/>
-      <c r="AK177" s="1"/>
+      <c r="AI177" s="149"/>
+      <c r="AJ177" s="150"/>
+      <c r="AK177" s="151"/>
       <c r="AL177" s="1"/>
+      <c r="AM177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F178" s="149"/>
@@ -13528,10 +13803,11 @@
       <c r="AF178" s="150"/>
       <c r="AG178" s="149"/>
       <c r="AH178" s="149"/>
-      <c r="AI178" s="150"/>
-      <c r="AJ178" s="151"/>
-      <c r="AK178" s="1"/>
+      <c r="AI178" s="149"/>
+      <c r="AJ178" s="150"/>
+      <c r="AK178" s="151"/>
       <c r="AL178" s="1"/>
+      <c r="AM178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F179" s="149"/>
@@ -13563,10 +13839,11 @@
       <c r="AF179" s="150"/>
       <c r="AG179" s="149"/>
       <c r="AH179" s="149"/>
-      <c r="AI179" s="150"/>
-      <c r="AJ179" s="151"/>
-      <c r="AK179" s="1"/>
+      <c r="AI179" s="149"/>
+      <c r="AJ179" s="150"/>
+      <c r="AK179" s="151"/>
       <c r="AL179" s="1"/>
+      <c r="AM179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F180" s="149"/>
@@ -13598,10 +13875,11 @@
       <c r="AF180" s="150"/>
       <c r="AG180" s="149"/>
       <c r="AH180" s="149"/>
-      <c r="AI180" s="150"/>
-      <c r="AJ180" s="151"/>
-      <c r="AK180" s="1"/>
+      <c r="AI180" s="149"/>
+      <c r="AJ180" s="150"/>
+      <c r="AK180" s="151"/>
       <c r="AL180" s="1"/>
+      <c r="AM180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F181" s="149"/>
@@ -13633,10 +13911,11 @@
       <c r="AF181" s="150"/>
       <c r="AG181" s="149"/>
       <c r="AH181" s="149"/>
-      <c r="AI181" s="150"/>
-      <c r="AJ181" s="151"/>
-      <c r="AK181" s="1"/>
+      <c r="AI181" s="149"/>
+      <c r="AJ181" s="150"/>
+      <c r="AK181" s="151"/>
       <c r="AL181" s="1"/>
+      <c r="AM181" s="1"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F182" s="149"/>
@@ -13668,10 +13947,11 @@
       <c r="AF182" s="150"/>
       <c r="AG182" s="149"/>
       <c r="AH182" s="149"/>
-      <c r="AI182" s="150"/>
-      <c r="AJ182" s="151"/>
-      <c r="AK182" s="1"/>
+      <c r="AI182" s="149"/>
+      <c r="AJ182" s="150"/>
+      <c r="AK182" s="151"/>
       <c r="AL182" s="1"/>
+      <c r="AM182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F183" s="149"/>
@@ -13703,10 +13983,11 @@
       <c r="AF183" s="150"/>
       <c r="AG183" s="149"/>
       <c r="AH183" s="149"/>
-      <c r="AI183" s="150"/>
-      <c r="AJ183" s="151"/>
-      <c r="AK183" s="1"/>
+      <c r="AI183" s="149"/>
+      <c r="AJ183" s="150"/>
+      <c r="AK183" s="151"/>
       <c r="AL183" s="1"/>
+      <c r="AM183" s="1"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F184" s="149"/>
@@ -13738,10 +14019,11 @@
       <c r="AF184" s="150"/>
       <c r="AG184" s="149"/>
       <c r="AH184" s="149"/>
-      <c r="AI184" s="150"/>
-      <c r="AJ184" s="151"/>
-      <c r="AK184" s="1"/>
+      <c r="AI184" s="149"/>
+      <c r="AJ184" s="150"/>
+      <c r="AK184" s="151"/>
       <c r="AL184" s="1"/>
+      <c r="AM184" s="1"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F185" s="149"/>
@@ -13773,10 +14055,11 @@
       <c r="AF185" s="150"/>
       <c r="AG185" s="149"/>
       <c r="AH185" s="149"/>
-      <c r="AI185" s="150"/>
-      <c r="AJ185" s="151"/>
-      <c r="AK185" s="1"/>
+      <c r="AI185" s="149"/>
+      <c r="AJ185" s="150"/>
+      <c r="AK185" s="151"/>
       <c r="AL185" s="1"/>
+      <c r="AM185" s="1"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F186" s="149"/>
@@ -13808,10 +14091,11 @@
       <c r="AF186" s="150"/>
       <c r="AG186" s="149"/>
       <c r="AH186" s="149"/>
-      <c r="AI186" s="150"/>
-      <c r="AJ186" s="151"/>
-      <c r="AK186" s="1"/>
+      <c r="AI186" s="149"/>
+      <c r="AJ186" s="150"/>
+      <c r="AK186" s="151"/>
       <c r="AL186" s="1"/>
+      <c r="AM186" s="1"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F187" s="149"/>
@@ -13843,10 +14127,11 @@
       <c r="AF187" s="150"/>
       <c r="AG187" s="149"/>
       <c r="AH187" s="149"/>
-      <c r="AI187" s="150"/>
-      <c r="AJ187" s="151"/>
-      <c r="AK187" s="1"/>
+      <c r="AI187" s="149"/>
+      <c r="AJ187" s="150"/>
+      <c r="AK187" s="151"/>
       <c r="AL187" s="1"/>
+      <c r="AM187" s="1"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F188" s="149"/>
@@ -13878,10 +14163,11 @@
       <c r="AF188" s="150"/>
       <c r="AG188" s="149"/>
       <c r="AH188" s="149"/>
-      <c r="AI188" s="150"/>
-      <c r="AJ188" s="151"/>
-      <c r="AK188" s="1"/>
+      <c r="AI188" s="149"/>
+      <c r="AJ188" s="150"/>
+      <c r="AK188" s="151"/>
       <c r="AL188" s="1"/>
+      <c r="AM188" s="1"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F189" s="149"/>
@@ -13913,10 +14199,11 @@
       <c r="AF189" s="150"/>
       <c r="AG189" s="149"/>
       <c r="AH189" s="149"/>
-      <c r="AI189" s="150"/>
-      <c r="AJ189" s="151"/>
-      <c r="AK189" s="1"/>
+      <c r="AI189" s="149"/>
+      <c r="AJ189" s="150"/>
+      <c r="AK189" s="151"/>
       <c r="AL189" s="1"/>
+      <c r="AM189" s="1"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F190" s="149"/>
@@ -13948,10 +14235,11 @@
       <c r="AF190" s="150"/>
       <c r="AG190" s="149"/>
       <c r="AH190" s="149"/>
-      <c r="AI190" s="150"/>
-      <c r="AJ190" s="151"/>
-      <c r="AK190" s="1"/>
+      <c r="AI190" s="149"/>
+      <c r="AJ190" s="150"/>
+      <c r="AK190" s="151"/>
       <c r="AL190" s="1"/>
+      <c r="AM190" s="1"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F191" s="149"/>
@@ -13983,10 +14271,11 @@
       <c r="AF191" s="150"/>
       <c r="AG191" s="149"/>
       <c r="AH191" s="149"/>
-      <c r="AI191" s="150"/>
-      <c r="AJ191" s="151"/>
-      <c r="AK191" s="1"/>
+      <c r="AI191" s="149"/>
+      <c r="AJ191" s="150"/>
+      <c r="AK191" s="151"/>
       <c r="AL191" s="1"/>
+      <c r="AM191" s="1"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F192" s="149"/>
@@ -14018,10 +14307,11 @@
       <c r="AF192" s="150"/>
       <c r="AG192" s="149"/>
       <c r="AH192" s="149"/>
-      <c r="AI192" s="150"/>
-      <c r="AJ192" s="151"/>
-      <c r="AK192" s="1"/>
+      <c r="AI192" s="149"/>
+      <c r="AJ192" s="150"/>
+      <c r="AK192" s="151"/>
       <c r="AL192" s="1"/>
+      <c r="AM192" s="1"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F193" s="149"/>
@@ -14053,10 +14343,11 @@
       <c r="AF193" s="150"/>
       <c r="AG193" s="149"/>
       <c r="AH193" s="149"/>
-      <c r="AI193" s="150"/>
-      <c r="AJ193" s="151"/>
-      <c r="AK193" s="1"/>
+      <c r="AI193" s="149"/>
+      <c r="AJ193" s="150"/>
+      <c r="AK193" s="151"/>
       <c r="AL193" s="1"/>
+      <c r="AM193" s="1"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F194" s="149"/>
@@ -14088,10 +14379,11 @@
       <c r="AF194" s="150"/>
       <c r="AG194" s="149"/>
       <c r="AH194" s="149"/>
-      <c r="AI194" s="150"/>
-      <c r="AJ194" s="151"/>
-      <c r="AK194" s="1"/>
+      <c r="AI194" s="149"/>
+      <c r="AJ194" s="150"/>
+      <c r="AK194" s="151"/>
       <c r="AL194" s="1"/>
+      <c r="AM194" s="1"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F195" s="149"/>
@@ -14123,10 +14415,11 @@
       <c r="AF195" s="150"/>
       <c r="AG195" s="149"/>
       <c r="AH195" s="149"/>
-      <c r="AI195" s="150"/>
-      <c r="AJ195" s="151"/>
-      <c r="AK195" s="1"/>
+      <c r="AI195" s="149"/>
+      <c r="AJ195" s="150"/>
+      <c r="AK195" s="151"/>
       <c r="AL195" s="1"/>
+      <c r="AM195" s="1"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F196" s="149"/>
@@ -14158,10 +14451,11 @@
       <c r="AF196" s="150"/>
       <c r="AG196" s="149"/>
       <c r="AH196" s="149"/>
-      <c r="AI196" s="150"/>
-      <c r="AJ196" s="151"/>
-      <c r="AK196" s="1"/>
+      <c r="AI196" s="149"/>
+      <c r="AJ196" s="150"/>
+      <c r="AK196" s="151"/>
       <c r="AL196" s="1"/>
+      <c r="AM196" s="1"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F197" s="149"/>
@@ -14193,10 +14487,11 @@
       <c r="AF197" s="150"/>
       <c r="AG197" s="149"/>
       <c r="AH197" s="149"/>
-      <c r="AI197" s="150"/>
-      <c r="AJ197" s="151"/>
-      <c r="AK197" s="1"/>
+      <c r="AI197" s="149"/>
+      <c r="AJ197" s="150"/>
+      <c r="AK197" s="151"/>
       <c r="AL197" s="1"/>
+      <c r="AM197" s="1"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F198" s="149"/>
@@ -14228,10 +14523,11 @@
       <c r="AF198" s="150"/>
       <c r="AG198" s="149"/>
       <c r="AH198" s="149"/>
-      <c r="AI198" s="150"/>
-      <c r="AJ198" s="151"/>
-      <c r="AK198" s="1"/>
+      <c r="AI198" s="149"/>
+      <c r="AJ198" s="150"/>
+      <c r="AK198" s="151"/>
       <c r="AL198" s="1"/>
+      <c r="AM198" s="1"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F199" s="149"/>
@@ -14263,10 +14559,11 @@
       <c r="AF199" s="150"/>
       <c r="AG199" s="149"/>
       <c r="AH199" s="149"/>
-      <c r="AI199" s="150"/>
-      <c r="AJ199" s="151"/>
-      <c r="AK199" s="1"/>
+      <c r="AI199" s="149"/>
+      <c r="AJ199" s="150"/>
+      <c r="AK199" s="151"/>
       <c r="AL199" s="1"/>
+      <c r="AM199" s="1"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F200" s="149"/>
@@ -14298,10 +14595,11 @@
       <c r="AF200" s="150"/>
       <c r="AG200" s="149"/>
       <c r="AH200" s="149"/>
-      <c r="AI200" s="150"/>
-      <c r="AJ200" s="151"/>
-      <c r="AK200" s="1"/>
+      <c r="AI200" s="149"/>
+      <c r="AJ200" s="150"/>
+      <c r="AK200" s="151"/>
       <c r="AL200" s="1"/>
+      <c r="AM200" s="1"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F201" s="149"/>
@@ -14333,10 +14631,11 @@
       <c r="AF201" s="150"/>
       <c r="AG201" s="149"/>
       <c r="AH201" s="149"/>
-      <c r="AI201" s="150"/>
-      <c r="AJ201" s="151"/>
-      <c r="AK201" s="1"/>
+      <c r="AI201" s="149"/>
+      <c r="AJ201" s="150"/>
+      <c r="AK201" s="151"/>
       <c r="AL201" s="1"/>
+      <c r="AM201" s="1"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F202" s="149"/>
@@ -14368,10 +14667,11 @@
       <c r="AF202" s="150"/>
       <c r="AG202" s="149"/>
       <c r="AH202" s="149"/>
-      <c r="AI202" s="150"/>
-      <c r="AJ202" s="151"/>
-      <c r="AK202" s="1"/>
+      <c r="AI202" s="149"/>
+      <c r="AJ202" s="150"/>
+      <c r="AK202" s="151"/>
       <c r="AL202" s="1"/>
+      <c r="AM202" s="1"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F203" s="149"/>
@@ -14403,10 +14703,11 @@
       <c r="AF203" s="150"/>
       <c r="AG203" s="149"/>
       <c r="AH203" s="149"/>
-      <c r="AI203" s="150"/>
-      <c r="AJ203" s="151"/>
-      <c r="AK203" s="1"/>
+      <c r="AI203" s="149"/>
+      <c r="AJ203" s="150"/>
+      <c r="AK203" s="151"/>
       <c r="AL203" s="1"/>
+      <c r="AM203" s="1"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F204" s="149"/>
@@ -14438,10 +14739,11 @@
       <c r="AF204" s="150"/>
       <c r="AG204" s="149"/>
       <c r="AH204" s="149"/>
-      <c r="AI204" s="150"/>
-      <c r="AJ204" s="151"/>
-      <c r="AK204" s="1"/>
+      <c r="AI204" s="149"/>
+      <c r="AJ204" s="150"/>
+      <c r="AK204" s="151"/>
       <c r="AL204" s="1"/>
+      <c r="AM204" s="1"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F205" s="149"/>
@@ -14473,10 +14775,11 @@
       <c r="AF205" s="150"/>
       <c r="AG205" s="149"/>
       <c r="AH205" s="149"/>
-      <c r="AI205" s="150"/>
-      <c r="AJ205" s="151"/>
-      <c r="AK205" s="1"/>
+      <c r="AI205" s="149"/>
+      <c r="AJ205" s="150"/>
+      <c r="AK205" s="151"/>
       <c r="AL205" s="1"/>
+      <c r="AM205" s="1"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F206" s="149"/>
@@ -14508,10 +14811,11 @@
       <c r="AF206" s="150"/>
       <c r="AG206" s="149"/>
       <c r="AH206" s="149"/>
-      <c r="AI206" s="150"/>
-      <c r="AJ206" s="151"/>
-      <c r="AK206" s="1"/>
+      <c r="AI206" s="149"/>
+      <c r="AJ206" s="150"/>
+      <c r="AK206" s="151"/>
       <c r="AL206" s="1"/>
+      <c r="AM206" s="1"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F207" s="149"/>
@@ -14543,10 +14847,11 @@
       <c r="AF207" s="150"/>
       <c r="AG207" s="149"/>
       <c r="AH207" s="149"/>
-      <c r="AI207" s="150"/>
-      <c r="AJ207" s="151"/>
-      <c r="AK207" s="1"/>
+      <c r="AI207" s="149"/>
+      <c r="AJ207" s="150"/>
+      <c r="AK207" s="151"/>
       <c r="AL207" s="1"/>
+      <c r="AM207" s="1"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F208" s="149"/>
@@ -14578,10 +14883,11 @@
       <c r="AF208" s="150"/>
       <c r="AG208" s="149"/>
       <c r="AH208" s="149"/>
-      <c r="AI208" s="150"/>
-      <c r="AJ208" s="151"/>
-      <c r="AK208" s="1"/>
+      <c r="AI208" s="149"/>
+      <c r="AJ208" s="150"/>
+      <c r="AK208" s="151"/>
       <c r="AL208" s="1"/>
+      <c r="AM208" s="1"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F209" s="149"/>
@@ -14613,10 +14919,11 @@
       <c r="AF209" s="150"/>
       <c r="AG209" s="149"/>
       <c r="AH209" s="149"/>
-      <c r="AI209" s="150"/>
-      <c r="AJ209" s="151"/>
-      <c r="AK209" s="1"/>
+      <c r="AI209" s="149"/>
+      <c r="AJ209" s="150"/>
+      <c r="AK209" s="151"/>
       <c r="AL209" s="1"/>
+      <c r="AM209" s="1"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F210" s="149"/>
@@ -14648,10 +14955,11 @@
       <c r="AF210" s="150"/>
       <c r="AG210" s="149"/>
       <c r="AH210" s="149"/>
-      <c r="AI210" s="150"/>
-      <c r="AJ210" s="151"/>
-      <c r="AK210" s="1"/>
+      <c r="AI210" s="149"/>
+      <c r="AJ210" s="150"/>
+      <c r="AK210" s="151"/>
       <c r="AL210" s="1"/>
+      <c r="AM210" s="1"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F211" s="149"/>
@@ -14683,10 +14991,11 @@
       <c r="AF211" s="150"/>
       <c r="AG211" s="149"/>
       <c r="AH211" s="149"/>
-      <c r="AI211" s="150"/>
-      <c r="AJ211" s="151"/>
-      <c r="AK211" s="1"/>
+      <c r="AI211" s="149"/>
+      <c r="AJ211" s="150"/>
+      <c r="AK211" s="151"/>
       <c r="AL211" s="1"/>
+      <c r="AM211" s="1"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F212" s="149"/>
@@ -14718,10 +15027,11 @@
       <c r="AF212" s="150"/>
       <c r="AG212" s="149"/>
       <c r="AH212" s="149"/>
-      <c r="AI212" s="150"/>
-      <c r="AJ212" s="151"/>
-      <c r="AK212" s="1"/>
+      <c r="AI212" s="149"/>
+      <c r="AJ212" s="150"/>
+      <c r="AK212" s="151"/>
       <c r="AL212" s="1"/>
+      <c r="AM212" s="1"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F213" s="149"/>
@@ -14753,10 +15063,11 @@
       <c r="AF213" s="150"/>
       <c r="AG213" s="149"/>
       <c r="AH213" s="149"/>
-      <c r="AI213" s="150"/>
-      <c r="AJ213" s="151"/>
-      <c r="AK213" s="1"/>
+      <c r="AI213" s="149"/>
+      <c r="AJ213" s="150"/>
+      <c r="AK213" s="151"/>
       <c r="AL213" s="1"/>
+      <c r="AM213" s="1"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F214" s="149"/>
@@ -14788,10 +15099,11 @@
       <c r="AF214" s="150"/>
       <c r="AG214" s="149"/>
       <c r="AH214" s="149"/>
-      <c r="AI214" s="150"/>
-      <c r="AJ214" s="151"/>
-      <c r="AK214" s="1"/>
+      <c r="AI214" s="149"/>
+      <c r="AJ214" s="150"/>
+      <c r="AK214" s="151"/>
       <c r="AL214" s="1"/>
+      <c r="AM214" s="1"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F215" s="149"/>
@@ -14823,10 +15135,11 @@
       <c r="AF215" s="150"/>
       <c r="AG215" s="149"/>
       <c r="AH215" s="149"/>
-      <c r="AI215" s="150"/>
-      <c r="AJ215" s="151"/>
-      <c r="AK215" s="1"/>
+      <c r="AI215" s="149"/>
+      <c r="AJ215" s="150"/>
+      <c r="AK215" s="151"/>
       <c r="AL215" s="1"/>
+      <c r="AM215" s="1"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F216" s="149"/>
@@ -14858,10 +15171,11 @@
       <c r="AF216" s="150"/>
       <c r="AG216" s="149"/>
       <c r="AH216" s="149"/>
-      <c r="AI216" s="150"/>
-      <c r="AJ216" s="151"/>
-      <c r="AK216" s="1"/>
+      <c r="AI216" s="149"/>
+      <c r="AJ216" s="150"/>
+      <c r="AK216" s="151"/>
       <c r="AL216" s="1"/>
+      <c r="AM216" s="1"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F217" s="149"/>
@@ -14893,10 +15207,11 @@
       <c r="AF217" s="150"/>
       <c r="AG217" s="149"/>
       <c r="AH217" s="149"/>
-      <c r="AI217" s="150"/>
-      <c r="AJ217" s="151"/>
-      <c r="AK217" s="1"/>
+      <c r="AI217" s="149"/>
+      <c r="AJ217" s="150"/>
+      <c r="AK217" s="151"/>
       <c r="AL217" s="1"/>
+      <c r="AM217" s="1"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F218" s="149"/>
@@ -14928,10 +15243,11 @@
       <c r="AF218" s="150"/>
       <c r="AG218" s="149"/>
       <c r="AH218" s="149"/>
-      <c r="AI218" s="150"/>
-      <c r="AJ218" s="151"/>
-      <c r="AK218" s="1"/>
+      <c r="AI218" s="149"/>
+      <c r="AJ218" s="150"/>
+      <c r="AK218" s="151"/>
       <c r="AL218" s="1"/>
+      <c r="AM218" s="1"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F219" s="149"/>
@@ -14963,10 +15279,11 @@
       <c r="AF219" s="150"/>
       <c r="AG219" s="149"/>
       <c r="AH219" s="149"/>
-      <c r="AI219" s="150"/>
-      <c r="AJ219" s="151"/>
-      <c r="AK219" s="1"/>
+      <c r="AI219" s="149"/>
+      <c r="AJ219" s="150"/>
+      <c r="AK219" s="151"/>
       <c r="AL219" s="1"/>
+      <c r="AM219" s="1"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F220" s="149"/>
@@ -14998,10 +15315,11 @@
       <c r="AF220" s="150"/>
       <c r="AG220" s="149"/>
       <c r="AH220" s="149"/>
-      <c r="AI220" s="150"/>
-      <c r="AJ220" s="151"/>
-      <c r="AK220" s="1"/>
+      <c r="AI220" s="149"/>
+      <c r="AJ220" s="150"/>
+      <c r="AK220" s="151"/>
       <c r="AL220" s="1"/>
+      <c r="AM220" s="1"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F221" s="149"/>
@@ -15033,10 +15351,11 @@
       <c r="AF221" s="150"/>
       <c r="AG221" s="149"/>
       <c r="AH221" s="149"/>
-      <c r="AI221" s="150"/>
-      <c r="AJ221" s="151"/>
-      <c r="AK221" s="1"/>
+      <c r="AI221" s="149"/>
+      <c r="AJ221" s="150"/>
+      <c r="AK221" s="151"/>
       <c r="AL221" s="1"/>
+      <c r="AM221" s="1"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F222" s="149"/>
@@ -15068,10 +15387,11 @@
       <c r="AF222" s="150"/>
       <c r="AG222" s="149"/>
       <c r="AH222" s="149"/>
-      <c r="AI222" s="150"/>
-      <c r="AJ222" s="151"/>
-      <c r="AK222" s="1"/>
+      <c r="AI222" s="149"/>
+      <c r="AJ222" s="150"/>
+      <c r="AK222" s="151"/>
       <c r="AL222" s="1"/>
+      <c r="AM222" s="1"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F223" s="149"/>
@@ -15103,10 +15423,11 @@
       <c r="AF223" s="150"/>
       <c r="AG223" s="149"/>
       <c r="AH223" s="149"/>
-      <c r="AI223" s="150"/>
-      <c r="AJ223" s="151"/>
-      <c r="AK223" s="1"/>
+      <c r="AI223" s="149"/>
+      <c r="AJ223" s="150"/>
+      <c r="AK223" s="151"/>
       <c r="AL223" s="1"/>
+      <c r="AM223" s="1"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F224" s="149"/>
@@ -15138,10 +15459,11 @@
       <c r="AF224" s="150"/>
       <c r="AG224" s="149"/>
       <c r="AH224" s="149"/>
-      <c r="AI224" s="150"/>
-      <c r="AJ224" s="151"/>
-      <c r="AK224" s="1"/>
+      <c r="AI224" s="149"/>
+      <c r="AJ224" s="150"/>
+      <c r="AK224" s="151"/>
       <c r="AL224" s="1"/>
+      <c r="AM224" s="1"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F225" s="149"/>
@@ -15173,10 +15495,11 @@
       <c r="AF225" s="150"/>
       <c r="AG225" s="149"/>
       <c r="AH225" s="149"/>
-      <c r="AI225" s="150"/>
-      <c r="AJ225" s="151"/>
-      <c r="AK225" s="1"/>
+      <c r="AI225" s="149"/>
+      <c r="AJ225" s="150"/>
+      <c r="AK225" s="151"/>
       <c r="AL225" s="1"/>
+      <c r="AM225" s="1"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F226" s="149"/>
@@ -15208,10 +15531,11 @@
       <c r="AF226" s="150"/>
       <c r="AG226" s="149"/>
       <c r="AH226" s="149"/>
-      <c r="AI226" s="150"/>
-      <c r="AJ226" s="151"/>
-      <c r="AK226" s="1"/>
+      <c r="AI226" s="149"/>
+      <c r="AJ226" s="150"/>
+      <c r="AK226" s="151"/>
       <c r="AL226" s="1"/>
+      <c r="AM226" s="1"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F227" s="149"/>
@@ -15243,10 +15567,11 @@
       <c r="AF227" s="150"/>
       <c r="AG227" s="149"/>
       <c r="AH227" s="149"/>
-      <c r="AI227" s="150"/>
-      <c r="AJ227" s="151"/>
-      <c r="AK227" s="1"/>
+      <c r="AI227" s="149"/>
+      <c r="AJ227" s="150"/>
+      <c r="AK227" s="151"/>
       <c r="AL227" s="1"/>
+      <c r="AM227" s="1"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F228" s="149"/>
@@ -15278,10 +15603,11 @@
       <c r="AF228" s="150"/>
       <c r="AG228" s="149"/>
       <c r="AH228" s="149"/>
-      <c r="AI228" s="150"/>
-      <c r="AJ228" s="151"/>
-      <c r="AK228" s="1"/>
+      <c r="AI228" s="149"/>
+      <c r="AJ228" s="150"/>
+      <c r="AK228" s="151"/>
       <c r="AL228" s="1"/>
+      <c r="AM228" s="1"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F229" s="149"/>
@@ -15313,10 +15639,11 @@
       <c r="AF229" s="150"/>
       <c r="AG229" s="149"/>
       <c r="AH229" s="149"/>
-      <c r="AI229" s="150"/>
-      <c r="AJ229" s="151"/>
-      <c r="AK229" s="1"/>
+      <c r="AI229" s="149"/>
+      <c r="AJ229" s="150"/>
+      <c r="AK229" s="151"/>
       <c r="AL229" s="1"/>
+      <c r="AM229" s="1"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F230" s="149"/>
@@ -15348,10 +15675,11 @@
       <c r="AF230" s="150"/>
       <c r="AG230" s="149"/>
       <c r="AH230" s="149"/>
-      <c r="AI230" s="150"/>
-      <c r="AJ230" s="151"/>
-      <c r="AK230" s="1"/>
+      <c r="AI230" s="149"/>
+      <c r="AJ230" s="150"/>
+      <c r="AK230" s="151"/>
       <c r="AL230" s="1"/>
+      <c r="AM230" s="1"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F231" s="149"/>
@@ -15383,10 +15711,11 @@
       <c r="AF231" s="150"/>
       <c r="AG231" s="149"/>
       <c r="AH231" s="149"/>
-      <c r="AI231" s="150"/>
-      <c r="AJ231" s="151"/>
-      <c r="AK231" s="1"/>
+      <c r="AI231" s="149"/>
+      <c r="AJ231" s="150"/>
+      <c r="AK231" s="151"/>
       <c r="AL231" s="1"/>
+      <c r="AM231" s="1"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F232" s="149"/>
@@ -15418,10 +15747,11 @@
       <c r="AF232" s="150"/>
       <c r="AG232" s="149"/>
       <c r="AH232" s="149"/>
-      <c r="AI232" s="150"/>
-      <c r="AJ232" s="151"/>
-      <c r="AK232" s="1"/>
+      <c r="AI232" s="149"/>
+      <c r="AJ232" s="150"/>
+      <c r="AK232" s="151"/>
       <c r="AL232" s="1"/>
+      <c r="AM232" s="1"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F233" s="149"/>
@@ -15453,10 +15783,11 @@
       <c r="AF233" s="150"/>
       <c r="AG233" s="149"/>
       <c r="AH233" s="149"/>
-      <c r="AI233" s="150"/>
-      <c r="AJ233" s="151"/>
-      <c r="AK233" s="1"/>
+      <c r="AI233" s="149"/>
+      <c r="AJ233" s="150"/>
+      <c r="AK233" s="151"/>
       <c r="AL233" s="1"/>
+      <c r="AM233" s="1"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F234" s="152"/>
@@ -15489,9 +15820,10 @@
       <c r="AG234" s="152"/>
       <c r="AH234" s="152"/>
       <c r="AI234" s="152"/>
-      <c r="AJ234" s="153"/>
-      <c r="AK234" s="1"/>
+      <c r="AJ234" s="152"/>
+      <c r="AK234" s="153"/>
       <c r="AL234" s="1"/>
+      <c r="AM234" s="1"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F235" s="152"/>
@@ -15524,14 +15856,15 @@
       <c r="AG235" s="152"/>
       <c r="AH235" s="152"/>
       <c r="AI235" s="152"/>
-      <c r="AJ235" s="153"/>
-      <c r="AK235" s="1"/>
+      <c r="AJ235" s="152"/>
+      <c r="AK235" s="153"/>
       <c r="AL235" s="1"/>
-      <c r="AM235" s="145" t="n">
-        <f aca="false">SUM(AM10:AM233)</f>
+      <c r="AM235" s="1"/>
+      <c r="AN235" s="145" t="n">
+        <f aca="false">SUM(AN10:AN233)</f>
         <v>1480.6</v>
       </c>
-      <c r="AN235" s="0" t="n">
+      <c r="AO235" s="0" t="n">
         <v>517.04</v>
       </c>
     </row>
@@ -15566,9 +15899,10 @@
       <c r="AG236" s="152"/>
       <c r="AH236" s="152"/>
       <c r="AI236" s="152"/>
-      <c r="AJ236" s="153"/>
-      <c r="AK236" s="1"/>
+      <c r="AJ236" s="152"/>
+      <c r="AK236" s="153"/>
       <c r="AL236" s="1"/>
+      <c r="AM236" s="1"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F237" s="152"/>
@@ -15601,9 +15935,10 @@
       <c r="AG237" s="152"/>
       <c r="AH237" s="152"/>
       <c r="AI237" s="152"/>
-      <c r="AJ237" s="153"/>
-      <c r="AK237" s="1"/>
+      <c r="AJ237" s="152"/>
+      <c r="AK237" s="153"/>
       <c r="AL237" s="1"/>
+      <c r="AM237" s="1"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F238" s="152"/>
@@ -15636,9 +15971,10 @@
       <c r="AG238" s="152"/>
       <c r="AH238" s="152"/>
       <c r="AI238" s="152"/>
-      <c r="AJ238" s="153"/>
-      <c r="AK238" s="1"/>
+      <c r="AJ238" s="152"/>
+      <c r="AK238" s="153"/>
       <c r="AL238" s="1"/>
+      <c r="AM238" s="1"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F239" s="152"/>
@@ -15671,9 +16007,10 @@
       <c r="AG239" s="152"/>
       <c r="AH239" s="152"/>
       <c r="AI239" s="152"/>
-      <c r="AJ239" s="153"/>
-      <c r="AK239" s="1"/>
+      <c r="AJ239" s="152"/>
+      <c r="AK239" s="153"/>
       <c r="AL239" s="1"/>
+      <c r="AM239" s="1"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F240" s="152"/>
@@ -15706,9 +16043,10 @@
       <c r="AG240" s="152"/>
       <c r="AH240" s="152"/>
       <c r="AI240" s="152"/>
-      <c r="AJ240" s="153"/>
-      <c r="AK240" s="1"/>
+      <c r="AJ240" s="152"/>
+      <c r="AK240" s="153"/>
       <c r="AL240" s="1"/>
+      <c r="AM240" s="1"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F241" s="152"/>
@@ -15741,9 +16079,10 @@
       <c r="AG241" s="152"/>
       <c r="AH241" s="152"/>
       <c r="AI241" s="152"/>
-      <c r="AJ241" s="153"/>
-      <c r="AK241" s="1"/>
+      <c r="AJ241" s="152"/>
+      <c r="AK241" s="153"/>
       <c r="AL241" s="1"/>
+      <c r="AM241" s="1"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F242" s="152"/>
@@ -15776,9 +16115,10 @@
       <c r="AG242" s="152"/>
       <c r="AH242" s="152"/>
       <c r="AI242" s="152"/>
-      <c r="AJ242" s="153"/>
-      <c r="AK242" s="1"/>
+      <c r="AJ242" s="152"/>
+      <c r="AK242" s="153"/>
       <c r="AL242" s="1"/>
+      <c r="AM242" s="1"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F243" s="152"/>
@@ -15811,9 +16151,10 @@
       <c r="AG243" s="152"/>
       <c r="AH243" s="152"/>
       <c r="AI243" s="152"/>
-      <c r="AJ243" s="153"/>
-      <c r="AK243" s="1"/>
+      <c r="AJ243" s="152"/>
+      <c r="AK243" s="153"/>
       <c r="AL243" s="1"/>
+      <c r="AM243" s="1"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F244" s="152"/>
@@ -15846,9 +16187,10 @@
       <c r="AG244" s="152"/>
       <c r="AH244" s="152"/>
       <c r="AI244" s="152"/>
-      <c r="AJ244" s="153"/>
-      <c r="AK244" s="1"/>
+      <c r="AJ244" s="152"/>
+      <c r="AK244" s="153"/>
       <c r="AL244" s="1"/>
+      <c r="AM244" s="1"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F245" s="152"/>
@@ -15881,9 +16223,10 @@
       <c r="AG245" s="152"/>
       <c r="AH245" s="152"/>
       <c r="AI245" s="152"/>
-      <c r="AJ245" s="153"/>
-      <c r="AK245" s="1"/>
+      <c r="AJ245" s="152"/>
+      <c r="AK245" s="153"/>
       <c r="AL245" s="1"/>
+      <c r="AM245" s="1"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F246" s="152"/>
@@ -15916,9 +16259,10 @@
       <c r="AG246" s="152"/>
       <c r="AH246" s="152"/>
       <c r="AI246" s="152"/>
-      <c r="AJ246" s="153"/>
-      <c r="AK246" s="1"/>
+      <c r="AJ246" s="152"/>
+      <c r="AK246" s="153"/>
       <c r="AL246" s="1"/>
+      <c r="AM246" s="1"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F247" s="152"/>
@@ -15951,9 +16295,10 @@
       <c r="AG247" s="152"/>
       <c r="AH247" s="152"/>
       <c r="AI247" s="152"/>
-      <c r="AJ247" s="153"/>
-      <c r="AK247" s="1"/>
+      <c r="AJ247" s="152"/>
+      <c r="AK247" s="153"/>
       <c r="AL247" s="1"/>
+      <c r="AM247" s="1"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F248" s="152"/>
@@ -15986,9 +16331,10 @@
       <c r="AG248" s="152"/>
       <c r="AH248" s="152"/>
       <c r="AI248" s="152"/>
-      <c r="AJ248" s="153"/>
-      <c r="AK248" s="1"/>
+      <c r="AJ248" s="152"/>
+      <c r="AK248" s="153"/>
       <c r="AL248" s="1"/>
+      <c r="AM248" s="1"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F249" s="152"/>
@@ -16021,9 +16367,10 @@
       <c r="AG249" s="152"/>
       <c r="AH249" s="152"/>
       <c r="AI249" s="152"/>
-      <c r="AJ249" s="153"/>
-      <c r="AK249" s="1"/>
+      <c r="AJ249" s="152"/>
+      <c r="AK249" s="153"/>
       <c r="AL249" s="1"/>
+      <c r="AM249" s="1"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F250" s="154"/>
@@ -16056,8 +16403,9 @@
       <c r="AG250" s="154"/>
       <c r="AH250" s="154"/>
       <c r="AI250" s="154"/>
-      <c r="AK250" s="1"/>
+      <c r="AJ250" s="154"/>
       <c r="AL250" s="1"/>
+      <c r="AM250" s="1"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F251" s="154"/>
@@ -16090,8 +16438,9 @@
       <c r="AG251" s="154"/>
       <c r="AH251" s="154"/>
       <c r="AI251" s="154"/>
-      <c r="AK251" s="1"/>
+      <c r="AJ251" s="154"/>
       <c r="AL251" s="1"/>
+      <c r="AM251" s="1"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F252" s="154"/>
@@ -16124,8 +16473,9 @@
       <c r="AG252" s="154"/>
       <c r="AH252" s="154"/>
       <c r="AI252" s="154"/>
-      <c r="AK252" s="1"/>
+      <c r="AJ252" s="154"/>
       <c r="AL252" s="1"/>
+      <c r="AM252" s="1"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F253" s="154"/>
@@ -16158,8 +16508,9 @@
       <c r="AG253" s="154"/>
       <c r="AH253" s="154"/>
       <c r="AI253" s="154"/>
-      <c r="AK253" s="1"/>
+      <c r="AJ253" s="154"/>
       <c r="AL253" s="1"/>
+      <c r="AM253" s="1"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F254" s="154"/>
@@ -16192,8 +16543,9 @@
       <c r="AG254" s="154"/>
       <c r="AH254" s="154"/>
       <c r="AI254" s="154"/>
-      <c r="AK254" s="1"/>
+      <c r="AJ254" s="154"/>
       <c r="AL254" s="1"/>
+      <c r="AM254" s="1"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F255" s="154"/>
@@ -16226,8 +16578,9 @@
       <c r="AG255" s="154"/>
       <c r="AH255" s="154"/>
       <c r="AI255" s="154"/>
-      <c r="AK255" s="1"/>
+      <c r="AJ255" s="154"/>
       <c r="AL255" s="1"/>
+      <c r="AM255" s="1"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F256" s="154"/>
@@ -16260,8 +16613,9 @@
       <c r="AG256" s="154"/>
       <c r="AH256" s="154"/>
       <c r="AI256" s="154"/>
-      <c r="AK256" s="1"/>
+      <c r="AJ256" s="154"/>
       <c r="AL256" s="1"/>
+      <c r="AM256" s="1"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F257" s="154"/>
@@ -16294,8 +16648,9 @@
       <c r="AG257" s="154"/>
       <c r="AH257" s="154"/>
       <c r="AI257" s="154"/>
-      <c r="AK257" s="1"/>
+      <c r="AJ257" s="154"/>
       <c r="AL257" s="1"/>
+      <c r="AM257" s="1"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F258" s="154"/>
@@ -16328,8 +16683,9 @@
       <c r="AG258" s="154"/>
       <c r="AH258" s="154"/>
       <c r="AI258" s="154"/>
-      <c r="AK258" s="1"/>
+      <c r="AJ258" s="154"/>
       <c r="AL258" s="1"/>
+      <c r="AM258" s="1"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F259" s="154"/>
@@ -16362,8 +16718,9 @@
       <c r="AG259" s="154"/>
       <c r="AH259" s="154"/>
       <c r="AI259" s="154"/>
-      <c r="AK259" s="1"/>
+      <c r="AJ259" s="154"/>
       <c r="AL259" s="1"/>
+      <c r="AM259" s="1"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F260" s="154"/>
@@ -16396,8 +16753,9 @@
       <c r="AG260" s="154"/>
       <c r="AH260" s="154"/>
       <c r="AI260" s="154"/>
-      <c r="AK260" s="1"/>
+      <c r="AJ260" s="154"/>
       <c r="AL260" s="1"/>
+      <c r="AM260" s="1"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F261" s="154"/>
@@ -16430,8 +16788,9 @@
       <c r="AG261" s="154"/>
       <c r="AH261" s="154"/>
       <c r="AI261" s="154"/>
-      <c r="AK261" s="1"/>
+      <c r="AJ261" s="154"/>
       <c r="AL261" s="1"/>
+      <c r="AM261" s="1"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F262" s="154"/>
@@ -16464,8 +16823,9 @@
       <c r="AG262" s="154"/>
       <c r="AH262" s="154"/>
       <c r="AI262" s="154"/>
-      <c r="AK262" s="1"/>
+      <c r="AJ262" s="154"/>
       <c r="AL262" s="1"/>
+      <c r="AM262" s="1"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F263" s="154"/>
@@ -16498,8 +16858,9 @@
       <c r="AG263" s="154"/>
       <c r="AH263" s="154"/>
       <c r="AI263" s="154"/>
-      <c r="AK263" s="1"/>
+      <c r="AJ263" s="154"/>
       <c r="AL263" s="1"/>
+      <c r="AM263" s="1"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F264" s="154"/>
@@ -16532,8 +16893,9 @@
       <c r="AG264" s="154"/>
       <c r="AH264" s="154"/>
       <c r="AI264" s="154"/>
-      <c r="AK264" s="1"/>
+      <c r="AJ264" s="154"/>
       <c r="AL264" s="1"/>
+      <c r="AM264" s="1"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F265" s="154"/>
@@ -16566,8 +16928,9 @@
       <c r="AG265" s="154"/>
       <c r="AH265" s="154"/>
       <c r="AI265" s="154"/>
-      <c r="AK265" s="1"/>
+      <c r="AJ265" s="154"/>
       <c r="AL265" s="1"/>
+      <c r="AM265" s="1"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F266" s="154"/>
@@ -16600,8 +16963,9 @@
       <c r="AG266" s="154"/>
       <c r="AH266" s="154"/>
       <c r="AI266" s="154"/>
-      <c r="AK266" s="1"/>
+      <c r="AJ266" s="154"/>
       <c r="AL266" s="1"/>
+      <c r="AM266" s="1"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F267" s="154"/>
@@ -16634,8 +16998,9 @@
       <c r="AG267" s="154"/>
       <c r="AH267" s="154"/>
       <c r="AI267" s="154"/>
-      <c r="AK267" s="1"/>
+      <c r="AJ267" s="154"/>
       <c r="AL267" s="1"/>
+      <c r="AM267" s="1"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F268" s="154"/>
@@ -16668,8 +17033,9 @@
       <c r="AG268" s="154"/>
       <c r="AH268" s="154"/>
       <c r="AI268" s="154"/>
-      <c r="AK268" s="1"/>
+      <c r="AJ268" s="154"/>
       <c r="AL268" s="1"/>
+      <c r="AM268" s="1"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F269" s="154"/>
@@ -16702,8 +17068,9 @@
       <c r="AG269" s="154"/>
       <c r="AH269" s="154"/>
       <c r="AI269" s="154"/>
-      <c r="AK269" s="1"/>
+      <c r="AJ269" s="154"/>
       <c r="AL269" s="1"/>
+      <c r="AM269" s="1"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F270" s="154"/>
@@ -16736,8 +17103,9 @@
       <c r="AG270" s="154"/>
       <c r="AH270" s="154"/>
       <c r="AI270" s="154"/>
-      <c r="AK270" s="1"/>
+      <c r="AJ270" s="154"/>
       <c r="AL270" s="1"/>
+      <c r="AM270" s="1"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F271" s="154"/>
@@ -16770,8 +17138,9 @@
       <c r="AG271" s="154"/>
       <c r="AH271" s="154"/>
       <c r="AI271" s="154"/>
-      <c r="AK271" s="1"/>
+      <c r="AJ271" s="154"/>
       <c r="AL271" s="1"/>
+      <c r="AM271" s="1"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F272" s="154"/>
@@ -16804,8 +17173,9 @@
       <c r="AG272" s="154"/>
       <c r="AH272" s="154"/>
       <c r="AI272" s="154"/>
-      <c r="AK272" s="1"/>
+      <c r="AJ272" s="154"/>
       <c r="AL272" s="1"/>
+      <c r="AM272" s="1"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F273" s="154"/>
@@ -16838,8 +17208,9 @@
       <c r="AG273" s="154"/>
       <c r="AH273" s="154"/>
       <c r="AI273" s="154"/>
-      <c r="AK273" s="1"/>
+      <c r="AJ273" s="154"/>
       <c r="AL273" s="1"/>
+      <c r="AM273" s="1"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F274" s="154"/>
@@ -16872,8 +17243,9 @@
       <c r="AG274" s="154"/>
       <c r="AH274" s="154"/>
       <c r="AI274" s="154"/>
-      <c r="AK274" s="1"/>
+      <c r="AJ274" s="154"/>
       <c r="AL274" s="1"/>
+      <c r="AM274" s="1"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F275" s="154"/>
@@ -16906,8 +17278,9 @@
       <c r="AG275" s="154"/>
       <c r="AH275" s="154"/>
       <c r="AI275" s="154"/>
-      <c r="AK275" s="1"/>
+      <c r="AJ275" s="154"/>
       <c r="AL275" s="1"/>
+      <c r="AM275" s="1"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F276" s="154"/>
@@ -16940,8 +17313,9 @@
       <c r="AG276" s="154"/>
       <c r="AH276" s="154"/>
       <c r="AI276" s="154"/>
-      <c r="AK276" s="1"/>
+      <c r="AJ276" s="154"/>
       <c r="AL276" s="1"/>
+      <c r="AM276" s="1"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F277" s="154"/>
@@ -16974,8 +17348,9 @@
       <c r="AG277" s="154"/>
       <c r="AH277" s="154"/>
       <c r="AI277" s="154"/>
-      <c r="AK277" s="1"/>
+      <c r="AJ277" s="154"/>
       <c r="AL277" s="1"/>
+      <c r="AM277" s="1"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F278" s="154"/>
@@ -17008,8 +17383,9 @@
       <c r="AG278" s="154"/>
       <c r="AH278" s="154"/>
       <c r="AI278" s="154"/>
-      <c r="AK278" s="1"/>
+      <c r="AJ278" s="154"/>
       <c r="AL278" s="1"/>
+      <c r="AM278" s="1"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F279" s="154"/>
@@ -17042,8 +17418,9 @@
       <c r="AG279" s="154"/>
       <c r="AH279" s="154"/>
       <c r="AI279" s="154"/>
-      <c r="AK279" s="1"/>
+      <c r="AJ279" s="154"/>
       <c r="AL279" s="1"/>
+      <c r="AM279" s="1"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F280" s="154"/>
@@ -17076,8 +17453,9 @@
       <c r="AG280" s="154"/>
       <c r="AH280" s="154"/>
       <c r="AI280" s="154"/>
-      <c r="AK280" s="1"/>
+      <c r="AJ280" s="154"/>
       <c r="AL280" s="1"/>
+      <c r="AM280" s="1"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F281" s="154"/>
@@ -17110,8 +17488,9 @@
       <c r="AG281" s="154"/>
       <c r="AH281" s="154"/>
       <c r="AI281" s="154"/>
-      <c r="AK281" s="1"/>
+      <c r="AJ281" s="154"/>
       <c r="AL281" s="1"/>
+      <c r="AM281" s="1"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F282" s="154"/>
@@ -17144,8 +17523,9 @@
       <c r="AG282" s="154"/>
       <c r="AH282" s="154"/>
       <c r="AI282" s="154"/>
-      <c r="AK282" s="1"/>
+      <c r="AJ282" s="154"/>
       <c r="AL282" s="1"/>
+      <c r="AM282" s="1"/>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F283" s="154"/>
@@ -17178,8 +17558,9 @@
       <c r="AG283" s="154"/>
       <c r="AH283" s="154"/>
       <c r="AI283" s="154"/>
-      <c r="AK283" s="1"/>
+      <c r="AJ283" s="154"/>
       <c r="AL283" s="1"/>
+      <c r="AM283" s="1"/>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F284" s="154"/>
@@ -17212,8 +17593,9 @@
       <c r="AG284" s="154"/>
       <c r="AH284" s="154"/>
       <c r="AI284" s="154"/>
-      <c r="AK284" s="1"/>
+      <c r="AJ284" s="154"/>
       <c r="AL284" s="1"/>
+      <c r="AM284" s="1"/>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F285" s="154"/>
@@ -17246,8 +17628,9 @@
       <c r="AG285" s="154"/>
       <c r="AH285" s="154"/>
       <c r="AI285" s="154"/>
-      <c r="AK285" s="1"/>
+      <c r="AJ285" s="154"/>
       <c r="AL285" s="1"/>
+      <c r="AM285" s="1"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F286" s="154"/>
@@ -17280,8 +17663,9 @@
       <c r="AG286" s="154"/>
       <c r="AH286" s="154"/>
       <c r="AI286" s="154"/>
-      <c r="AK286" s="1"/>
+      <c r="AJ286" s="154"/>
       <c r="AL286" s="1"/>
+      <c r="AM286" s="1"/>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F287" s="154"/>
@@ -17314,8 +17698,9 @@
       <c r="AG287" s="154"/>
       <c r="AH287" s="154"/>
       <c r="AI287" s="154"/>
-      <c r="AK287" s="1"/>
+      <c r="AJ287" s="154"/>
       <c r="AL287" s="1"/>
+      <c r="AM287" s="1"/>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F288" s="154"/>
@@ -17348,8 +17733,9 @@
       <c r="AG288" s="154"/>
       <c r="AH288" s="154"/>
       <c r="AI288" s="154"/>
-      <c r="AK288" s="1"/>
+      <c r="AJ288" s="154"/>
       <c r="AL288" s="1"/>
+      <c r="AM288" s="1"/>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F289" s="154"/>
@@ -17382,8 +17768,9 @@
       <c r="AG289" s="154"/>
       <c r="AH289" s="154"/>
       <c r="AI289" s="154"/>
-      <c r="AK289" s="1"/>
+      <c r="AJ289" s="154"/>
       <c r="AL289" s="1"/>
+      <c r="AM289" s="1"/>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F290" s="154"/>
@@ -17416,8 +17803,9 @@
       <c r="AG290" s="154"/>
       <c r="AH290" s="154"/>
       <c r="AI290" s="154"/>
-      <c r="AK290" s="1"/>
+      <c r="AJ290" s="154"/>
       <c r="AL290" s="1"/>
+      <c r="AM290" s="1"/>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F291" s="154"/>
@@ -17450,8 +17838,9 @@
       <c r="AG291" s="154"/>
       <c r="AH291" s="154"/>
       <c r="AI291" s="154"/>
-      <c r="AK291" s="1"/>
+      <c r="AJ291" s="154"/>
       <c r="AL291" s="1"/>
+      <c r="AM291" s="1"/>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F292" s="154"/>
@@ -17484,8 +17873,9 @@
       <c r="AG292" s="154"/>
       <c r="AH292" s="154"/>
       <c r="AI292" s="154"/>
-      <c r="AK292" s="1"/>
+      <c r="AJ292" s="154"/>
       <c r="AL292" s="1"/>
+      <c r="AM292" s="1"/>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F293" s="154"/>
@@ -17518,8 +17908,9 @@
       <c r="AG293" s="154"/>
       <c r="AH293" s="154"/>
       <c r="AI293" s="154"/>
-      <c r="AK293" s="1"/>
+      <c r="AJ293" s="154"/>
       <c r="AL293" s="1"/>
+      <c r="AM293" s="1"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F294" s="154"/>
@@ -17552,8 +17943,9 @@
       <c r="AG294" s="154"/>
       <c r="AH294" s="154"/>
       <c r="AI294" s="154"/>
-      <c r="AK294" s="1"/>
+      <c r="AJ294" s="154"/>
       <c r="AL294" s="1"/>
+      <c r="AM294" s="1"/>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F295" s="154"/>
@@ -17586,8 +17978,9 @@
       <c r="AG295" s="154"/>
       <c r="AH295" s="154"/>
       <c r="AI295" s="154"/>
-      <c r="AK295" s="1"/>
+      <c r="AJ295" s="154"/>
       <c r="AL295" s="1"/>
+      <c r="AM295" s="1"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F296" s="154"/>
@@ -17620,8 +18013,9 @@
       <c r="AG296" s="154"/>
       <c r="AH296" s="154"/>
       <c r="AI296" s="154"/>
-      <c r="AK296" s="1"/>
+      <c r="AJ296" s="154"/>
       <c r="AL296" s="1"/>
+      <c r="AM296" s="1"/>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F297" s="154"/>
@@ -17654,8 +18048,9 @@
       <c r="AG297" s="154"/>
       <c r="AH297" s="154"/>
       <c r="AI297" s="154"/>
-      <c r="AK297" s="1"/>
+      <c r="AJ297" s="154"/>
       <c r="AL297" s="1"/>
+      <c r="AM297" s="1"/>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F298" s="154"/>
@@ -17688,8 +18083,9 @@
       <c r="AG298" s="154"/>
       <c r="AH298" s="154"/>
       <c r="AI298" s="154"/>
-      <c r="AK298" s="1"/>
+      <c r="AJ298" s="154"/>
       <c r="AL298" s="1"/>
+      <c r="AM298" s="1"/>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F299" s="154"/>
@@ -17722,8 +18118,9 @@
       <c r="AG299" s="154"/>
       <c r="AH299" s="154"/>
       <c r="AI299" s="154"/>
-      <c r="AK299" s="1"/>
+      <c r="AJ299" s="154"/>
       <c r="AL299" s="1"/>
+      <c r="AM299" s="1"/>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F300" s="154"/>
@@ -17756,8 +18153,9 @@
       <c r="AG300" s="154"/>
       <c r="AH300" s="154"/>
       <c r="AI300" s="154"/>
-      <c r="AK300" s="1"/>
+      <c r="AJ300" s="154"/>
       <c r="AL300" s="1"/>
+      <c r="AM300" s="1"/>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F301" s="154"/>
@@ -17790,8 +18188,9 @@
       <c r="AG301" s="154"/>
       <c r="AH301" s="154"/>
       <c r="AI301" s="154"/>
-      <c r="AK301" s="1"/>
+      <c r="AJ301" s="154"/>
       <c r="AL301" s="1"/>
+      <c r="AM301" s="1"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F302" s="154"/>
@@ -17824,8 +18223,9 @@
       <c r="AG302" s="154"/>
       <c r="AH302" s="154"/>
       <c r="AI302" s="154"/>
-      <c r="AK302" s="1"/>
+      <c r="AJ302" s="154"/>
       <c r="AL302" s="1"/>
+      <c r="AM302" s="1"/>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F303" s="154"/>
@@ -17858,8 +18258,9 @@
       <c r="AG303" s="154"/>
       <c r="AH303" s="154"/>
       <c r="AI303" s="154"/>
-      <c r="AK303" s="1"/>
+      <c r="AJ303" s="154"/>
       <c r="AL303" s="1"/>
+      <c r="AM303" s="1"/>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F304" s="154"/>
@@ -17892,8 +18293,9 @@
       <c r="AG304" s="154"/>
       <c r="AH304" s="154"/>
       <c r="AI304" s="154"/>
-      <c r="AK304" s="1"/>
+      <c r="AJ304" s="154"/>
       <c r="AL304" s="1"/>
+      <c r="AM304" s="1"/>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F305" s="154"/>
@@ -17926,8 +18328,9 @@
       <c r="AG305" s="154"/>
       <c r="AH305" s="154"/>
       <c r="AI305" s="154"/>
-      <c r="AK305" s="1"/>
+      <c r="AJ305" s="154"/>
       <c r="AL305" s="1"/>
+      <c r="AM305" s="1"/>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F306" s="154"/>
@@ -17960,8 +18363,9 @@
       <c r="AG306" s="154"/>
       <c r="AH306" s="154"/>
       <c r="AI306" s="154"/>
-      <c r="AK306" s="1"/>
+      <c r="AJ306" s="154"/>
       <c r="AL306" s="1"/>
+      <c r="AM306" s="1"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F307" s="154"/>
@@ -17994,8 +18398,9 @@
       <c r="AG307" s="154"/>
       <c r="AH307" s="154"/>
       <c r="AI307" s="154"/>
-      <c r="AK307" s="1"/>
+      <c r="AJ307" s="154"/>
       <c r="AL307" s="1"/>
+      <c r="AM307" s="1"/>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F308" s="154"/>
@@ -18028,8 +18433,9 @@
       <c r="AG308" s="154"/>
       <c r="AH308" s="154"/>
       <c r="AI308" s="154"/>
-      <c r="AK308" s="1"/>
+      <c r="AJ308" s="154"/>
       <c r="AL308" s="1"/>
+      <c r="AM308" s="1"/>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F309" s="154"/>
@@ -18062,8 +18468,9 @@
       <c r="AG309" s="154"/>
       <c r="AH309" s="154"/>
       <c r="AI309" s="154"/>
-      <c r="AK309" s="1"/>
+      <c r="AJ309" s="154"/>
       <c r="AL309" s="1"/>
+      <c r="AM309" s="1"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F310" s="154"/>
@@ -18096,8 +18503,9 @@
       <c r="AG310" s="154"/>
       <c r="AH310" s="154"/>
       <c r="AI310" s="154"/>
-      <c r="AK310" s="1"/>
+      <c r="AJ310" s="154"/>
       <c r="AL310" s="1"/>
+      <c r="AM310" s="1"/>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F311" s="154"/>
@@ -18130,8 +18538,9 @@
       <c r="AG311" s="154"/>
       <c r="AH311" s="154"/>
       <c r="AI311" s="154"/>
-      <c r="AK311" s="1"/>
+      <c r="AJ311" s="154"/>
       <c r="AL311" s="1"/>
+      <c r="AM311" s="1"/>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F312" s="154"/>
@@ -18164,8 +18573,9 @@
       <c r="AG312" s="154"/>
       <c r="AH312" s="154"/>
       <c r="AI312" s="154"/>
-      <c r="AK312" s="1"/>
+      <c r="AJ312" s="154"/>
       <c r="AL312" s="1"/>
+      <c r="AM312" s="1"/>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F313" s="154"/>
@@ -18198,8 +18608,9 @@
       <c r="AG313" s="154"/>
       <c r="AH313" s="154"/>
       <c r="AI313" s="154"/>
-      <c r="AK313" s="1"/>
+      <c r="AJ313" s="154"/>
       <c r="AL313" s="1"/>
+      <c r="AM313" s="1"/>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F314" s="154"/>
@@ -18232,8 +18643,9 @@
       <c r="AG314" s="154"/>
       <c r="AH314" s="154"/>
       <c r="AI314" s="154"/>
-      <c r="AK314" s="1"/>
+      <c r="AJ314" s="154"/>
       <c r="AL314" s="1"/>
+      <c r="AM314" s="1"/>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F315" s="154"/>
@@ -18266,8 +18678,9 @@
       <c r="AG315" s="154"/>
       <c r="AH315" s="154"/>
       <c r="AI315" s="154"/>
-      <c r="AK315" s="1"/>
+      <c r="AJ315" s="154"/>
       <c r="AL315" s="1"/>
+      <c r="AM315" s="1"/>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F316" s="154"/>
@@ -18300,8 +18713,9 @@
       <c r="AG316" s="154"/>
       <c r="AH316" s="154"/>
       <c r="AI316" s="154"/>
-      <c r="AK316" s="1"/>
+      <c r="AJ316" s="154"/>
       <c r="AL316" s="1"/>
+      <c r="AM316" s="1"/>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F317" s="154"/>
@@ -18334,8 +18748,9 @@
       <c r="AG317" s="154"/>
       <c r="AH317" s="154"/>
       <c r="AI317" s="154"/>
-      <c r="AK317" s="1"/>
+      <c r="AJ317" s="154"/>
       <c r="AL317" s="1"/>
+      <c r="AM317" s="1"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F318" s="154"/>
@@ -18368,8 +18783,9 @@
       <c r="AG318" s="154"/>
       <c r="AH318" s="154"/>
       <c r="AI318" s="154"/>
-      <c r="AK318" s="1"/>
+      <c r="AJ318" s="154"/>
       <c r="AL318" s="1"/>
+      <c r="AM318" s="1"/>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F319" s="154"/>
@@ -18402,8 +18818,9 @@
       <c r="AG319" s="154"/>
       <c r="AH319" s="154"/>
       <c r="AI319" s="154"/>
-      <c r="AK319" s="1"/>
+      <c r="AJ319" s="154"/>
       <c r="AL319" s="1"/>
+      <c r="AM319" s="1"/>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F320" s="154"/>
@@ -18436,8 +18853,9 @@
       <c r="AG320" s="154"/>
       <c r="AH320" s="154"/>
       <c r="AI320" s="154"/>
-      <c r="AK320" s="1"/>
+      <c r="AJ320" s="154"/>
       <c r="AL320" s="1"/>
+      <c r="AM320" s="1"/>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F321" s="154"/>
@@ -18470,8 +18888,9 @@
       <c r="AG321" s="154"/>
       <c r="AH321" s="154"/>
       <c r="AI321" s="154"/>
-      <c r="AK321" s="1"/>
+      <c r="AJ321" s="154"/>
       <c r="AL321" s="1"/>
+      <c r="AM321" s="1"/>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F322" s="154"/>
@@ -18504,8 +18923,9 @@
       <c r="AG322" s="154"/>
       <c r="AH322" s="154"/>
       <c r="AI322" s="154"/>
-      <c r="AK322" s="1"/>
+      <c r="AJ322" s="154"/>
       <c r="AL322" s="1"/>
+      <c r="AM322" s="1"/>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F323" s="154"/>
@@ -18538,8 +18958,9 @@
       <c r="AG323" s="154"/>
       <c r="AH323" s="154"/>
       <c r="AI323" s="154"/>
-      <c r="AK323" s="1"/>
+      <c r="AJ323" s="154"/>
       <c r="AL323" s="1"/>
+      <c r="AM323" s="1"/>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F324" s="154"/>
@@ -18572,8 +18993,9 @@
       <c r="AG324" s="154"/>
       <c r="AH324" s="154"/>
       <c r="AI324" s="154"/>
-      <c r="AK324" s="1"/>
+      <c r="AJ324" s="154"/>
       <c r="AL324" s="1"/>
+      <c r="AM324" s="1"/>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F325" s="154"/>
@@ -18606,8 +19028,9 @@
       <c r="AG325" s="154"/>
       <c r="AH325" s="154"/>
       <c r="AI325" s="154"/>
-      <c r="AK325" s="1"/>
+      <c r="AJ325" s="154"/>
       <c r="AL325" s="1"/>
+      <c r="AM325" s="1"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F326" s="154"/>
@@ -18640,8 +19063,9 @@
       <c r="AG326" s="154"/>
       <c r="AH326" s="154"/>
       <c r="AI326" s="154"/>
-      <c r="AK326" s="1"/>
+      <c r="AJ326" s="154"/>
       <c r="AL326" s="1"/>
+      <c r="AM326" s="1"/>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F327" s="154"/>
@@ -18674,8 +19098,9 @@
       <c r="AG327" s="154"/>
       <c r="AH327" s="154"/>
       <c r="AI327" s="154"/>
-      <c r="AK327" s="1"/>
+      <c r="AJ327" s="154"/>
       <c r="AL327" s="1"/>
+      <c r="AM327" s="1"/>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F328" s="155"/>
@@ -18708,6 +19133,7 @@
       <c r="AG328" s="155"/>
       <c r="AH328" s="155"/>
       <c r="AI328" s="155"/>
+      <c r="AJ328" s="155"/>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F329" s="155"/>
@@ -18740,6 +19166,7 @@
       <c r="AG329" s="155"/>
       <c r="AH329" s="155"/>
       <c r="AI329" s="155"/>
+      <c r="AJ329" s="155"/>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F330" s="155"/>
@@ -18772,6 +19199,7 @@
       <c r="AG330" s="155"/>
       <c r="AH330" s="155"/>
       <c r="AI330" s="155"/>
+      <c r="AJ330" s="155"/>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F331" s="155"/>
@@ -18804,6 +19232,7 @@
       <c r="AG331" s="155"/>
       <c r="AH331" s="155"/>
       <c r="AI331" s="155"/>
+      <c r="AJ331" s="155"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F332" s="155"/>
@@ -18836,6 +19265,7 @@
       <c r="AG332" s="155"/>
       <c r="AH332" s="155"/>
       <c r="AI332" s="155"/>
+      <c r="AJ332" s="155"/>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F333" s="155"/>
@@ -18868,6 +19298,7 @@
       <c r="AG333" s="155"/>
       <c r="AH333" s="155"/>
       <c r="AI333" s="155"/>
+      <c r="AJ333" s="155"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F334" s="155"/>
@@ -18900,6 +19331,7 @@
       <c r="AG334" s="155"/>
       <c r="AH334" s="155"/>
       <c r="AI334" s="155"/>
+      <c r="AJ334" s="155"/>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F335" s="155"/>
@@ -18932,6 +19364,7 @@
       <c r="AG335" s="155"/>
       <c r="AH335" s="155"/>
       <c r="AI335" s="155"/>
+      <c r="AJ335" s="155"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F336" s="155"/>
@@ -18964,6 +19397,7 @@
       <c r="AG336" s="155"/>
       <c r="AH336" s="155"/>
       <c r="AI336" s="155"/>
+      <c r="AJ336" s="155"/>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F337" s="155"/>
@@ -18996,6 +19430,7 @@
       <c r="AG337" s="155"/>
       <c r="AH337" s="155"/>
       <c r="AI337" s="155"/>
+      <c r="AJ337" s="155"/>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F338" s="155"/>
@@ -19028,6 +19463,7 @@
       <c r="AG338" s="155"/>
       <c r="AH338" s="155"/>
       <c r="AI338" s="155"/>
+      <c r="AJ338" s="155"/>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F339" s="155"/>
@@ -19060,6 +19496,7 @@
       <c r="AG339" s="155"/>
       <c r="AH339" s="155"/>
       <c r="AI339" s="155"/>
+      <c r="AJ339" s="155"/>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F340" s="155"/>
@@ -19092,6 +19529,7 @@
       <c r="AG340" s="155"/>
       <c r="AH340" s="155"/>
       <c r="AI340" s="155"/>
+      <c r="AJ340" s="155"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F341" s="155"/>
@@ -19124,6 +19562,7 @@
       <c r="AG341" s="155"/>
       <c r="AH341" s="155"/>
       <c r="AI341" s="155"/>
+      <c r="AJ341" s="155"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F342" s="155"/>
@@ -19156,6 +19595,7 @@
       <c r="AG342" s="155"/>
       <c r="AH342" s="155"/>
       <c r="AI342" s="155"/>
+      <c r="AJ342" s="155"/>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F343" s="155"/>
@@ -19188,6 +19628,7 @@
       <c r="AG343" s="155"/>
       <c r="AH343" s="155"/>
       <c r="AI343" s="155"/>
+      <c r="AJ343" s="155"/>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F344" s="155"/>
@@ -19220,6 +19661,7 @@
       <c r="AG344" s="155"/>
       <c r="AH344" s="155"/>
       <c r="AI344" s="155"/>
+      <c r="AJ344" s="155"/>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F345" s="155"/>
@@ -19252,6 +19694,7 @@
       <c r="AG345" s="155"/>
       <c r="AH345" s="155"/>
       <c r="AI345" s="155"/>
+      <c r="AJ345" s="155"/>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F346" s="155"/>
@@ -19284,6 +19727,7 @@
       <c r="AG346" s="155"/>
       <c r="AH346" s="155"/>
       <c r="AI346" s="155"/>
+      <c r="AJ346" s="155"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F347" s="155"/>
@@ -19316,6 +19760,7 @@
       <c r="AG347" s="155"/>
       <c r="AH347" s="155"/>
       <c r="AI347" s="155"/>
+      <c r="AJ347" s="155"/>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F348" s="155"/>
@@ -19348,6 +19793,7 @@
       <c r="AG348" s="155"/>
       <c r="AH348" s="155"/>
       <c r="AI348" s="155"/>
+      <c r="AJ348" s="155"/>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F349" s="155"/>
@@ -19380,6 +19826,7 @@
       <c r="AG349" s="155"/>
       <c r="AH349" s="155"/>
       <c r="AI349" s="155"/>
+      <c r="AJ349" s="155"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F350" s="155"/>
@@ -19412,6 +19859,7 @@
       <c r="AG350" s="155"/>
       <c r="AH350" s="155"/>
       <c r="AI350" s="155"/>
+      <c r="AJ350" s="155"/>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F351" s="155"/>
@@ -19444,6 +19892,7 @@
       <c r="AG351" s="155"/>
       <c r="AH351" s="155"/>
       <c r="AI351" s="155"/>
+      <c r="AJ351" s="155"/>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F352" s="155"/>
@@ -19476,6 +19925,7 @@
       <c r="AG352" s="155"/>
       <c r="AH352" s="155"/>
       <c r="AI352" s="155"/>
+      <c r="AJ352" s="155"/>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F353" s="155"/>
@@ -19508,6 +19958,7 @@
       <c r="AG353" s="155"/>
       <c r="AH353" s="155"/>
       <c r="AI353" s="155"/>
+      <c r="AJ353" s="155"/>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F354" s="155"/>
@@ -19540,6 +19991,7 @@
       <c r="AG354" s="155"/>
       <c r="AH354" s="155"/>
       <c r="AI354" s="155"/>
+      <c r="AJ354" s="155"/>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F355" s="155"/>
@@ -19572,6 +20024,7 @@
       <c r="AG355" s="155"/>
       <c r="AH355" s="155"/>
       <c r="AI355" s="155"/>
+      <c r="AJ355" s="155"/>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F356" s="155"/>
@@ -19604,6 +20057,7 @@
       <c r="AG356" s="155"/>
       <c r="AH356" s="155"/>
       <c r="AI356" s="155"/>
+      <c r="AJ356" s="155"/>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F357" s="155"/>
@@ -19636,6 +20090,7 @@
       <c r="AG357" s="155"/>
       <c r="AH357" s="155"/>
       <c r="AI357" s="155"/>
+      <c r="AJ357" s="155"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F358" s="155"/>
@@ -19668,6 +20123,7 @@
       <c r="AG358" s="155"/>
       <c r="AH358" s="155"/>
       <c r="AI358" s="155"/>
+      <c r="AJ358" s="155"/>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F359" s="155"/>
@@ -19700,6 +20156,7 @@
       <c r="AG359" s="155"/>
       <c r="AH359" s="155"/>
       <c r="AI359" s="155"/>
+      <c r="AJ359" s="155"/>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F360" s="155"/>
@@ -19732,6 +20189,7 @@
       <c r="AG360" s="155"/>
       <c r="AH360" s="155"/>
       <c r="AI360" s="155"/>
+      <c r="AJ360" s="155"/>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F361" s="155"/>
@@ -19764,6 +20222,7 @@
       <c r="AG361" s="155"/>
       <c r="AH361" s="155"/>
       <c r="AI361" s="155"/>
+      <c r="AJ361" s="155"/>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F362" s="155"/>
@@ -19796,6 +20255,7 @@
       <c r="AG362" s="155"/>
       <c r="AH362" s="155"/>
       <c r="AI362" s="155"/>
+      <c r="AJ362" s="155"/>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F363" s="155"/>
@@ -19828,6 +20288,7 @@
       <c r="AG363" s="155"/>
       <c r="AH363" s="155"/>
       <c r="AI363" s="155"/>
+      <c r="AJ363" s="155"/>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F364" s="155"/>
@@ -19860,6 +20321,7 @@
       <c r="AG364" s="155"/>
       <c r="AH364" s="155"/>
       <c r="AI364" s="155"/>
+      <c r="AJ364" s="155"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F365" s="155"/>
@@ -19892,6 +20354,7 @@
       <c r="AG365" s="155"/>
       <c r="AH365" s="155"/>
       <c r="AI365" s="155"/>
+      <c r="AJ365" s="155"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F366" s="155"/>
@@ -19924,6 +20387,7 @@
       <c r="AG366" s="155"/>
       <c r="AH366" s="155"/>
       <c r="AI366" s="155"/>
+      <c r="AJ366" s="155"/>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F367" s="155"/>
@@ -19956,6 +20420,7 @@
       <c r="AG367" s="155"/>
       <c r="AH367" s="155"/>
       <c r="AI367" s="155"/>
+      <c r="AJ367" s="155"/>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F368" s="155"/>
@@ -19988,6 +20453,7 @@
       <c r="AG368" s="155"/>
       <c r="AH368" s="155"/>
       <c r="AI368" s="155"/>
+      <c r="AJ368" s="155"/>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F369" s="155"/>
@@ -20020,6 +20486,7 @@
       <c r="AG369" s="155"/>
       <c r="AH369" s="155"/>
       <c r="AI369" s="155"/>
+      <c r="AJ369" s="155"/>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F370" s="155"/>
@@ -20052,6 +20519,7 @@
       <c r="AG370" s="155"/>
       <c r="AH370" s="155"/>
       <c r="AI370" s="155"/>
+      <c r="AJ370" s="155"/>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F371" s="155"/>
@@ -20084,6 +20552,7 @@
       <c r="AG371" s="155"/>
       <c r="AH371" s="155"/>
       <c r="AI371" s="155"/>
+      <c r="AJ371" s="155"/>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F372" s="155"/>
@@ -20116,6 +20585,7 @@
       <c r="AG372" s="155"/>
       <c r="AH372" s="155"/>
       <c r="AI372" s="155"/>
+      <c r="AJ372" s="155"/>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F373" s="155"/>
@@ -20148,6 +20618,7 @@
       <c r="AG373" s="155"/>
       <c r="AH373" s="155"/>
       <c r="AI373" s="155"/>
+      <c r="AJ373" s="155"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F374" s="155"/>
@@ -20180,6 +20651,7 @@
       <c r="AG374" s="155"/>
       <c r="AH374" s="155"/>
       <c r="AI374" s="155"/>
+      <c r="AJ374" s="155"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F375" s="155"/>
@@ -20212,6 +20684,7 @@
       <c r="AG375" s="155"/>
       <c r="AH375" s="155"/>
       <c r="AI375" s="155"/>
+      <c r="AJ375" s="155"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F376" s="155"/>
@@ -20244,6 +20717,7 @@
       <c r="AG376" s="155"/>
       <c r="AH376" s="155"/>
       <c r="AI376" s="155"/>
+      <c r="AJ376" s="155"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F377" s="155"/>
@@ -20276,6 +20750,7 @@
       <c r="AG377" s="155"/>
       <c r="AH377" s="155"/>
       <c r="AI377" s="155"/>
+      <c r="AJ377" s="155"/>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F378" s="155"/>
@@ -20308,6 +20783,7 @@
       <c r="AG378" s="155"/>
       <c r="AH378" s="155"/>
       <c r="AI378" s="155"/>
+      <c r="AJ378" s="155"/>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F379" s="155"/>
@@ -20340,6 +20816,7 @@
       <c r="AG379" s="155"/>
       <c r="AH379" s="155"/>
       <c r="AI379" s="155"/>
+      <c r="AJ379" s="155"/>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F380" s="155"/>
@@ -20372,6 +20849,7 @@
       <c r="AG380" s="155"/>
       <c r="AH380" s="155"/>
       <c r="AI380" s="155"/>
+      <c r="AJ380" s="155"/>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F381" s="155"/>
@@ -20404,6 +20882,7 @@
       <c r="AG381" s="155"/>
       <c r="AH381" s="155"/>
       <c r="AI381" s="155"/>
+      <c r="AJ381" s="155"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F382" s="155"/>
@@ -20436,6 +20915,7 @@
       <c r="AG382" s="155"/>
       <c r="AH382" s="155"/>
       <c r="AI382" s="155"/>
+      <c r="AJ382" s="155"/>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F383" s="155"/>
@@ -20468,6 +20948,7 @@
       <c r="AG383" s="155"/>
       <c r="AH383" s="155"/>
       <c r="AI383" s="155"/>
+      <c r="AJ383" s="155"/>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F384" s="155"/>
@@ -20500,6 +20981,7 @@
       <c r="AG384" s="155"/>
       <c r="AH384" s="155"/>
       <c r="AI384" s="155"/>
+      <c r="AJ384" s="155"/>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F385" s="155"/>
@@ -20532,6 +21014,7 @@
       <c r="AG385" s="155"/>
       <c r="AH385" s="155"/>
       <c r="AI385" s="155"/>
+      <c r="AJ385" s="155"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F386" s="155"/>
@@ -20564,6 +21047,7 @@
       <c r="AG386" s="155"/>
       <c r="AH386" s="155"/>
       <c r="AI386" s="155"/>
+      <c r="AJ386" s="155"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F387" s="155"/>
@@ -20596,6 +21080,7 @@
       <c r="AG387" s="155"/>
       <c r="AH387" s="155"/>
       <c r="AI387" s="155"/>
+      <c r="AJ387" s="155"/>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F388" s="155"/>
@@ -20628,6 +21113,7 @@
       <c r="AG388" s="155"/>
       <c r="AH388" s="155"/>
       <c r="AI388" s="155"/>
+      <c r="AJ388" s="155"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F389" s="155"/>
@@ -20660,6 +21146,7 @@
       <c r="AG389" s="155"/>
       <c r="AH389" s="155"/>
       <c r="AI389" s="155"/>
+      <c r="AJ389" s="155"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F390" s="155"/>
@@ -20692,6 +21179,7 @@
       <c r="AG390" s="155"/>
       <c r="AH390" s="155"/>
       <c r="AI390" s="155"/>
+      <c r="AJ390" s="155"/>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F391" s="155"/>
@@ -20724,6 +21212,7 @@
       <c r="AG391" s="155"/>
       <c r="AH391" s="155"/>
       <c r="AI391" s="155"/>
+      <c r="AJ391" s="155"/>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F392" s="155"/>
@@ -20756,6 +21245,7 @@
       <c r="AG392" s="155"/>
       <c r="AH392" s="155"/>
       <c r="AI392" s="155"/>
+      <c r="AJ392" s="155"/>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F393" s="155"/>
@@ -20788,6 +21278,7 @@
       <c r="AG393" s="155"/>
       <c r="AH393" s="155"/>
       <c r="AI393" s="155"/>
+      <c r="AJ393" s="155"/>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F394" s="155"/>
@@ -20820,6 +21311,7 @@
       <c r="AG394" s="155"/>
       <c r="AH394" s="155"/>
       <c r="AI394" s="155"/>
+      <c r="AJ394" s="155"/>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F395" s="155"/>
@@ -20852,6 +21344,7 @@
       <c r="AG395" s="155"/>
       <c r="AH395" s="155"/>
       <c r="AI395" s="155"/>
+      <c r="AJ395" s="155"/>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F396" s="155"/>
@@ -20884,6 +21377,7 @@
       <c r="AG396" s="155"/>
       <c r="AH396" s="155"/>
       <c r="AI396" s="155"/>
+      <c r="AJ396" s="155"/>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F397" s="155"/>
@@ -20916,6 +21410,7 @@
       <c r="AG397" s="155"/>
       <c r="AH397" s="155"/>
       <c r="AI397" s="155"/>
+      <c r="AJ397" s="155"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F398" s="155"/>
@@ -20948,6 +21443,7 @@
       <c r="AG398" s="155"/>
       <c r="AH398" s="155"/>
       <c r="AI398" s="155"/>
+      <c r="AJ398" s="155"/>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F399" s="155"/>
@@ -20980,6 +21476,7 @@
       <c r="AG399" s="155"/>
       <c r="AH399" s="155"/>
       <c r="AI399" s="155"/>
+      <c r="AJ399" s="155"/>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F400" s="155"/>
@@ -21012,6 +21509,7 @@
       <c r="AG400" s="155"/>
       <c r="AH400" s="155"/>
       <c r="AI400" s="155"/>
+      <c r="AJ400" s="155"/>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F401" s="155"/>
@@ -21044,6 +21542,7 @@
       <c r="AG401" s="155"/>
       <c r="AH401" s="155"/>
       <c r="AI401" s="155"/>
+      <c r="AJ401" s="155"/>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F402" s="155"/>
@@ -21076,6 +21575,7 @@
       <c r="AG402" s="155"/>
       <c r="AH402" s="155"/>
       <c r="AI402" s="155"/>
+      <c r="AJ402" s="155"/>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F403" s="155"/>
@@ -21108,6 +21608,7 @@
       <c r="AG403" s="155"/>
       <c r="AH403" s="155"/>
       <c r="AI403" s="155"/>
+      <c r="AJ403" s="155"/>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F404" s="155"/>
@@ -21140,6 +21641,7 @@
       <c r="AG404" s="155"/>
       <c r="AH404" s="155"/>
       <c r="AI404" s="155"/>
+      <c r="AJ404" s="155"/>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F405" s="155"/>
@@ -21172,6 +21674,7 @@
       <c r="AG405" s="155"/>
       <c r="AH405" s="155"/>
       <c r="AI405" s="155"/>
+      <c r="AJ405" s="155"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F406" s="155"/>
@@ -21204,6 +21707,7 @@
       <c r="AG406" s="155"/>
       <c r="AH406" s="155"/>
       <c r="AI406" s="155"/>
+      <c r="AJ406" s="155"/>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F407" s="155"/>
@@ -21236,6 +21740,7 @@
       <c r="AG407" s="155"/>
       <c r="AH407" s="155"/>
       <c r="AI407" s="155"/>
+      <c r="AJ407" s="155"/>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F408" s="155"/>
@@ -21268,6 +21773,7 @@
       <c r="AG408" s="155"/>
       <c r="AH408" s="155"/>
       <c r="AI408" s="155"/>
+      <c r="AJ408" s="155"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F409" s="155"/>
@@ -21300,6 +21806,7 @@
       <c r="AG409" s="155"/>
       <c r="AH409" s="155"/>
       <c r="AI409" s="155"/>
+      <c r="AJ409" s="155"/>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F410" s="155"/>
@@ -21332,6 +21839,7 @@
       <c r="AG410" s="155"/>
       <c r="AH410" s="155"/>
       <c r="AI410" s="155"/>
+      <c r="AJ410" s="155"/>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F411" s="155"/>
@@ -21364,6 +21872,7 @@
       <c r="AG411" s="155"/>
       <c r="AH411" s="155"/>
       <c r="AI411" s="155"/>
+      <c r="AJ411" s="155"/>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F412" s="155"/>
@@ -21396,6 +21905,7 @@
       <c r="AG412" s="155"/>
       <c r="AH412" s="155"/>
       <c r="AI412" s="155"/>
+      <c r="AJ412" s="155"/>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F413" s="155"/>
@@ -21428,6 +21938,7 @@
       <c r="AG413" s="155"/>
       <c r="AH413" s="155"/>
       <c r="AI413" s="155"/>
+      <c r="AJ413" s="155"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F414" s="155"/>
@@ -21460,6 +21971,7 @@
       <c r="AG414" s="155"/>
       <c r="AH414" s="155"/>
       <c r="AI414" s="155"/>
+      <c r="AJ414" s="155"/>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F415" s="155"/>
@@ -21492,6 +22004,7 @@
       <c r="AG415" s="155"/>
       <c r="AH415" s="155"/>
       <c r="AI415" s="155"/>
+      <c r="AJ415" s="155"/>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F416" s="155"/>
@@ -21524,6 +22037,7 @@
       <c r="AG416" s="155"/>
       <c r="AH416" s="155"/>
       <c r="AI416" s="155"/>
+      <c r="AJ416" s="155"/>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F417" s="155"/>
@@ -21556,6 +22070,7 @@
       <c r="AG417" s="155"/>
       <c r="AH417" s="155"/>
       <c r="AI417" s="155"/>
+      <c r="AJ417" s="155"/>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F418" s="155"/>
@@ -21588,6 +22103,7 @@
       <c r="AG418" s="155"/>
       <c r="AH418" s="155"/>
       <c r="AI418" s="155"/>
+      <c r="AJ418" s="155"/>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F419" s="155"/>
@@ -21620,6 +22136,7 @@
       <c r="AG419" s="155"/>
       <c r="AH419" s="155"/>
       <c r="AI419" s="155"/>
+      <c r="AJ419" s="155"/>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F420" s="155"/>
@@ -21652,6 +22169,7 @@
       <c r="AG420" s="155"/>
       <c r="AH420" s="155"/>
       <c r="AI420" s="155"/>
+      <c r="AJ420" s="155"/>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F421" s="155"/>
@@ -21684,6 +22202,7 @@
       <c r="AG421" s="155"/>
       <c r="AH421" s="155"/>
       <c r="AI421" s="155"/>
+      <c r="AJ421" s="155"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F422" s="155"/>
@@ -21716,6 +22235,7 @@
       <c r="AG422" s="155"/>
       <c r="AH422" s="155"/>
       <c r="AI422" s="155"/>
+      <c r="AJ422" s="155"/>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F423" s="155"/>
@@ -21748,6 +22268,7 @@
       <c r="AG423" s="155"/>
       <c r="AH423" s="155"/>
       <c r="AI423" s="155"/>
+      <c r="AJ423" s="155"/>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F424" s="155"/>
@@ -21780,6 +22301,7 @@
       <c r="AG424" s="155"/>
       <c r="AH424" s="155"/>
       <c r="AI424" s="155"/>
+      <c r="AJ424" s="155"/>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F425" s="155"/>
@@ -21812,6 +22334,7 @@
       <c r="AG425" s="155"/>
       <c r="AH425" s="155"/>
       <c r="AI425" s="155"/>
+      <c r="AJ425" s="155"/>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F426" s="155"/>
@@ -21844,6 +22367,7 @@
       <c r="AG426" s="155"/>
       <c r="AH426" s="155"/>
       <c r="AI426" s="155"/>
+      <c r="AJ426" s="155"/>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F427" s="155"/>
@@ -21876,6 +22400,7 @@
       <c r="AG427" s="155"/>
       <c r="AH427" s="155"/>
       <c r="AI427" s="155"/>
+      <c r="AJ427" s="155"/>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F428" s="155"/>
@@ -21908,6 +22433,7 @@
       <c r="AG428" s="155"/>
       <c r="AH428" s="155"/>
       <c r="AI428" s="155"/>
+      <c r="AJ428" s="155"/>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F429" s="155"/>
@@ -21940,6 +22466,7 @@
       <c r="AG429" s="155"/>
       <c r="AH429" s="155"/>
       <c r="AI429" s="155"/>
+      <c r="AJ429" s="155"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F430" s="155"/>
@@ -21972,6 +22499,7 @@
       <c r="AG430" s="155"/>
       <c r="AH430" s="155"/>
       <c r="AI430" s="155"/>
+      <c r="AJ430" s="155"/>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F431" s="155"/>
@@ -22004,6 +22532,7 @@
       <c r="AG431" s="155"/>
       <c r="AH431" s="155"/>
       <c r="AI431" s="155"/>
+      <c r="AJ431" s="155"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F432" s="155"/>
@@ -22036,6 +22565,7 @@
       <c r="AG432" s="155"/>
       <c r="AH432" s="155"/>
       <c r="AI432" s="155"/>
+      <c r="AJ432" s="155"/>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F433" s="155"/>
@@ -22068,6 +22598,7 @@
       <c r="AG433" s="155"/>
       <c r="AH433" s="155"/>
       <c r="AI433" s="155"/>
+      <c r="AJ433" s="155"/>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F434" s="155"/>
@@ -22100,6 +22631,7 @@
       <c r="AG434" s="155"/>
       <c r="AH434" s="155"/>
       <c r="AI434" s="155"/>
+      <c r="AJ434" s="155"/>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F435" s="155"/>
@@ -22132,6 +22664,7 @@
       <c r="AG435" s="155"/>
       <c r="AH435" s="155"/>
       <c r="AI435" s="155"/>
+      <c r="AJ435" s="155"/>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F436" s="155"/>
@@ -22164,6 +22697,7 @@
       <c r="AG436" s="155"/>
       <c r="AH436" s="155"/>
       <c r="AI436" s="155"/>
+      <c r="AJ436" s="155"/>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F437" s="155"/>
@@ -22196,6 +22730,7 @@
       <c r="AG437" s="155"/>
       <c r="AH437" s="155"/>
       <c r="AI437" s="155"/>
+      <c r="AJ437" s="155"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F438" s="155"/>
@@ -22228,6 +22763,7 @@
       <c r="AG438" s="155"/>
       <c r="AH438" s="155"/>
       <c r="AI438" s="155"/>
+      <c r="AJ438" s="155"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F439" s="155"/>
@@ -22260,6 +22796,7 @@
       <c r="AG439" s="155"/>
       <c r="AH439" s="155"/>
       <c r="AI439" s="155"/>
+      <c r="AJ439" s="155"/>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F440" s="155"/>
@@ -22292,6 +22829,7 @@
       <c r="AG440" s="155"/>
       <c r="AH440" s="155"/>
       <c r="AI440" s="155"/>
+      <c r="AJ440" s="155"/>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F441" s="155"/>
@@ -22324,6 +22862,7 @@
       <c r="AG441" s="155"/>
       <c r="AH441" s="155"/>
       <c r="AI441" s="155"/>
+      <c r="AJ441" s="155"/>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F442" s="155"/>
@@ -22356,6 +22895,7 @@
       <c r="AG442" s="155"/>
       <c r="AH442" s="155"/>
       <c r="AI442" s="155"/>
+      <c r="AJ442" s="155"/>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F443" s="155"/>
@@ -22388,6 +22928,7 @@
       <c r="AG443" s="155"/>
       <c r="AH443" s="155"/>
       <c r="AI443" s="155"/>
+      <c r="AJ443" s="155"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F444" s="155"/>
@@ -22420,6 +22961,7 @@
       <c r="AG444" s="155"/>
       <c r="AH444" s="155"/>
       <c r="AI444" s="155"/>
+      <c r="AJ444" s="155"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F445" s="155"/>
@@ -22452,6 +22994,7 @@
       <c r="AG445" s="155"/>
       <c r="AH445" s="155"/>
       <c r="AI445" s="155"/>
+      <c r="AJ445" s="155"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F446" s="155"/>
@@ -22484,6 +23027,7 @@
       <c r="AG446" s="155"/>
       <c r="AH446" s="155"/>
       <c r="AI446" s="155"/>
+      <c r="AJ446" s="155"/>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F447" s="155"/>
@@ -22516,6 +23060,7 @@
       <c r="AG447" s="155"/>
       <c r="AH447" s="155"/>
       <c r="AI447" s="155"/>
+      <c r="AJ447" s="155"/>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F448" s="155"/>
@@ -22548,6 +23093,7 @@
       <c r="AG448" s="155"/>
       <c r="AH448" s="155"/>
       <c r="AI448" s="155"/>
+      <c r="AJ448" s="155"/>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F449" s="155"/>
@@ -22580,6 +23126,7 @@
       <c r="AG449" s="155"/>
       <c r="AH449" s="155"/>
       <c r="AI449" s="155"/>
+      <c r="AJ449" s="155"/>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F450" s="155"/>
@@ -22612,6 +23159,7 @@
       <c r="AG450" s="155"/>
       <c r="AH450" s="155"/>
       <c r="AI450" s="155"/>
+      <c r="AJ450" s="155"/>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F451" s="155"/>
@@ -22644,6 +23192,7 @@
       <c r="AG451" s="155"/>
       <c r="AH451" s="155"/>
       <c r="AI451" s="155"/>
+      <c r="AJ451" s="155"/>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F452" s="155"/>
@@ -22676,6 +23225,7 @@
       <c r="AG452" s="155"/>
       <c r="AH452" s="155"/>
       <c r="AI452" s="155"/>
+      <c r="AJ452" s="155"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F453" s="155"/>
@@ -22708,6 +23258,7 @@
       <c r="AG453" s="155"/>
       <c r="AH453" s="155"/>
       <c r="AI453" s="155"/>
+      <c r="AJ453" s="155"/>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F454" s="155"/>
@@ -22740,6 +23291,7 @@
       <c r="AG454" s="155"/>
       <c r="AH454" s="155"/>
       <c r="AI454" s="155"/>
+      <c r="AJ454" s="155"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F455" s="155"/>
@@ -22772,6 +23324,7 @@
       <c r="AG455" s="155"/>
       <c r="AH455" s="155"/>
       <c r="AI455" s="155"/>
+      <c r="AJ455" s="155"/>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F456" s="155"/>
@@ -22804,6 +23357,7 @@
       <c r="AG456" s="155"/>
       <c r="AH456" s="155"/>
       <c r="AI456" s="155"/>
+      <c r="AJ456" s="155"/>
     </row>
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F457" s="155"/>
@@ -22836,6 +23390,7 @@
       <c r="AG457" s="155"/>
       <c r="AH457" s="155"/>
       <c r="AI457" s="155"/>
+      <c r="AJ457" s="155"/>
     </row>
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F458" s="155"/>
@@ -22868,6 +23423,7 @@
       <c r="AG458" s="155"/>
       <c r="AH458" s="155"/>
       <c r="AI458" s="155"/>
+      <c r="AJ458" s="155"/>
     </row>
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F459" s="155"/>
@@ -22900,6 +23456,7 @@
       <c r="AG459" s="155"/>
       <c r="AH459" s="155"/>
       <c r="AI459" s="155"/>
+      <c r="AJ459" s="155"/>
     </row>
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F460" s="155"/>
@@ -22932,6 +23489,7 @@
       <c r="AG460" s="155"/>
       <c r="AH460" s="155"/>
       <c r="AI460" s="155"/>
+      <c r="AJ460" s="155"/>
     </row>
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F461" s="155"/>
@@ -22964,6 +23522,7 @@
       <c r="AG461" s="155"/>
       <c r="AH461" s="155"/>
       <c r="AI461" s="155"/>
+      <c r="AJ461" s="155"/>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F462" s="155"/>
@@ -22996,6 +23555,7 @@
       <c r="AG462" s="155"/>
       <c r="AH462" s="155"/>
       <c r="AI462" s="155"/>
+      <c r="AJ462" s="155"/>
     </row>
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F463" s="155"/>
@@ -23028,6 +23588,7 @@
       <c r="AG463" s="155"/>
       <c r="AH463" s="155"/>
       <c r="AI463" s="155"/>
+      <c r="AJ463" s="155"/>
     </row>
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F464" s="155"/>
@@ -23060,6 +23621,7 @@
       <c r="AG464" s="155"/>
       <c r="AH464" s="155"/>
       <c r="AI464" s="155"/>
+      <c r="AJ464" s="155"/>
     </row>
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F465" s="155"/>
@@ -23092,6 +23654,7 @@
       <c r="AG465" s="155"/>
       <c r="AH465" s="155"/>
       <c r="AI465" s="155"/>
+      <c r="AJ465" s="155"/>
     </row>
     <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F466" s="155"/>
@@ -23124,6 +23687,7 @@
       <c r="AG466" s="155"/>
       <c r="AH466" s="155"/>
       <c r="AI466" s="155"/>
+      <c r="AJ466" s="155"/>
     </row>
     <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F467" s="155"/>
@@ -23156,6 +23720,7 @@
       <c r="AG467" s="155"/>
       <c r="AH467" s="155"/>
       <c r="AI467" s="155"/>
+      <c r="AJ467" s="155"/>
     </row>
     <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F468" s="155"/>
@@ -23188,6 +23753,7 @@
       <c r="AG468" s="155"/>
       <c r="AH468" s="155"/>
       <c r="AI468" s="155"/>
+      <c r="AJ468" s="155"/>
     </row>
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F469" s="155"/>
@@ -23220,6 +23786,7 @@
       <c r="AG469" s="155"/>
       <c r="AH469" s="155"/>
       <c r="AI469" s="155"/>
+      <c r="AJ469" s="155"/>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F470" s="155"/>
@@ -23252,6 +23819,7 @@
       <c r="AG470" s="155"/>
       <c r="AH470" s="155"/>
       <c r="AI470" s="155"/>
+      <c r="AJ470" s="155"/>
     </row>
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F471" s="155"/>
@@ -23284,6 +23852,7 @@
       <c r="AG471" s="155"/>
       <c r="AH471" s="155"/>
       <c r="AI471" s="155"/>
+      <c r="AJ471" s="155"/>
     </row>
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F472" s="155"/>
@@ -23316,6 +23885,7 @@
       <c r="AG472" s="155"/>
       <c r="AH472" s="155"/>
       <c r="AI472" s="155"/>
+      <c r="AJ472" s="155"/>
     </row>
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F473" s="155"/>
@@ -23348,6 +23918,7 @@
       <c r="AG473" s="155"/>
       <c r="AH473" s="155"/>
       <c r="AI473" s="155"/>
+      <c r="AJ473" s="155"/>
     </row>
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F474" s="155"/>
@@ -23380,6 +23951,7 @@
       <c r="AG474" s="155"/>
       <c r="AH474" s="155"/>
       <c r="AI474" s="155"/>
+      <c r="AJ474" s="155"/>
     </row>
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F475" s="155"/>
@@ -23412,6 +23984,7 @@
       <c r="AG475" s="155"/>
       <c r="AH475" s="155"/>
       <c r="AI475" s="155"/>
+      <c r="AJ475" s="155"/>
     </row>
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F476" s="155"/>
@@ -23444,6 +24017,7 @@
       <c r="AG476" s="155"/>
       <c r="AH476" s="155"/>
       <c r="AI476" s="155"/>
+      <c r="AJ476" s="155"/>
     </row>
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F477" s="155"/>
@@ -23476,6 +24050,7 @@
       <c r="AG477" s="155"/>
       <c r="AH477" s="155"/>
       <c r="AI477" s="155"/>
+      <c r="AJ477" s="155"/>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F478" s="155"/>
@@ -23508,6 +24083,7 @@
       <c r="AG478" s="155"/>
       <c r="AH478" s="155"/>
       <c r="AI478" s="155"/>
+      <c r="AJ478" s="155"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F479" s="155"/>
@@ -23540,6 +24116,7 @@
       <c r="AG479" s="155"/>
       <c r="AH479" s="155"/>
       <c r="AI479" s="155"/>
+      <c r="AJ479" s="155"/>
     </row>
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F480" s="155"/>
@@ -23572,6 +24149,7 @@
       <c r="AG480" s="155"/>
       <c r="AH480" s="155"/>
       <c r="AI480" s="155"/>
+      <c r="AJ480" s="155"/>
     </row>
     <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F481" s="155"/>
@@ -23604,6 +24182,7 @@
       <c r="AG481" s="155"/>
       <c r="AH481" s="155"/>
       <c r="AI481" s="155"/>
+      <c r="AJ481" s="155"/>
     </row>
     <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F482" s="155"/>
@@ -23636,6 +24215,7 @@
       <c r="AG482" s="155"/>
       <c r="AH482" s="155"/>
       <c r="AI482" s="155"/>
+      <c r="AJ482" s="155"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F483" s="155"/>
@@ -23668,6 +24248,7 @@
       <c r="AG483" s="155"/>
       <c r="AH483" s="155"/>
       <c r="AI483" s="155"/>
+      <c r="AJ483" s="155"/>
     </row>
     <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F484" s="155"/>
@@ -23700,6 +24281,7 @@
       <c r="AG484" s="155"/>
       <c r="AH484" s="155"/>
       <c r="AI484" s="155"/>
+      <c r="AJ484" s="155"/>
     </row>
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F485" s="155"/>
@@ -23732,6 +24314,7 @@
       <c r="AG485" s="155"/>
       <c r="AH485" s="155"/>
       <c r="AI485" s="155"/>
+      <c r="AJ485" s="155"/>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F486" s="155"/>
@@ -23764,6 +24347,7 @@
       <c r="AG486" s="155"/>
       <c r="AH486" s="155"/>
       <c r="AI486" s="155"/>
+      <c r="AJ486" s="155"/>
     </row>
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F487" s="155"/>
@@ -23796,6 +24380,7 @@
       <c r="AG487" s="155"/>
       <c r="AH487" s="155"/>
       <c r="AI487" s="155"/>
+      <c r="AJ487" s="155"/>
     </row>
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F488" s="155"/>
@@ -23828,6 +24413,7 @@
       <c r="AG488" s="155"/>
       <c r="AH488" s="155"/>
       <c r="AI488" s="155"/>
+      <c r="AJ488" s="155"/>
     </row>
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F489" s="155"/>
@@ -23860,6 +24446,7 @@
       <c r="AG489" s="155"/>
       <c r="AH489" s="155"/>
       <c r="AI489" s="155"/>
+      <c r="AJ489" s="155"/>
     </row>
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F490" s="155"/>
@@ -23892,6 +24479,7 @@
       <c r="AG490" s="155"/>
       <c r="AH490" s="155"/>
       <c r="AI490" s="155"/>
+      <c r="AJ490" s="155"/>
     </row>
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F491" s="155"/>
@@ -23924,6 +24512,7 @@
       <c r="AG491" s="155"/>
       <c r="AH491" s="155"/>
       <c r="AI491" s="155"/>
+      <c r="AJ491" s="155"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F492" s="155"/>
@@ -23956,6 +24545,7 @@
       <c r="AG492" s="155"/>
       <c r="AH492" s="155"/>
       <c r="AI492" s="155"/>
+      <c r="AJ492" s="155"/>
     </row>
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F493" s="155"/>
@@ -23988,6 +24578,7 @@
       <c r="AG493" s="155"/>
       <c r="AH493" s="155"/>
       <c r="AI493" s="155"/>
+      <c r="AJ493" s="155"/>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F494" s="155"/>
@@ -24020,6 +24611,7 @@
       <c r="AG494" s="155"/>
       <c r="AH494" s="155"/>
       <c r="AI494" s="155"/>
+      <c r="AJ494" s="155"/>
     </row>
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F495" s="155"/>
@@ -24052,6 +24644,7 @@
       <c r="AG495" s="155"/>
       <c r="AH495" s="155"/>
       <c r="AI495" s="155"/>
+      <c r="AJ495" s="155"/>
     </row>
     <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F496" s="155"/>
@@ -24084,6 +24677,7 @@
       <c r="AG496" s="155"/>
       <c r="AH496" s="155"/>
       <c r="AI496" s="155"/>
+      <c r="AJ496" s="155"/>
     </row>
     <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F497" s="155"/>
@@ -24116,6 +24710,7 @@
       <c r="AG497" s="155"/>
       <c r="AH497" s="155"/>
       <c r="AI497" s="155"/>
+      <c r="AJ497" s="155"/>
     </row>
     <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F498" s="155"/>
@@ -24148,6 +24743,7 @@
       <c r="AG498" s="155"/>
       <c r="AH498" s="155"/>
       <c r="AI498" s="155"/>
+      <c r="AJ498" s="155"/>
     </row>
     <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F499" s="155"/>
@@ -24180,6 +24776,7 @@
       <c r="AG499" s="155"/>
       <c r="AH499" s="155"/>
       <c r="AI499" s="155"/>
+      <c r="AJ499" s="155"/>
     </row>
     <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F500" s="155"/>
@@ -24212,6 +24809,7 @@
       <c r="AG500" s="155"/>
       <c r="AH500" s="155"/>
       <c r="AI500" s="155"/>
+      <c r="AJ500" s="155"/>
     </row>
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F501" s="155"/>
@@ -24244,6 +24842,7 @@
       <c r="AG501" s="155"/>
       <c r="AH501" s="155"/>
       <c r="AI501" s="155"/>
+      <c r="AJ501" s="155"/>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F502" s="155"/>
@@ -24276,6 +24875,7 @@
       <c r="AG502" s="155"/>
       <c r="AH502" s="155"/>
       <c r="AI502" s="155"/>
+      <c r="AJ502" s="155"/>
     </row>
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F503" s="155"/>
@@ -24308,6 +24908,7 @@
       <c r="AG503" s="155"/>
       <c r="AH503" s="155"/>
       <c r="AI503" s="155"/>
+      <c r="AJ503" s="155"/>
     </row>
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F504" s="155"/>
@@ -24340,6 +24941,7 @@
       <c r="AG504" s="155"/>
       <c r="AH504" s="155"/>
       <c r="AI504" s="155"/>
+      <c r="AJ504" s="155"/>
     </row>
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F505" s="155"/>
@@ -24372,6 +24974,7 @@
       <c r="AG505" s="155"/>
       <c r="AH505" s="155"/>
       <c r="AI505" s="155"/>
+      <c r="AJ505" s="155"/>
     </row>
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F506" s="155"/>
@@ -24404,6 +25007,7 @@
       <c r="AG506" s="155"/>
       <c r="AH506" s="155"/>
       <c r="AI506" s="155"/>
+      <c r="AJ506" s="155"/>
     </row>
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F507" s="155"/>
@@ -24436,6 +25040,7 @@
       <c r="AG507" s="155"/>
       <c r="AH507" s="155"/>
       <c r="AI507" s="155"/>
+      <c r="AJ507" s="155"/>
     </row>
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F508" s="155"/>
@@ -24468,6 +25073,7 @@
       <c r="AG508" s="155"/>
       <c r="AH508" s="155"/>
       <c r="AI508" s="155"/>
+      <c r="AJ508" s="155"/>
     </row>
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F509" s="155"/>
@@ -24500,6 +25106,7 @@
       <c r="AG509" s="155"/>
       <c r="AH509" s="155"/>
       <c r="AI509" s="155"/>
+      <c r="AJ509" s="155"/>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F510" s="155"/>
@@ -24532,6 +25139,7 @@
       <c r="AG510" s="155"/>
       <c r="AH510" s="155"/>
       <c r="AI510" s="155"/>
+      <c r="AJ510" s="155"/>
     </row>
     <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F511" s="155"/>
@@ -24564,6 +25172,7 @@
       <c r="AG511" s="155"/>
       <c r="AH511" s="155"/>
       <c r="AI511" s="155"/>
+      <c r="AJ511" s="155"/>
     </row>
     <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F512" s="155"/>
@@ -24596,6 +25205,7 @@
       <c r="AG512" s="155"/>
       <c r="AH512" s="155"/>
       <c r="AI512" s="155"/>
+      <c r="AJ512" s="155"/>
     </row>
     <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F513" s="155"/>
@@ -24628,6 +25238,7 @@
       <c r="AG513" s="155"/>
       <c r="AH513" s="155"/>
       <c r="AI513" s="155"/>
+      <c r="AJ513" s="155"/>
     </row>
     <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F514" s="155"/>
@@ -24660,6 +25271,7 @@
       <c r="AG514" s="155"/>
       <c r="AH514" s="155"/>
       <c r="AI514" s="155"/>
+      <c r="AJ514" s="155"/>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F515" s="155"/>
@@ -24692,6 +25304,7 @@
       <c r="AG515" s="155"/>
       <c r="AH515" s="155"/>
       <c r="AI515" s="155"/>
+      <c r="AJ515" s="155"/>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F516" s="155"/>
@@ -24724,6 +25337,7 @@
       <c r="AG516" s="155"/>
       <c r="AH516" s="155"/>
       <c r="AI516" s="155"/>
+      <c r="AJ516" s="155"/>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F517" s="155"/>
@@ -24756,6 +25370,7 @@
       <c r="AG517" s="155"/>
       <c r="AH517" s="155"/>
       <c r="AI517" s="155"/>
+      <c r="AJ517" s="155"/>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F518" s="155"/>
@@ -24788,6 +25403,7 @@
       <c r="AG518" s="155"/>
       <c r="AH518" s="155"/>
       <c r="AI518" s="155"/>
+      <c r="AJ518" s="155"/>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F519" s="155"/>
@@ -24820,6 +25436,7 @@
       <c r="AG519" s="155"/>
       <c r="AH519" s="155"/>
       <c r="AI519" s="155"/>
+      <c r="AJ519" s="155"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F520" s="155"/>
@@ -24852,6 +25469,7 @@
       <c r="AG520" s="155"/>
       <c r="AH520" s="155"/>
       <c r="AI520" s="155"/>
+      <c r="AJ520" s="155"/>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F521" s="155"/>
@@ -24884,6 +25502,7 @@
       <c r="AG521" s="155"/>
       <c r="AH521" s="155"/>
       <c r="AI521" s="155"/>
+      <c r="AJ521" s="155"/>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F522" s="155"/>
@@ -24916,6 +25535,7 @@
       <c r="AG522" s="155"/>
       <c r="AH522" s="155"/>
       <c r="AI522" s="155"/>
+      <c r="AJ522" s="155"/>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F523" s="155"/>
@@ -24948,6 +25568,7 @@
       <c r="AG523" s="155"/>
       <c r="AH523" s="155"/>
       <c r="AI523" s="155"/>
+      <c r="AJ523" s="155"/>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F524" s="155"/>
@@ -24980,6 +25601,7 @@
       <c r="AG524" s="155"/>
       <c r="AH524" s="155"/>
       <c r="AI524" s="155"/>
+      <c r="AJ524" s="155"/>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F525" s="155"/>
@@ -25012,6 +25634,7 @@
       <c r="AG525" s="155"/>
       <c r="AH525" s="155"/>
       <c r="AI525" s="155"/>
+      <c r="AJ525" s="155"/>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F526" s="155"/>
@@ -25044,6 +25667,7 @@
       <c r="AG526" s="155"/>
       <c r="AH526" s="155"/>
       <c r="AI526" s="155"/>
+      <c r="AJ526" s="155"/>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F527" s="155"/>
@@ -25076,6 +25700,7 @@
       <c r="AG527" s="155"/>
       <c r="AH527" s="155"/>
       <c r="AI527" s="155"/>
+      <c r="AJ527" s="155"/>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F528" s="155"/>
@@ -25108,6 +25733,7 @@
       <c r="AG528" s="155"/>
       <c r="AH528" s="155"/>
       <c r="AI528" s="155"/>
+      <c r="AJ528" s="155"/>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F529" s="155"/>
@@ -25140,6 +25766,7 @@
       <c r="AG529" s="155"/>
       <c r="AH529" s="155"/>
       <c r="AI529" s="155"/>
+      <c r="AJ529" s="155"/>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F530" s="155"/>
@@ -25172,6 +25799,7 @@
       <c r="AG530" s="155"/>
       <c r="AH530" s="155"/>
       <c r="AI530" s="155"/>
+      <c r="AJ530" s="155"/>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F531" s="155"/>
@@ -25204,6 +25832,7 @@
       <c r="AG531" s="155"/>
       <c r="AH531" s="155"/>
       <c r="AI531" s="155"/>
+      <c r="AJ531" s="155"/>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F532" s="155"/>
@@ -25236,6 +25865,7 @@
       <c r="AG532" s="155"/>
       <c r="AH532" s="155"/>
       <c r="AI532" s="155"/>
+      <c r="AJ532" s="155"/>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F533" s="155"/>
@@ -25268,6 +25898,7 @@
       <c r="AG533" s="155"/>
       <c r="AH533" s="155"/>
       <c r="AI533" s="155"/>
+      <c r="AJ533" s="155"/>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F534" s="155"/>
@@ -25300,6 +25931,7 @@
       <c r="AG534" s="155"/>
       <c r="AH534" s="155"/>
       <c r="AI534" s="155"/>
+      <c r="AJ534" s="155"/>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F535" s="155"/>
@@ -25332,6 +25964,7 @@
       <c r="AG535" s="155"/>
       <c r="AH535" s="155"/>
       <c r="AI535" s="155"/>
+      <c r="AJ535" s="155"/>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F536" s="155"/>
@@ -25364,6 +25997,7 @@
       <c r="AG536" s="155"/>
       <c r="AH536" s="155"/>
       <c r="AI536" s="155"/>
+      <c r="AJ536" s="155"/>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F537" s="155"/>
@@ -25396,6 +26030,7 @@
       <c r="AG537" s="155"/>
       <c r="AH537" s="155"/>
       <c r="AI537" s="155"/>
+      <c r="AJ537" s="155"/>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F538" s="155"/>
@@ -25428,6 +26063,7 @@
       <c r="AG538" s="155"/>
       <c r="AH538" s="155"/>
       <c r="AI538" s="155"/>
+      <c r="AJ538" s="155"/>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F539" s="155"/>
@@ -25460,6 +26096,7 @@
       <c r="AG539" s="155"/>
       <c r="AH539" s="155"/>
       <c r="AI539" s="155"/>
+      <c r="AJ539" s="155"/>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F540" s="155"/>
@@ -25492,6 +26129,7 @@
       <c r="AG540" s="155"/>
       <c r="AH540" s="155"/>
       <c r="AI540" s="155"/>
+      <c r="AJ540" s="155"/>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F541" s="155"/>
@@ -25524,6 +26162,7 @@
       <c r="AG541" s="155"/>
       <c r="AH541" s="155"/>
       <c r="AI541" s="155"/>
+      <c r="AJ541" s="155"/>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F542" s="155"/>
@@ -25556,6 +26195,7 @@
       <c r="AG542" s="155"/>
       <c r="AH542" s="155"/>
       <c r="AI542" s="155"/>
+      <c r="AJ542" s="155"/>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F543" s="155"/>
@@ -25588,6 +26228,7 @@
       <c r="AG543" s="155"/>
       <c r="AH543" s="155"/>
       <c r="AI543" s="155"/>
+      <c r="AJ543" s="155"/>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F544" s="155"/>
@@ -25620,6 +26261,7 @@
       <c r="AG544" s="155"/>
       <c r="AH544" s="155"/>
       <c r="AI544" s="155"/>
+      <c r="AJ544" s="155"/>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F545" s="155"/>
@@ -25652,6 +26294,7 @@
       <c r="AG545" s="155"/>
       <c r="AH545" s="155"/>
       <c r="AI545" s="155"/>
+      <c r="AJ545" s="155"/>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F546" s="155"/>
@@ -25684,6 +26327,7 @@
       <c r="AG546" s="155"/>
       <c r="AH546" s="155"/>
       <c r="AI546" s="155"/>
+      <c r="AJ546" s="155"/>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F547" s="155"/>
@@ -25716,6 +26360,7 @@
       <c r="AG547" s="155"/>
       <c r="AH547" s="155"/>
       <c r="AI547" s="155"/>
+      <c r="AJ547" s="155"/>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F548" s="155"/>
@@ -25748,6 +26393,7 @@
       <c r="AG548" s="155"/>
       <c r="AH548" s="155"/>
       <c r="AI548" s="155"/>
+      <c r="AJ548" s="155"/>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F549" s="155"/>
@@ -25780,6 +26426,7 @@
       <c r="AG549" s="155"/>
       <c r="AH549" s="155"/>
       <c r="AI549" s="155"/>
+      <c r="AJ549" s="155"/>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F550" s="155"/>
@@ -25812,6 +26459,7 @@
       <c r="AG550" s="155"/>
       <c r="AH550" s="155"/>
       <c r="AI550" s="155"/>
+      <c r="AJ550" s="155"/>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F551" s="155"/>
@@ -25844,6 +26492,7 @@
       <c r="AG551" s="155"/>
       <c r="AH551" s="155"/>
       <c r="AI551" s="155"/>
+      <c r="AJ551" s="155"/>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F552" s="155"/>
@@ -25876,6 +26525,7 @@
       <c r="AG552" s="155"/>
       <c r="AH552" s="155"/>
       <c r="AI552" s="155"/>
+      <c r="AJ552" s="155"/>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F553" s="155"/>
@@ -25908,6 +26558,7 @@
       <c r="AG553" s="155"/>
       <c r="AH553" s="155"/>
       <c r="AI553" s="155"/>
+      <c r="AJ553" s="155"/>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F554" s="155"/>
@@ -25940,6 +26591,7 @@
       <c r="AG554" s="155"/>
       <c r="AH554" s="155"/>
       <c r="AI554" s="155"/>
+      <c r="AJ554" s="155"/>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F555" s="155"/>
@@ -25972,6 +26624,7 @@
       <c r="AG555" s="155"/>
       <c r="AH555" s="155"/>
       <c r="AI555" s="155"/>
+      <c r="AJ555" s="155"/>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F556" s="155"/>
@@ -26004,6 +26657,7 @@
       <c r="AG556" s="155"/>
       <c r="AH556" s="155"/>
       <c r="AI556" s="155"/>
+      <c r="AJ556" s="155"/>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F557" s="155"/>
@@ -26036,6 +26690,7 @@
       <c r="AG557" s="155"/>
       <c r="AH557" s="155"/>
       <c r="AI557" s="155"/>
+      <c r="AJ557" s="155"/>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F558" s="155"/>
@@ -26068,6 +26723,7 @@
       <c r="AG558" s="155"/>
       <c r="AH558" s="155"/>
       <c r="AI558" s="155"/>
+      <c r="AJ558" s="155"/>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F559" s="155"/>
@@ -26100,6 +26756,7 @@
       <c r="AG559" s="155"/>
       <c r="AH559" s="155"/>
       <c r="AI559" s="155"/>
+      <c r="AJ559" s="155"/>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F560" s="155"/>
@@ -26132,6 +26789,7 @@
       <c r="AG560" s="155"/>
       <c r="AH560" s="155"/>
       <c r="AI560" s="155"/>
+      <c r="AJ560" s="155"/>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F561" s="155"/>
@@ -26164,6 +26822,7 @@
       <c r="AG561" s="155"/>
       <c r="AH561" s="155"/>
       <c r="AI561" s="155"/>
+      <c r="AJ561" s="155"/>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F562" s="155"/>
@@ -26196,6 +26855,7 @@
       <c r="AG562" s="155"/>
       <c r="AH562" s="155"/>
       <c r="AI562" s="155"/>
+      <c r="AJ562" s="155"/>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F563" s="155"/>
@@ -26228,6 +26888,7 @@
       <c r="AG563" s="155"/>
       <c r="AH563" s="155"/>
       <c r="AI563" s="155"/>
+      <c r="AJ563" s="155"/>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F564" s="155"/>
@@ -26260,6 +26921,7 @@
       <c r="AG564" s="155"/>
       <c r="AH564" s="155"/>
       <c r="AI564" s="155"/>
+      <c r="AJ564" s="155"/>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F565" s="155"/>
@@ -26292,6 +26954,7 @@
       <c r="AG565" s="155"/>
       <c r="AH565" s="155"/>
       <c r="AI565" s="155"/>
+      <c r="AJ565" s="155"/>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F566" s="155"/>
@@ -26324,6 +26987,7 @@
       <c r="AG566" s="155"/>
       <c r="AH566" s="155"/>
       <c r="AI566" s="155"/>
+      <c r="AJ566" s="155"/>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F567" s="155"/>
@@ -26356,6 +27020,7 @@
       <c r="AG567" s="155"/>
       <c r="AH567" s="155"/>
       <c r="AI567" s="155"/>
+      <c r="AJ567" s="155"/>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F568" s="155"/>
@@ -26388,6 +27053,7 @@
       <c r="AG568" s="155"/>
       <c r="AH568" s="155"/>
       <c r="AI568" s="155"/>
+      <c r="AJ568" s="155"/>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F569" s="155"/>
@@ -26420,6 +27086,7 @@
       <c r="AG569" s="155"/>
       <c r="AH569" s="155"/>
       <c r="AI569" s="155"/>
+      <c r="AJ569" s="155"/>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F570" s="155"/>
@@ -26452,6 +27119,7 @@
       <c r="AG570" s="155"/>
       <c r="AH570" s="155"/>
       <c r="AI570" s="155"/>
+      <c r="AJ570" s="155"/>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F571" s="155"/>
@@ -26484,6 +27152,7 @@
       <c r="AG571" s="155"/>
       <c r="AH571" s="155"/>
       <c r="AI571" s="155"/>
+      <c r="AJ571" s="155"/>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F572" s="155"/>
@@ -26516,6 +27185,7 @@
       <c r="AG572" s="155"/>
       <c r="AH572" s="155"/>
       <c r="AI572" s="155"/>
+      <c r="AJ572" s="155"/>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F573" s="155"/>
@@ -26548,6 +27218,7 @@
       <c r="AG573" s="155"/>
       <c r="AH573" s="155"/>
       <c r="AI573" s="155"/>
+      <c r="AJ573" s="155"/>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F574" s="155"/>
@@ -26580,6 +27251,7 @@
       <c r="AG574" s="155"/>
       <c r="AH574" s="155"/>
       <c r="AI574" s="155"/>
+      <c r="AJ574" s="155"/>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F575" s="155"/>
@@ -26612,6 +27284,7 @@
       <c r="AG575" s="155"/>
       <c r="AH575" s="155"/>
       <c r="AI575" s="155"/>
+      <c r="AJ575" s="155"/>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F576" s="155"/>
@@ -26644,6 +27317,7 @@
       <c r="AG576" s="155"/>
       <c r="AH576" s="155"/>
       <c r="AI576" s="155"/>
+      <c r="AJ576" s="155"/>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F577" s="155"/>
@@ -26676,6 +27350,7 @@
       <c r="AG577" s="155"/>
       <c r="AH577" s="155"/>
       <c r="AI577" s="155"/>
+      <c r="AJ577" s="155"/>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F578" s="155"/>
@@ -26708,6 +27383,7 @@
       <c r="AG578" s="155"/>
       <c r="AH578" s="155"/>
       <c r="AI578" s="155"/>
+      <c r="AJ578" s="155"/>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F579" s="155"/>
@@ -26740,6 +27416,7 @@
       <c r="AG579" s="155"/>
       <c r="AH579" s="155"/>
       <c r="AI579" s="155"/>
+      <c r="AJ579" s="155"/>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F580" s="155"/>
@@ -26772,6 +27449,7 @@
       <c r="AG580" s="155"/>
       <c r="AH580" s="155"/>
       <c r="AI580" s="155"/>
+      <c r="AJ580" s="155"/>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F581" s="155"/>
@@ -26804,6 +27482,7 @@
       <c r="AG581" s="155"/>
       <c r="AH581" s="155"/>
       <c r="AI581" s="155"/>
+      <c r="AJ581" s="155"/>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F582" s="155"/>
@@ -26836,6 +27515,7 @@
       <c r="AG582" s="155"/>
       <c r="AH582" s="155"/>
       <c r="AI582" s="155"/>
+      <c r="AJ582" s="155"/>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F583" s="155"/>
@@ -26868,6 +27548,7 @@
       <c r="AG583" s="155"/>
       <c r="AH583" s="155"/>
       <c r="AI583" s="155"/>
+      <c r="AJ583" s="155"/>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F584" s="155"/>
@@ -26900,6 +27581,7 @@
       <c r="AG584" s="155"/>
       <c r="AH584" s="155"/>
       <c r="AI584" s="155"/>
+      <c r="AJ584" s="155"/>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F585" s="155"/>
@@ -26932,6 +27614,7 @@
       <c r="AG585" s="155"/>
       <c r="AH585" s="155"/>
       <c r="AI585" s="155"/>
+      <c r="AJ585" s="155"/>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F586" s="155"/>
@@ -26964,6 +27647,7 @@
       <c r="AG586" s="155"/>
       <c r="AH586" s="155"/>
       <c r="AI586" s="155"/>
+      <c r="AJ586" s="155"/>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F587" s="155"/>
@@ -26996,6 +27680,7 @@
       <c r="AG587" s="155"/>
       <c r="AH587" s="155"/>
       <c r="AI587" s="155"/>
+      <c r="AJ587" s="155"/>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F588" s="155"/>
@@ -27028,6 +27713,7 @@
       <c r="AG588" s="155"/>
       <c r="AH588" s="155"/>
       <c r="AI588" s="155"/>
+      <c r="AJ588" s="155"/>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F589" s="155"/>
@@ -27060,6 +27746,7 @@
       <c r="AG589" s="155"/>
       <c r="AH589" s="155"/>
       <c r="AI589" s="155"/>
+      <c r="AJ589" s="155"/>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F590" s="155"/>
@@ -27092,6 +27779,7 @@
       <c r="AG590" s="155"/>
       <c r="AH590" s="155"/>
       <c r="AI590" s="155"/>
+      <c r="AJ590" s="155"/>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F591" s="155"/>
@@ -27124,6 +27812,7 @@
       <c r="AG591" s="155"/>
       <c r="AH591" s="155"/>
       <c r="AI591" s="155"/>
+      <c r="AJ591" s="155"/>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F592" s="155"/>
@@ -27156,6 +27845,7 @@
       <c r="AG592" s="155"/>
       <c r="AH592" s="155"/>
       <c r="AI592" s="155"/>
+      <c r="AJ592" s="155"/>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F593" s="155"/>
@@ -27188,6 +27878,7 @@
       <c r="AG593" s="155"/>
       <c r="AH593" s="155"/>
       <c r="AI593" s="155"/>
+      <c r="AJ593" s="155"/>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F594" s="155"/>
@@ -27220,6 +27911,7 @@
       <c r="AG594" s="155"/>
       <c r="AH594" s="155"/>
       <c r="AI594" s="155"/>
+      <c r="AJ594" s="155"/>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F595" s="155"/>
@@ -27252,6 +27944,7 @@
       <c r="AG595" s="155"/>
       <c r="AH595" s="155"/>
       <c r="AI595" s="155"/>
+      <c r="AJ595" s="155"/>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F596" s="155"/>
@@ -27284,6 +27977,7 @@
       <c r="AG596" s="155"/>
       <c r="AH596" s="155"/>
       <c r="AI596" s="155"/>
+      <c r="AJ596" s="155"/>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F597" s="155"/>
@@ -27316,6 +28010,7 @@
       <c r="AG597" s="155"/>
       <c r="AH597" s="155"/>
       <c r="AI597" s="155"/>
+      <c r="AJ597" s="155"/>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F598" s="155"/>
@@ -27348,6 +28043,7 @@
       <c r="AG598" s="155"/>
       <c r="AH598" s="155"/>
       <c r="AI598" s="155"/>
+      <c r="AJ598" s="155"/>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F599" s="155"/>
@@ -27380,6 +28076,7 @@
       <c r="AG599" s="155"/>
       <c r="AH599" s="155"/>
       <c r="AI599" s="155"/>
+      <c r="AJ599" s="155"/>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F600" s="155"/>
@@ -27412,6 +28109,7 @@
       <c r="AG600" s="155"/>
       <c r="AH600" s="155"/>
       <c r="AI600" s="155"/>
+      <c r="AJ600" s="155"/>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F601" s="155"/>
@@ -27444,6 +28142,7 @@
       <c r="AG601" s="155"/>
       <c r="AH601" s="155"/>
       <c r="AI601" s="155"/>
+      <c r="AJ601" s="155"/>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F602" s="155"/>
@@ -27476,6 +28175,7 @@
       <c r="AG602" s="155"/>
       <c r="AH602" s="155"/>
       <c r="AI602" s="155"/>
+      <c r="AJ602" s="155"/>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F603" s="155"/>
@@ -27508,9 +28208,10 @@
       <c r="AG603" s="155"/>
       <c r="AH603" s="155"/>
       <c r="AI603" s="155"/>
+      <c r="AJ603" s="155"/>
     </row>
   </sheetData>
-  <mergeCells count="2623">
+  <mergeCells count="2697">
     <mergeCell ref="I2:AB2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:F4"/>
@@ -27522,293 +28223,292 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="AK10:AK11"/>
     <mergeCell ref="AL10:AL11"/>
     <mergeCell ref="AM10:AM11"/>
     <mergeCell ref="AN10:AN11"/>
     <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AP10:AP11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="AK12:AK13"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AM12:AM13"/>
     <mergeCell ref="AN12:AN13"/>
     <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="AK14:AK15"/>
     <mergeCell ref="AL14:AL15"/>
     <mergeCell ref="AM14:AM15"/>
     <mergeCell ref="AN14:AN15"/>
     <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="AK16:AK17"/>
     <mergeCell ref="AL16:AL17"/>
     <mergeCell ref="AM16:AM17"/>
     <mergeCell ref="AN16:AN17"/>
     <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AP16:AP17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="AK18:AK19"/>
     <mergeCell ref="AL18:AL19"/>
     <mergeCell ref="AM18:AM19"/>
     <mergeCell ref="AN18:AN19"/>
     <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AP18:AP19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="AK20:AK21"/>
     <mergeCell ref="AL20:AL21"/>
     <mergeCell ref="AM20:AM21"/>
     <mergeCell ref="AN20:AN21"/>
     <mergeCell ref="AO20:AO21"/>
+    <mergeCell ref="AP20:AP21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="AK22:AK23"/>
     <mergeCell ref="AL22:AL23"/>
     <mergeCell ref="AM22:AM23"/>
     <mergeCell ref="AN22:AN23"/>
     <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="AP22:AP23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="AK24:AK25"/>
     <mergeCell ref="AL24:AL25"/>
     <mergeCell ref="AM24:AM25"/>
     <mergeCell ref="AN24:AN25"/>
     <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="AP24:AP25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="AK26:AK27"/>
     <mergeCell ref="AL26:AL27"/>
     <mergeCell ref="AM26:AM27"/>
     <mergeCell ref="AN26:AN27"/>
     <mergeCell ref="AO26:AO27"/>
+    <mergeCell ref="AP26:AP27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="AK28:AK29"/>
     <mergeCell ref="AL28:AL29"/>
     <mergeCell ref="AM28:AM29"/>
     <mergeCell ref="AN28:AN29"/>
     <mergeCell ref="AO28:AO29"/>
+    <mergeCell ref="AP28:AP29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="AK30:AK31"/>
     <mergeCell ref="AL30:AL31"/>
     <mergeCell ref="AM30:AM31"/>
     <mergeCell ref="AN30:AN31"/>
     <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AP30:AP31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="AK32:AK33"/>
     <mergeCell ref="AL32:AL33"/>
     <mergeCell ref="AM32:AM33"/>
     <mergeCell ref="AN32:AN33"/>
     <mergeCell ref="AO32:AO33"/>
+    <mergeCell ref="AP32:AP33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="AK34:AK35"/>
     <mergeCell ref="AL34:AL35"/>
     <mergeCell ref="AM34:AM35"/>
     <mergeCell ref="AN34:AN35"/>
     <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AP34:AP35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="AK36:AK37"/>
     <mergeCell ref="AL36:AL37"/>
     <mergeCell ref="AM36:AM37"/>
     <mergeCell ref="AN36:AN37"/>
     <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="AP36:AP37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="AK38:AK39"/>
     <mergeCell ref="AL38:AL39"/>
     <mergeCell ref="AM38:AM39"/>
     <mergeCell ref="AN38:AN39"/>
     <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AP38:AP39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
-    <mergeCell ref="AK40:AK41"/>
     <mergeCell ref="AL40:AL41"/>
     <mergeCell ref="AM40:AM41"/>
     <mergeCell ref="AN40:AN41"/>
     <mergeCell ref="AO40:AO41"/>
+    <mergeCell ref="AP40:AP41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E42:E43"/>
-    <mergeCell ref="AK42:AK43"/>
     <mergeCell ref="AL42:AL43"/>
     <mergeCell ref="AM42:AM43"/>
     <mergeCell ref="AN42:AN43"/>
     <mergeCell ref="AO42:AO43"/>
+    <mergeCell ref="AP42:AP43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="E44:E45"/>
-    <mergeCell ref="AK44:AK45"/>
     <mergeCell ref="AL44:AL45"/>
     <mergeCell ref="AM44:AM45"/>
     <mergeCell ref="AN44:AN45"/>
+    <mergeCell ref="AO44:AO45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="AK46:AK47"/>
     <mergeCell ref="AL46:AL47"/>
     <mergeCell ref="AM46:AM47"/>
     <mergeCell ref="AN46:AN47"/>
+    <mergeCell ref="AO46:AO47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
-    <mergeCell ref="AK48:AK49"/>
     <mergeCell ref="AL48:AL49"/>
     <mergeCell ref="AM48:AM49"/>
     <mergeCell ref="AN48:AN49"/>
+    <mergeCell ref="AO48:AO49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
-    <mergeCell ref="AK50:AK51"/>
     <mergeCell ref="AL50:AL51"/>
     <mergeCell ref="AM50:AM51"/>
     <mergeCell ref="AN50:AN51"/>
+    <mergeCell ref="AO50:AO51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="E52:E53"/>
-    <mergeCell ref="AK52:AK53"/>
     <mergeCell ref="AL52:AL53"/>
     <mergeCell ref="AM52:AM53"/>
     <mergeCell ref="AN52:AN53"/>
+    <mergeCell ref="AO52:AO53"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:E55"/>
-    <mergeCell ref="AK54:AK55"/>
     <mergeCell ref="AL54:AL55"/>
     <mergeCell ref="AM54:AM55"/>
     <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AO54:AO55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="E56:E57"/>
-    <mergeCell ref="AK56:AK57"/>
     <mergeCell ref="AL56:AL57"/>
     <mergeCell ref="AM56:AM57"/>
     <mergeCell ref="AN56:AN57"/>
+    <mergeCell ref="AO56:AO57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
-    <mergeCell ref="AK58:AK59"/>
     <mergeCell ref="AL58:AL59"/>
     <mergeCell ref="AM58:AM59"/>
     <mergeCell ref="AN58:AN59"/>
+    <mergeCell ref="AO58:AO59"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:E61"/>
-    <mergeCell ref="AK60:AK61"/>
     <mergeCell ref="AL60:AL61"/>
     <mergeCell ref="AM60:AM61"/>
     <mergeCell ref="AN60:AN61"/>
+    <mergeCell ref="AO60:AO61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="E62:E63"/>
-    <mergeCell ref="AK62:AK63"/>
     <mergeCell ref="AL62:AL63"/>
     <mergeCell ref="AM62:AM63"/>
     <mergeCell ref="AN62:AN63"/>
+    <mergeCell ref="AO62:AO63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="E64:E65"/>
-    <mergeCell ref="AK64:AK65"/>
     <mergeCell ref="AL64:AL65"/>
     <mergeCell ref="AM64:AM65"/>
     <mergeCell ref="AN64:AN65"/>
+    <mergeCell ref="AO64:AO65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="E66:E67"/>
-    <mergeCell ref="AK66:AK67"/>
     <mergeCell ref="AL66:AL67"/>
     <mergeCell ref="AM66:AM67"/>
     <mergeCell ref="AN66:AN67"/>
+    <mergeCell ref="AO66:AO67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:E69"/>
-    <mergeCell ref="AK68:AK69"/>
     <mergeCell ref="AL68:AL69"/>
     <mergeCell ref="AM68:AM69"/>
     <mergeCell ref="AN68:AN69"/>
+    <mergeCell ref="AO68:AO69"/>
     <mergeCell ref="F100:F101"/>
     <mergeCell ref="G100:G101"/>
     <mergeCell ref="H100:H101"/>
@@ -27840,6 +28540,7 @@
     <mergeCell ref="AH100:AH101"/>
     <mergeCell ref="AI100:AI101"/>
     <mergeCell ref="AJ100:AJ101"/>
+    <mergeCell ref="AK100:AK101"/>
     <mergeCell ref="F102:F103"/>
     <mergeCell ref="G102:G103"/>
     <mergeCell ref="H102:H103"/>
@@ -27871,6 +28572,7 @@
     <mergeCell ref="AH102:AH103"/>
     <mergeCell ref="AI102:AI103"/>
     <mergeCell ref="AJ102:AJ103"/>
+    <mergeCell ref="AK102:AK103"/>
     <mergeCell ref="F104:F105"/>
     <mergeCell ref="G104:G105"/>
     <mergeCell ref="H104:H105"/>
@@ -27902,6 +28604,7 @@
     <mergeCell ref="AH104:AH105"/>
     <mergeCell ref="AI104:AI105"/>
     <mergeCell ref="AJ104:AJ105"/>
+    <mergeCell ref="AK104:AK105"/>
     <mergeCell ref="F106:F107"/>
     <mergeCell ref="G106:G107"/>
     <mergeCell ref="H106:H107"/>
@@ -27933,6 +28636,7 @@
     <mergeCell ref="AH106:AH107"/>
     <mergeCell ref="AI106:AI107"/>
     <mergeCell ref="AJ106:AJ107"/>
+    <mergeCell ref="AK106:AK107"/>
     <mergeCell ref="F108:F109"/>
     <mergeCell ref="G108:G109"/>
     <mergeCell ref="H108:H109"/>
@@ -27964,6 +28668,7 @@
     <mergeCell ref="AH108:AH109"/>
     <mergeCell ref="AI108:AI109"/>
     <mergeCell ref="AJ108:AJ109"/>
+    <mergeCell ref="AK108:AK109"/>
     <mergeCell ref="F110:F111"/>
     <mergeCell ref="G110:G111"/>
     <mergeCell ref="H110:H111"/>
@@ -27995,6 +28700,7 @@
     <mergeCell ref="AH110:AH111"/>
     <mergeCell ref="AI110:AI111"/>
     <mergeCell ref="AJ110:AJ111"/>
+    <mergeCell ref="AK110:AK111"/>
     <mergeCell ref="F112:F113"/>
     <mergeCell ref="G112:G113"/>
     <mergeCell ref="H112:H113"/>
@@ -28026,6 +28732,7 @@
     <mergeCell ref="AH112:AH113"/>
     <mergeCell ref="AI112:AI113"/>
     <mergeCell ref="AJ112:AJ113"/>
+    <mergeCell ref="AK112:AK113"/>
     <mergeCell ref="F114:F115"/>
     <mergeCell ref="G114:G115"/>
     <mergeCell ref="H114:H115"/>
@@ -28057,6 +28764,7 @@
     <mergeCell ref="AH114:AH115"/>
     <mergeCell ref="AI114:AI115"/>
     <mergeCell ref="AJ114:AJ115"/>
+    <mergeCell ref="AK114:AK115"/>
     <mergeCell ref="F116:F117"/>
     <mergeCell ref="G116:G117"/>
     <mergeCell ref="H116:H117"/>
@@ -28088,6 +28796,7 @@
     <mergeCell ref="AH116:AH117"/>
     <mergeCell ref="AI116:AI117"/>
     <mergeCell ref="AJ116:AJ117"/>
+    <mergeCell ref="AK116:AK117"/>
     <mergeCell ref="F118:F119"/>
     <mergeCell ref="G118:G119"/>
     <mergeCell ref="H118:H119"/>
@@ -28119,6 +28828,7 @@
     <mergeCell ref="AH118:AH119"/>
     <mergeCell ref="AI118:AI119"/>
     <mergeCell ref="AJ118:AJ119"/>
+    <mergeCell ref="AK118:AK119"/>
     <mergeCell ref="F120:F121"/>
     <mergeCell ref="G120:G121"/>
     <mergeCell ref="H120:H121"/>
@@ -28150,6 +28860,7 @@
     <mergeCell ref="AH120:AH121"/>
     <mergeCell ref="AI120:AI121"/>
     <mergeCell ref="AJ120:AJ121"/>
+    <mergeCell ref="AK120:AK121"/>
     <mergeCell ref="F122:F123"/>
     <mergeCell ref="G122:G123"/>
     <mergeCell ref="H122:H123"/>
@@ -28181,6 +28892,7 @@
     <mergeCell ref="AH122:AH123"/>
     <mergeCell ref="AI122:AI123"/>
     <mergeCell ref="AJ122:AJ123"/>
+    <mergeCell ref="AK122:AK123"/>
     <mergeCell ref="F124:F125"/>
     <mergeCell ref="G124:G125"/>
     <mergeCell ref="H124:H125"/>
@@ -28212,6 +28924,7 @@
     <mergeCell ref="AH124:AH125"/>
     <mergeCell ref="AI124:AI125"/>
     <mergeCell ref="AJ124:AJ125"/>
+    <mergeCell ref="AK124:AK125"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="G126:G127"/>
     <mergeCell ref="H126:H127"/>
@@ -28243,6 +28956,7 @@
     <mergeCell ref="AH126:AH127"/>
     <mergeCell ref="AI126:AI127"/>
     <mergeCell ref="AJ126:AJ127"/>
+    <mergeCell ref="AK126:AK127"/>
     <mergeCell ref="F128:F129"/>
     <mergeCell ref="G128:G129"/>
     <mergeCell ref="H128:H129"/>
@@ -28274,6 +28988,7 @@
     <mergeCell ref="AH128:AH129"/>
     <mergeCell ref="AI128:AI129"/>
     <mergeCell ref="AJ128:AJ129"/>
+    <mergeCell ref="AK128:AK129"/>
     <mergeCell ref="F130:F131"/>
     <mergeCell ref="G130:G131"/>
     <mergeCell ref="H130:H131"/>
@@ -28305,6 +29020,7 @@
     <mergeCell ref="AH130:AH131"/>
     <mergeCell ref="AI130:AI131"/>
     <mergeCell ref="AJ130:AJ131"/>
+    <mergeCell ref="AK130:AK131"/>
     <mergeCell ref="F132:F133"/>
     <mergeCell ref="G132:G133"/>
     <mergeCell ref="H132:H133"/>
@@ -28336,6 +29052,7 @@
     <mergeCell ref="AH132:AH133"/>
     <mergeCell ref="AI132:AI133"/>
     <mergeCell ref="AJ132:AJ133"/>
+    <mergeCell ref="AK132:AK133"/>
     <mergeCell ref="F134:F135"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="H134:H135"/>
@@ -28367,6 +29084,7 @@
     <mergeCell ref="AH134:AH135"/>
     <mergeCell ref="AI134:AI135"/>
     <mergeCell ref="AJ134:AJ135"/>
+    <mergeCell ref="AK134:AK135"/>
     <mergeCell ref="F136:F137"/>
     <mergeCell ref="G136:G137"/>
     <mergeCell ref="H136:H137"/>
@@ -28398,6 +29116,7 @@
     <mergeCell ref="AH136:AH137"/>
     <mergeCell ref="AI136:AI137"/>
     <mergeCell ref="AJ136:AJ137"/>
+    <mergeCell ref="AK136:AK137"/>
     <mergeCell ref="F138:F139"/>
     <mergeCell ref="G138:G139"/>
     <mergeCell ref="H138:H139"/>
@@ -28429,6 +29148,7 @@
     <mergeCell ref="AH138:AH139"/>
     <mergeCell ref="AI138:AI139"/>
     <mergeCell ref="AJ138:AJ139"/>
+    <mergeCell ref="AK138:AK139"/>
     <mergeCell ref="F140:F141"/>
     <mergeCell ref="G140:G141"/>
     <mergeCell ref="H140:H141"/>
@@ -28460,6 +29180,7 @@
     <mergeCell ref="AH140:AH141"/>
     <mergeCell ref="AI140:AI141"/>
     <mergeCell ref="AJ140:AJ141"/>
+    <mergeCell ref="AK140:AK141"/>
     <mergeCell ref="F142:F143"/>
     <mergeCell ref="G142:G143"/>
     <mergeCell ref="H142:H143"/>
@@ -28491,6 +29212,7 @@
     <mergeCell ref="AH142:AH143"/>
     <mergeCell ref="AI142:AI143"/>
     <mergeCell ref="AJ142:AJ143"/>
+    <mergeCell ref="AK142:AK143"/>
     <mergeCell ref="F144:F145"/>
     <mergeCell ref="G144:G145"/>
     <mergeCell ref="H144:H145"/>
@@ -28522,6 +29244,7 @@
     <mergeCell ref="AH144:AH145"/>
     <mergeCell ref="AI144:AI145"/>
     <mergeCell ref="AJ144:AJ145"/>
+    <mergeCell ref="AK144:AK145"/>
     <mergeCell ref="F146:F147"/>
     <mergeCell ref="G146:G147"/>
     <mergeCell ref="H146:H147"/>
@@ -28553,6 +29276,7 @@
     <mergeCell ref="AH146:AH147"/>
     <mergeCell ref="AI146:AI147"/>
     <mergeCell ref="AJ146:AJ147"/>
+    <mergeCell ref="AK146:AK147"/>
     <mergeCell ref="F148:F149"/>
     <mergeCell ref="G148:G149"/>
     <mergeCell ref="H148:H149"/>
@@ -28584,6 +29308,7 @@
     <mergeCell ref="AH148:AH149"/>
     <mergeCell ref="AI148:AI149"/>
     <mergeCell ref="AJ148:AJ149"/>
+    <mergeCell ref="AK148:AK149"/>
     <mergeCell ref="F150:F151"/>
     <mergeCell ref="G150:G151"/>
     <mergeCell ref="H150:H151"/>
@@ -28615,6 +29340,7 @@
     <mergeCell ref="AH150:AH151"/>
     <mergeCell ref="AI150:AI151"/>
     <mergeCell ref="AJ150:AJ151"/>
+    <mergeCell ref="AK150:AK151"/>
     <mergeCell ref="F152:F153"/>
     <mergeCell ref="G152:G153"/>
     <mergeCell ref="H152:H153"/>
@@ -28646,6 +29372,7 @@
     <mergeCell ref="AH152:AH153"/>
     <mergeCell ref="AI152:AI153"/>
     <mergeCell ref="AJ152:AJ153"/>
+    <mergeCell ref="AK152:AK153"/>
     <mergeCell ref="F154:F155"/>
     <mergeCell ref="G154:G155"/>
     <mergeCell ref="H154:H155"/>
@@ -28677,6 +29404,7 @@
     <mergeCell ref="AH154:AH155"/>
     <mergeCell ref="AI154:AI155"/>
     <mergeCell ref="AJ154:AJ155"/>
+    <mergeCell ref="AK154:AK155"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="G156:G157"/>
     <mergeCell ref="H156:H157"/>
@@ -28708,6 +29436,7 @@
     <mergeCell ref="AH156:AH157"/>
     <mergeCell ref="AI156:AI157"/>
     <mergeCell ref="AJ156:AJ157"/>
+    <mergeCell ref="AK156:AK157"/>
     <mergeCell ref="F158:F159"/>
     <mergeCell ref="G158:G159"/>
     <mergeCell ref="H158:H159"/>
@@ -28739,6 +29468,7 @@
     <mergeCell ref="AH158:AH159"/>
     <mergeCell ref="AI158:AI159"/>
     <mergeCell ref="AJ158:AJ159"/>
+    <mergeCell ref="AK158:AK159"/>
     <mergeCell ref="F160:F161"/>
     <mergeCell ref="G160:G161"/>
     <mergeCell ref="H160:H161"/>
@@ -28770,6 +29500,7 @@
     <mergeCell ref="AH160:AH161"/>
     <mergeCell ref="AI160:AI161"/>
     <mergeCell ref="AJ160:AJ161"/>
+    <mergeCell ref="AK160:AK161"/>
     <mergeCell ref="F162:F163"/>
     <mergeCell ref="G162:G163"/>
     <mergeCell ref="H162:H163"/>
@@ -28801,6 +29532,7 @@
     <mergeCell ref="AH162:AH163"/>
     <mergeCell ref="AI162:AI163"/>
     <mergeCell ref="AJ162:AJ163"/>
+    <mergeCell ref="AK162:AK163"/>
     <mergeCell ref="F164:F165"/>
     <mergeCell ref="G164:G165"/>
     <mergeCell ref="H164:H165"/>
@@ -28832,6 +29564,7 @@
     <mergeCell ref="AH164:AH165"/>
     <mergeCell ref="AI164:AI165"/>
     <mergeCell ref="AJ164:AJ165"/>
+    <mergeCell ref="AK164:AK165"/>
     <mergeCell ref="F166:F167"/>
     <mergeCell ref="G166:G167"/>
     <mergeCell ref="H166:H167"/>
@@ -28863,6 +29596,7 @@
     <mergeCell ref="AH166:AH167"/>
     <mergeCell ref="AI166:AI167"/>
     <mergeCell ref="AJ166:AJ167"/>
+    <mergeCell ref="AK166:AK167"/>
     <mergeCell ref="F168:F169"/>
     <mergeCell ref="G168:G169"/>
     <mergeCell ref="H168:H169"/>
@@ -28894,6 +29628,7 @@
     <mergeCell ref="AH168:AH169"/>
     <mergeCell ref="AI168:AI169"/>
     <mergeCell ref="AJ168:AJ169"/>
+    <mergeCell ref="AK168:AK169"/>
     <mergeCell ref="F170:F171"/>
     <mergeCell ref="G170:G171"/>
     <mergeCell ref="H170:H171"/>
@@ -28925,6 +29660,7 @@
     <mergeCell ref="AH170:AH171"/>
     <mergeCell ref="AI170:AI171"/>
     <mergeCell ref="AJ170:AJ171"/>
+    <mergeCell ref="AK170:AK171"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
     <mergeCell ref="H172:H173"/>
@@ -28956,6 +29692,7 @@
     <mergeCell ref="AH172:AH173"/>
     <mergeCell ref="AI172:AI173"/>
     <mergeCell ref="AJ172:AJ173"/>
+    <mergeCell ref="AK172:AK173"/>
     <mergeCell ref="F174:F175"/>
     <mergeCell ref="G174:G175"/>
     <mergeCell ref="H174:H175"/>
@@ -28987,6 +29724,7 @@
     <mergeCell ref="AH174:AH175"/>
     <mergeCell ref="AI174:AI175"/>
     <mergeCell ref="AJ174:AJ175"/>
+    <mergeCell ref="AK174:AK175"/>
     <mergeCell ref="F176:F177"/>
     <mergeCell ref="G176:G177"/>
     <mergeCell ref="H176:H177"/>
@@ -29018,6 +29756,7 @@
     <mergeCell ref="AH176:AH177"/>
     <mergeCell ref="AI176:AI177"/>
     <mergeCell ref="AJ176:AJ177"/>
+    <mergeCell ref="AK176:AK177"/>
     <mergeCell ref="F178:F179"/>
     <mergeCell ref="G178:G179"/>
     <mergeCell ref="H178:H179"/>
@@ -29049,6 +29788,7 @@
     <mergeCell ref="AH178:AH179"/>
     <mergeCell ref="AI178:AI179"/>
     <mergeCell ref="AJ178:AJ179"/>
+    <mergeCell ref="AK178:AK179"/>
     <mergeCell ref="F180:F181"/>
     <mergeCell ref="G180:G181"/>
     <mergeCell ref="H180:H181"/>
@@ -29080,6 +29820,7 @@
     <mergeCell ref="AH180:AH181"/>
     <mergeCell ref="AI180:AI181"/>
     <mergeCell ref="AJ180:AJ181"/>
+    <mergeCell ref="AK180:AK181"/>
     <mergeCell ref="F182:F183"/>
     <mergeCell ref="G182:G183"/>
     <mergeCell ref="H182:H183"/>
@@ -29111,6 +29852,7 @@
     <mergeCell ref="AH182:AH183"/>
     <mergeCell ref="AI182:AI183"/>
     <mergeCell ref="AJ182:AJ183"/>
+    <mergeCell ref="AK182:AK183"/>
     <mergeCell ref="F184:F185"/>
     <mergeCell ref="G184:G185"/>
     <mergeCell ref="H184:H185"/>
@@ -29142,6 +29884,7 @@
     <mergeCell ref="AH184:AH185"/>
     <mergeCell ref="AI184:AI185"/>
     <mergeCell ref="AJ184:AJ185"/>
+    <mergeCell ref="AK184:AK185"/>
     <mergeCell ref="F186:F187"/>
     <mergeCell ref="G186:G187"/>
     <mergeCell ref="H186:H187"/>
@@ -29173,6 +29916,7 @@
     <mergeCell ref="AH186:AH187"/>
     <mergeCell ref="AI186:AI187"/>
     <mergeCell ref="AJ186:AJ187"/>
+    <mergeCell ref="AK186:AK187"/>
     <mergeCell ref="F188:F189"/>
     <mergeCell ref="G188:G189"/>
     <mergeCell ref="H188:H189"/>
@@ -29204,6 +29948,7 @@
     <mergeCell ref="AH188:AH189"/>
     <mergeCell ref="AI188:AI189"/>
     <mergeCell ref="AJ188:AJ189"/>
+    <mergeCell ref="AK188:AK189"/>
     <mergeCell ref="F190:F191"/>
     <mergeCell ref="G190:G191"/>
     <mergeCell ref="H190:H191"/>
@@ -29235,6 +29980,7 @@
     <mergeCell ref="AH190:AH191"/>
     <mergeCell ref="AI190:AI191"/>
     <mergeCell ref="AJ190:AJ191"/>
+    <mergeCell ref="AK190:AK191"/>
     <mergeCell ref="F192:F193"/>
     <mergeCell ref="G192:G193"/>
     <mergeCell ref="H192:H193"/>
@@ -29266,6 +30012,7 @@
     <mergeCell ref="AH192:AH193"/>
     <mergeCell ref="AI192:AI193"/>
     <mergeCell ref="AJ192:AJ193"/>
+    <mergeCell ref="AK192:AK193"/>
     <mergeCell ref="F194:F195"/>
     <mergeCell ref="G194:G195"/>
     <mergeCell ref="H194:H195"/>
@@ -29297,6 +30044,7 @@
     <mergeCell ref="AH194:AH195"/>
     <mergeCell ref="AI194:AI195"/>
     <mergeCell ref="AJ194:AJ195"/>
+    <mergeCell ref="AK194:AK195"/>
     <mergeCell ref="F196:F197"/>
     <mergeCell ref="G196:G197"/>
     <mergeCell ref="H196:H197"/>
@@ -29328,6 +30076,7 @@
     <mergeCell ref="AH196:AH197"/>
     <mergeCell ref="AI196:AI197"/>
     <mergeCell ref="AJ196:AJ197"/>
+    <mergeCell ref="AK196:AK197"/>
     <mergeCell ref="F198:F199"/>
     <mergeCell ref="G198:G199"/>
     <mergeCell ref="H198:H199"/>
@@ -29359,6 +30108,7 @@
     <mergeCell ref="AH198:AH199"/>
     <mergeCell ref="AI198:AI199"/>
     <mergeCell ref="AJ198:AJ199"/>
+    <mergeCell ref="AK198:AK199"/>
     <mergeCell ref="F200:F201"/>
     <mergeCell ref="G200:G201"/>
     <mergeCell ref="H200:H201"/>
@@ -29390,6 +30140,7 @@
     <mergeCell ref="AH200:AH201"/>
     <mergeCell ref="AI200:AI201"/>
     <mergeCell ref="AJ200:AJ201"/>
+    <mergeCell ref="AK200:AK201"/>
     <mergeCell ref="F202:F203"/>
     <mergeCell ref="G202:G203"/>
     <mergeCell ref="H202:H203"/>
@@ -29421,6 +30172,7 @@
     <mergeCell ref="AH202:AH203"/>
     <mergeCell ref="AI202:AI203"/>
     <mergeCell ref="AJ202:AJ203"/>
+    <mergeCell ref="AK202:AK203"/>
     <mergeCell ref="F204:F205"/>
     <mergeCell ref="G204:G205"/>
     <mergeCell ref="H204:H205"/>
@@ -29452,6 +30204,7 @@
     <mergeCell ref="AH204:AH205"/>
     <mergeCell ref="AI204:AI205"/>
     <mergeCell ref="AJ204:AJ205"/>
+    <mergeCell ref="AK204:AK205"/>
     <mergeCell ref="F206:F207"/>
     <mergeCell ref="G206:G207"/>
     <mergeCell ref="H206:H207"/>
@@ -29483,6 +30236,7 @@
     <mergeCell ref="AH206:AH207"/>
     <mergeCell ref="AI206:AI207"/>
     <mergeCell ref="AJ206:AJ207"/>
+    <mergeCell ref="AK206:AK207"/>
     <mergeCell ref="F208:F209"/>
     <mergeCell ref="G208:G209"/>
     <mergeCell ref="H208:H209"/>
@@ -29514,6 +30268,7 @@
     <mergeCell ref="AH208:AH209"/>
     <mergeCell ref="AI208:AI209"/>
     <mergeCell ref="AJ208:AJ209"/>
+    <mergeCell ref="AK208:AK209"/>
     <mergeCell ref="F210:F211"/>
     <mergeCell ref="G210:G211"/>
     <mergeCell ref="H210:H211"/>
@@ -29545,6 +30300,7 @@
     <mergeCell ref="AH210:AH211"/>
     <mergeCell ref="AI210:AI211"/>
     <mergeCell ref="AJ210:AJ211"/>
+    <mergeCell ref="AK210:AK211"/>
     <mergeCell ref="F212:F213"/>
     <mergeCell ref="G212:G213"/>
     <mergeCell ref="H212:H213"/>
@@ -29576,6 +30332,7 @@
     <mergeCell ref="AH212:AH213"/>
     <mergeCell ref="AI212:AI213"/>
     <mergeCell ref="AJ212:AJ213"/>
+    <mergeCell ref="AK212:AK213"/>
     <mergeCell ref="F214:F215"/>
     <mergeCell ref="G214:G215"/>
     <mergeCell ref="H214:H215"/>
@@ -29607,6 +30364,7 @@
     <mergeCell ref="AH214:AH215"/>
     <mergeCell ref="AI214:AI215"/>
     <mergeCell ref="AJ214:AJ215"/>
+    <mergeCell ref="AK214:AK215"/>
     <mergeCell ref="F216:F217"/>
     <mergeCell ref="G216:G217"/>
     <mergeCell ref="H216:H217"/>
@@ -29638,6 +30396,7 @@
     <mergeCell ref="AH216:AH217"/>
     <mergeCell ref="AI216:AI217"/>
     <mergeCell ref="AJ216:AJ217"/>
+    <mergeCell ref="AK216:AK217"/>
     <mergeCell ref="F218:F219"/>
     <mergeCell ref="G218:G219"/>
     <mergeCell ref="H218:H219"/>
@@ -29669,6 +30428,7 @@
     <mergeCell ref="AH218:AH219"/>
     <mergeCell ref="AI218:AI219"/>
     <mergeCell ref="AJ218:AJ219"/>
+    <mergeCell ref="AK218:AK219"/>
     <mergeCell ref="F220:F221"/>
     <mergeCell ref="G220:G221"/>
     <mergeCell ref="H220:H221"/>
@@ -29700,6 +30460,7 @@
     <mergeCell ref="AH220:AH221"/>
     <mergeCell ref="AI220:AI221"/>
     <mergeCell ref="AJ220:AJ221"/>
+    <mergeCell ref="AK220:AK221"/>
     <mergeCell ref="F222:F223"/>
     <mergeCell ref="G222:G223"/>
     <mergeCell ref="H222:H223"/>
@@ -29731,6 +30492,7 @@
     <mergeCell ref="AH222:AH223"/>
     <mergeCell ref="AI222:AI223"/>
     <mergeCell ref="AJ222:AJ223"/>
+    <mergeCell ref="AK222:AK223"/>
     <mergeCell ref="F224:F225"/>
     <mergeCell ref="G224:G225"/>
     <mergeCell ref="H224:H225"/>
@@ -29762,6 +30524,7 @@
     <mergeCell ref="AH224:AH225"/>
     <mergeCell ref="AI224:AI225"/>
     <mergeCell ref="AJ224:AJ225"/>
+    <mergeCell ref="AK224:AK225"/>
     <mergeCell ref="F226:F227"/>
     <mergeCell ref="G226:G227"/>
     <mergeCell ref="H226:H227"/>
@@ -29793,6 +30556,7 @@
     <mergeCell ref="AH226:AH227"/>
     <mergeCell ref="AI226:AI227"/>
     <mergeCell ref="AJ226:AJ227"/>
+    <mergeCell ref="AK226:AK227"/>
     <mergeCell ref="F228:F229"/>
     <mergeCell ref="G228:G229"/>
     <mergeCell ref="H228:H229"/>
@@ -29824,6 +30588,7 @@
     <mergeCell ref="AH228:AH229"/>
     <mergeCell ref="AI228:AI229"/>
     <mergeCell ref="AJ228:AJ229"/>
+    <mergeCell ref="AK228:AK229"/>
     <mergeCell ref="F230:F231"/>
     <mergeCell ref="G230:G231"/>
     <mergeCell ref="H230:H231"/>
@@ -29855,6 +30620,7 @@
     <mergeCell ref="AH230:AH231"/>
     <mergeCell ref="AI230:AI231"/>
     <mergeCell ref="AJ230:AJ231"/>
+    <mergeCell ref="AK230:AK231"/>
     <mergeCell ref="F232:F233"/>
     <mergeCell ref="G232:G233"/>
     <mergeCell ref="H232:H233"/>
@@ -29886,6 +30652,7 @@
     <mergeCell ref="AH232:AH233"/>
     <mergeCell ref="AI232:AI233"/>
     <mergeCell ref="AJ232:AJ233"/>
+    <mergeCell ref="AK232:AK233"/>
     <mergeCell ref="F234:F235"/>
     <mergeCell ref="G234:G235"/>
     <mergeCell ref="H234:H235"/>
@@ -29917,6 +30684,7 @@
     <mergeCell ref="AH234:AH235"/>
     <mergeCell ref="AI234:AI235"/>
     <mergeCell ref="AJ234:AJ235"/>
+    <mergeCell ref="AK234:AK235"/>
     <mergeCell ref="F236:F237"/>
     <mergeCell ref="G236:G237"/>
     <mergeCell ref="H236:H237"/>
@@ -29948,6 +30716,7 @@
     <mergeCell ref="AH236:AH237"/>
     <mergeCell ref="AI236:AI237"/>
     <mergeCell ref="AJ236:AJ237"/>
+    <mergeCell ref="AK236:AK237"/>
     <mergeCell ref="F238:F239"/>
     <mergeCell ref="G238:G239"/>
     <mergeCell ref="H238:H239"/>
@@ -29979,6 +30748,7 @@
     <mergeCell ref="AH238:AH239"/>
     <mergeCell ref="AI238:AI239"/>
     <mergeCell ref="AJ238:AJ239"/>
+    <mergeCell ref="AK238:AK239"/>
     <mergeCell ref="F240:F241"/>
     <mergeCell ref="G240:G241"/>
     <mergeCell ref="H240:H241"/>
@@ -30010,6 +30780,7 @@
     <mergeCell ref="AH240:AH241"/>
     <mergeCell ref="AI240:AI241"/>
     <mergeCell ref="AJ240:AJ241"/>
+    <mergeCell ref="AK240:AK241"/>
     <mergeCell ref="F242:F243"/>
     <mergeCell ref="G242:G243"/>
     <mergeCell ref="H242:H243"/>
@@ -30041,6 +30812,7 @@
     <mergeCell ref="AH242:AH243"/>
     <mergeCell ref="AI242:AI243"/>
     <mergeCell ref="AJ242:AJ243"/>
+    <mergeCell ref="AK242:AK243"/>
     <mergeCell ref="F244:F245"/>
     <mergeCell ref="G244:G245"/>
     <mergeCell ref="H244:H245"/>
@@ -30072,6 +30844,7 @@
     <mergeCell ref="AH244:AH245"/>
     <mergeCell ref="AI244:AI245"/>
     <mergeCell ref="AJ244:AJ245"/>
+    <mergeCell ref="AK244:AK245"/>
     <mergeCell ref="F246:F247"/>
     <mergeCell ref="G246:G247"/>
     <mergeCell ref="H246:H247"/>
@@ -30103,6 +30876,7 @@
     <mergeCell ref="AH246:AH247"/>
     <mergeCell ref="AI246:AI247"/>
     <mergeCell ref="AJ246:AJ247"/>
+    <mergeCell ref="AK246:AK247"/>
     <mergeCell ref="F248:F249"/>
     <mergeCell ref="G248:G249"/>
     <mergeCell ref="H248:H249"/>
@@ -30134,6 +30908,7 @@
     <mergeCell ref="AH248:AH249"/>
     <mergeCell ref="AI248:AI249"/>
     <mergeCell ref="AJ248:AJ249"/>
+    <mergeCell ref="AK248:AK249"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.2" right="0.2" top="0.309722222222222" bottom="0.240277777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -30156,7 +30931,7 @@
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -30179,7 +30954,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -30202,7 +30977,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -30225,16 +31000,16 @@
       <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="156" width="3.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="156" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="157" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="157" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="157" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="157" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="7" style="0" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="158" width="3.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="158" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="158" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="158" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="158" width="3.5"/>
@@ -40926,7 +41701,7 @@
       <c r="B123" s="351"/>
       <c r="C123" s="367" t="n">
         <f aca="true">NOW()</f>
-        <v>45444.8366870813</v>
+        <v>45444.9023920582</v>
       </c>
       <c r="D123" s="367"/>
       <c r="E123" s="351"/>
@@ -41541,7 +42316,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="2" style="0" width="5.01"/>
@@ -41760,11 +42535,11 @@
         <v/>
       </c>
       <c r="AD2" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI9&lt;&gt;"",IF('Darbo grafikas'!AI10&lt;&gt;"",IF('Darbo grafikas'!AI9='Darbo grafikas'!AI10,"",IF('Darbo grafikas'!AI9&lt;'Darbo grafikas'!AI10,('Darbo grafikas'!AI10-'Darbo grafikas'!AI9)*24,('Darbo grafikas'!AI10-'Darbo grafikas'!AI9+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ9&lt;&gt;"",IF('Darbo grafikas'!AJ10&lt;&gt;"",IF('Darbo grafikas'!AJ9='Darbo grafikas'!AJ10,"",IF('Darbo grafikas'!AJ9&lt;'Darbo grafikas'!AJ10,('Darbo grafikas'!AJ10-'Darbo grafikas'!AJ9)*24,('Darbo grafikas'!AJ10-'Darbo grafikas'!AJ9+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE2" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ9&lt;&gt;"",IF('Darbo grafikas'!AJ10&lt;&gt;"",IF('Darbo grafikas'!AJ9='Darbo grafikas'!AJ10,"",IF('Darbo grafikas'!AJ9&lt;'Darbo grafikas'!AJ10,('Darbo grafikas'!AJ10-'Darbo grafikas'!AJ9)*24,('Darbo grafikas'!AJ10-'Darbo grafikas'!AJ9+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK9&lt;&gt;"",IF('Darbo grafikas'!AK10&lt;&gt;"",IF('Darbo grafikas'!AK9='Darbo grafikas'!AK10,"",IF('Darbo grafikas'!AK9&lt;'Darbo grafikas'!AK10,('Darbo grafikas'!AK10-'Darbo grafikas'!AK9)*24,('Darbo grafikas'!AK10-'Darbo grafikas'!AK9+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -41886,11 +42661,11 @@
         <v/>
       </c>
       <c r="AD3" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI10&lt;&gt;"",IF('Darbo grafikas'!AI11&lt;&gt;"",IF('Darbo grafikas'!AI10='Darbo grafikas'!AI11,"",IF('Darbo grafikas'!AI10&lt;'Darbo grafikas'!AI11,('Darbo grafikas'!AI11-'Darbo grafikas'!AI10)*24,('Darbo grafikas'!AI11-'Darbo grafikas'!AI10+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ10&lt;&gt;"",IF('Darbo grafikas'!AJ11&lt;&gt;"",IF('Darbo grafikas'!AJ10='Darbo grafikas'!AJ11,"",IF('Darbo grafikas'!AJ10&lt;'Darbo grafikas'!AJ11,('Darbo grafikas'!AJ11-'Darbo grafikas'!AJ10)*24,('Darbo grafikas'!AJ11-'Darbo grafikas'!AJ10+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE3" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ10&lt;&gt;"",IF('Darbo grafikas'!AJ11&lt;&gt;"",IF('Darbo grafikas'!AJ10='Darbo grafikas'!AJ11,"",IF('Darbo grafikas'!AJ10&lt;'Darbo grafikas'!AJ11,('Darbo grafikas'!AJ11-'Darbo grafikas'!AJ10)*24,('Darbo grafikas'!AJ11-'Darbo grafikas'!AJ10+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK10&lt;&gt;"",IF('Darbo grafikas'!AK11&lt;&gt;"",IF('Darbo grafikas'!AK10='Darbo grafikas'!AK11,"",IF('Darbo grafikas'!AK10&lt;'Darbo grafikas'!AK11,('Darbo grafikas'!AK11-'Darbo grafikas'!AK10)*24,('Darbo grafikas'!AK11-'Darbo grafikas'!AK10+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -42264,11 +43039,11 @@
         <v/>
       </c>
       <c r="AD6" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI12&lt;&gt;"",IF('Darbo grafikas'!AI13&lt;&gt;"",IF('Darbo grafikas'!AI12='Darbo grafikas'!AI13,"",IF('Darbo grafikas'!AI12&lt;'Darbo grafikas'!AI13,('Darbo grafikas'!AI13-'Darbo grafikas'!AI12)*24,('Darbo grafikas'!AI13-'Darbo grafikas'!AI12+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ12&lt;&gt;"",IF('Darbo grafikas'!AJ13&lt;&gt;"",IF('Darbo grafikas'!AJ12='Darbo grafikas'!AJ13,"",IF('Darbo grafikas'!AJ12&lt;'Darbo grafikas'!AJ13,('Darbo grafikas'!AJ13-'Darbo grafikas'!AJ12)*24,('Darbo grafikas'!AJ13-'Darbo grafikas'!AJ12+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE6" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ12&lt;&gt;"",IF('Darbo grafikas'!AJ13&lt;&gt;"",IF('Darbo grafikas'!AJ12='Darbo grafikas'!AJ13,"",IF('Darbo grafikas'!AJ12&lt;'Darbo grafikas'!AJ13,('Darbo grafikas'!AJ13-'Darbo grafikas'!AJ12)*24,('Darbo grafikas'!AJ13-'Darbo grafikas'!AJ12+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK12&lt;&gt;"",IF('Darbo grafikas'!AK13&lt;&gt;"",IF('Darbo grafikas'!AK12='Darbo grafikas'!AK13,"",IF('Darbo grafikas'!AK12&lt;'Darbo grafikas'!AK13,('Darbo grafikas'!AK13-'Darbo grafikas'!AK12)*24,('Darbo grafikas'!AK13-'Darbo grafikas'!AK12+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -42390,11 +43165,11 @@
         <v/>
       </c>
       <c r="AD7" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI12&lt;&gt;"",IF('Darbo grafikas'!AI13&lt;&gt;"",IF('Darbo grafikas'!AI12='Darbo grafikas'!AI13,"",IF('Darbo grafikas'!AI12&lt;'Darbo grafikas'!AI13,('Darbo grafikas'!AI13-'Darbo grafikas'!AI12)*24,('Darbo grafikas'!AI13-'Darbo grafikas'!AI12+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ12&lt;&gt;"",IF('Darbo grafikas'!AJ13&lt;&gt;"",IF('Darbo grafikas'!AJ12='Darbo grafikas'!AJ13,"",IF('Darbo grafikas'!AJ12&lt;'Darbo grafikas'!AJ13,('Darbo grafikas'!AJ13-'Darbo grafikas'!AJ12)*24,('Darbo grafikas'!AJ13-'Darbo grafikas'!AJ12+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE7" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ12&lt;&gt;"",IF('Darbo grafikas'!AJ13&lt;&gt;"",IF('Darbo grafikas'!AJ12='Darbo grafikas'!AJ13,"",IF('Darbo grafikas'!AJ12&lt;'Darbo grafikas'!AJ13,('Darbo grafikas'!AJ13-'Darbo grafikas'!AJ12)*24,('Darbo grafikas'!AJ13-'Darbo grafikas'!AJ12+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK12&lt;&gt;"",IF('Darbo grafikas'!AK13&lt;&gt;"",IF('Darbo grafikas'!AK12='Darbo grafikas'!AK13,"",IF('Darbo grafikas'!AK12&lt;'Darbo grafikas'!AK13,('Darbo grafikas'!AK13-'Darbo grafikas'!AK12)*24,('Darbo grafikas'!AK13-'Darbo grafikas'!AK12+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -42516,11 +43291,11 @@
         <v/>
       </c>
       <c r="AD8" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI14&lt;&gt;"",IF('Darbo grafikas'!AI15&lt;&gt;"",IF('Darbo grafikas'!AI14='Darbo grafikas'!AI15,"",IF('Darbo grafikas'!AI14&lt;'Darbo grafikas'!AI15,('Darbo grafikas'!AI15-'Darbo grafikas'!AI14)*24,('Darbo grafikas'!AI15-'Darbo grafikas'!AI14+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ14&lt;&gt;"",IF('Darbo grafikas'!AJ15&lt;&gt;"",IF('Darbo grafikas'!AJ14='Darbo grafikas'!AJ15,"",IF('Darbo grafikas'!AJ14&lt;'Darbo grafikas'!AJ15,('Darbo grafikas'!AJ15-'Darbo grafikas'!AJ14)*24,('Darbo grafikas'!AJ15-'Darbo grafikas'!AJ14+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE8" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ14&lt;&gt;"",IF('Darbo grafikas'!AJ15&lt;&gt;"",IF('Darbo grafikas'!AJ14='Darbo grafikas'!AJ15,"",IF('Darbo grafikas'!AJ14&lt;'Darbo grafikas'!AJ15,('Darbo grafikas'!AJ15-'Darbo grafikas'!AJ14)*24,('Darbo grafikas'!AJ15-'Darbo grafikas'!AJ14+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK14&lt;&gt;"",IF('Darbo grafikas'!AK15&lt;&gt;"",IF('Darbo grafikas'!AK14='Darbo grafikas'!AK15,"",IF('Darbo grafikas'!AK14&lt;'Darbo grafikas'!AK15,('Darbo grafikas'!AK15-'Darbo grafikas'!AK14)*24,('Darbo grafikas'!AK15-'Darbo grafikas'!AK14+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -42642,11 +43417,11 @@
         <v/>
       </c>
       <c r="AD9" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI14&lt;&gt;"",IF('Darbo grafikas'!AI15&lt;&gt;"",IF('Darbo grafikas'!AI14='Darbo grafikas'!AI15,"",IF('Darbo grafikas'!AI14&lt;'Darbo grafikas'!AI15,('Darbo grafikas'!AI15-'Darbo grafikas'!AI14)*24,('Darbo grafikas'!AI15-'Darbo grafikas'!AI14+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ14&lt;&gt;"",IF('Darbo grafikas'!AJ15&lt;&gt;"",IF('Darbo grafikas'!AJ14='Darbo grafikas'!AJ15,"",IF('Darbo grafikas'!AJ14&lt;'Darbo grafikas'!AJ15,('Darbo grafikas'!AJ15-'Darbo grafikas'!AJ14)*24,('Darbo grafikas'!AJ15-'Darbo grafikas'!AJ14+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE9" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ14&lt;&gt;"",IF('Darbo grafikas'!AJ15&lt;&gt;"",IF('Darbo grafikas'!AJ14='Darbo grafikas'!AJ15,"",IF('Darbo grafikas'!AJ14&lt;'Darbo grafikas'!AJ15,('Darbo grafikas'!AJ15-'Darbo grafikas'!AJ14)*24,('Darbo grafikas'!AJ15-'Darbo grafikas'!AJ14+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK14&lt;&gt;"",IF('Darbo grafikas'!AK15&lt;&gt;"",IF('Darbo grafikas'!AK14='Darbo grafikas'!AK15,"",IF('Darbo grafikas'!AK14&lt;'Darbo grafikas'!AK15,('Darbo grafikas'!AK15-'Darbo grafikas'!AK14)*24,('Darbo grafikas'!AK15-'Darbo grafikas'!AK14+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -42768,11 +43543,11 @@
         <v/>
       </c>
       <c r="AD10" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI16&lt;&gt;"",IF('Darbo grafikas'!AI17&lt;&gt;"",IF('Darbo grafikas'!AI16='Darbo grafikas'!AI17,"",IF('Darbo grafikas'!AI16&lt;'Darbo grafikas'!AI17,('Darbo grafikas'!AI17-'Darbo grafikas'!AI16)*24,('Darbo grafikas'!AI17-'Darbo grafikas'!AI16+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ16&lt;&gt;"",IF('Darbo grafikas'!AJ17&lt;&gt;"",IF('Darbo grafikas'!AJ16='Darbo grafikas'!AJ17,"",IF('Darbo grafikas'!AJ16&lt;'Darbo grafikas'!AJ17,('Darbo grafikas'!AJ17-'Darbo grafikas'!AJ16)*24,('Darbo grafikas'!AJ17-'Darbo grafikas'!AJ16+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE10" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ16&lt;&gt;"",IF('Darbo grafikas'!AJ17&lt;&gt;"",IF('Darbo grafikas'!AJ16='Darbo grafikas'!AJ17,"",IF('Darbo grafikas'!AJ16&lt;'Darbo grafikas'!AJ17,('Darbo grafikas'!AJ17-'Darbo grafikas'!AJ16)*24,('Darbo grafikas'!AJ17-'Darbo grafikas'!AJ16+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK16&lt;&gt;"",IF('Darbo grafikas'!AK17&lt;&gt;"",IF('Darbo grafikas'!AK16='Darbo grafikas'!AK17,"",IF('Darbo grafikas'!AK16&lt;'Darbo grafikas'!AK17,('Darbo grafikas'!AK17-'Darbo grafikas'!AK16)*24,('Darbo grafikas'!AK17-'Darbo grafikas'!AK16+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -42894,11 +43669,11 @@
         <v/>
       </c>
       <c r="AD11" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI16&lt;&gt;"",IF('Darbo grafikas'!AI17&lt;&gt;"",IF('Darbo grafikas'!AI16='Darbo grafikas'!AI17,"",IF('Darbo grafikas'!AI16&lt;'Darbo grafikas'!AI17,('Darbo grafikas'!AI17-'Darbo grafikas'!AI16)*24,('Darbo grafikas'!AI17-'Darbo grafikas'!AI16+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ16&lt;&gt;"",IF('Darbo grafikas'!AJ17&lt;&gt;"",IF('Darbo grafikas'!AJ16='Darbo grafikas'!AJ17,"",IF('Darbo grafikas'!AJ16&lt;'Darbo grafikas'!AJ17,('Darbo grafikas'!AJ17-'Darbo grafikas'!AJ16)*24,('Darbo grafikas'!AJ17-'Darbo grafikas'!AJ16+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE11" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ16&lt;&gt;"",IF('Darbo grafikas'!AJ17&lt;&gt;"",IF('Darbo grafikas'!AJ16='Darbo grafikas'!AJ17,"",IF('Darbo grafikas'!AJ16&lt;'Darbo grafikas'!AJ17,('Darbo grafikas'!AJ17-'Darbo grafikas'!AJ16)*24,('Darbo grafikas'!AJ17-'Darbo grafikas'!AJ16+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK16&lt;&gt;"",IF('Darbo grafikas'!AK17&lt;&gt;"",IF('Darbo grafikas'!AK16='Darbo grafikas'!AK17,"",IF('Darbo grafikas'!AK16&lt;'Darbo grafikas'!AK17,('Darbo grafikas'!AK17-'Darbo grafikas'!AK16)*24,('Darbo grafikas'!AK17-'Darbo grafikas'!AK16+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -43020,11 +43795,11 @@
         <v/>
       </c>
       <c r="AD12" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI18&lt;&gt;"",IF('Darbo grafikas'!AI19&lt;&gt;"",IF('Darbo grafikas'!AI18='Darbo grafikas'!AI19,"",IF('Darbo grafikas'!AI18&lt;'Darbo grafikas'!AI19,('Darbo grafikas'!AI19-'Darbo grafikas'!AI18)*24,('Darbo grafikas'!AI19-'Darbo grafikas'!AI18+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ18&lt;&gt;"",IF('Darbo grafikas'!AJ19&lt;&gt;"",IF('Darbo grafikas'!AJ18='Darbo grafikas'!AJ19,"",IF('Darbo grafikas'!AJ18&lt;'Darbo grafikas'!AJ19,('Darbo grafikas'!AJ19-'Darbo grafikas'!AJ18)*24,('Darbo grafikas'!AJ19-'Darbo grafikas'!AJ18+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE12" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ18&lt;&gt;"",IF('Darbo grafikas'!AJ19&lt;&gt;"",IF('Darbo grafikas'!AJ18='Darbo grafikas'!AJ19,"",IF('Darbo grafikas'!AJ18&lt;'Darbo grafikas'!AJ19,('Darbo grafikas'!AJ19-'Darbo grafikas'!AJ18)*24,('Darbo grafikas'!AJ19-'Darbo grafikas'!AJ18+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK18&lt;&gt;"",IF('Darbo grafikas'!AK19&lt;&gt;"",IF('Darbo grafikas'!AK18='Darbo grafikas'!AK19,"",IF('Darbo grafikas'!AK18&lt;'Darbo grafikas'!AK19,('Darbo grafikas'!AK19-'Darbo grafikas'!AK18)*24,('Darbo grafikas'!AK19-'Darbo grafikas'!AK18+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -43146,11 +43921,11 @@
         <v/>
       </c>
       <c r="AD13" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI18&lt;&gt;"",IF('Darbo grafikas'!AI19&lt;&gt;"",IF('Darbo grafikas'!AI18='Darbo grafikas'!AI19,"",IF('Darbo grafikas'!AI18&lt;'Darbo grafikas'!AI19,('Darbo grafikas'!AI19-'Darbo grafikas'!AI18)*24,('Darbo grafikas'!AI19-'Darbo grafikas'!AI18+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ18&lt;&gt;"",IF('Darbo grafikas'!AJ19&lt;&gt;"",IF('Darbo grafikas'!AJ18='Darbo grafikas'!AJ19,"",IF('Darbo grafikas'!AJ18&lt;'Darbo grafikas'!AJ19,('Darbo grafikas'!AJ19-'Darbo grafikas'!AJ18)*24,('Darbo grafikas'!AJ19-'Darbo grafikas'!AJ18+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE13" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ18&lt;&gt;"",IF('Darbo grafikas'!AJ19&lt;&gt;"",IF('Darbo grafikas'!AJ18='Darbo grafikas'!AJ19,"",IF('Darbo grafikas'!AJ18&lt;'Darbo grafikas'!AJ19,('Darbo grafikas'!AJ19-'Darbo grafikas'!AJ18)*24,('Darbo grafikas'!AJ19-'Darbo grafikas'!AJ18+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK18&lt;&gt;"",IF('Darbo grafikas'!AK19&lt;&gt;"",IF('Darbo grafikas'!AK18='Darbo grafikas'!AK19,"",IF('Darbo grafikas'!AK18&lt;'Darbo grafikas'!AK19,('Darbo grafikas'!AK19-'Darbo grafikas'!AK18)*24,('Darbo grafikas'!AK19-'Darbo grafikas'!AK18+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -43272,11 +44047,11 @@
         <v/>
       </c>
       <c r="AD14" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI20&lt;&gt;"",IF('Darbo grafikas'!AI21&lt;&gt;"",IF('Darbo grafikas'!AI20='Darbo grafikas'!AI21,"",IF('Darbo grafikas'!AI20&lt;'Darbo grafikas'!AI21,('Darbo grafikas'!AI21-'Darbo grafikas'!AI20)*24,('Darbo grafikas'!AI21-'Darbo grafikas'!AI20+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ20&lt;&gt;"",IF('Darbo grafikas'!AJ21&lt;&gt;"",IF('Darbo grafikas'!AJ20='Darbo grafikas'!AJ21,"",IF('Darbo grafikas'!AJ20&lt;'Darbo grafikas'!AJ21,('Darbo grafikas'!AJ21-'Darbo grafikas'!AJ20)*24,('Darbo grafikas'!AJ21-'Darbo grafikas'!AJ20+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE14" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ20&lt;&gt;"",IF('Darbo grafikas'!AJ21&lt;&gt;"",IF('Darbo grafikas'!AJ20='Darbo grafikas'!AJ21,"",IF('Darbo grafikas'!AJ20&lt;'Darbo grafikas'!AJ21,('Darbo grafikas'!AJ21-'Darbo grafikas'!AJ20)*24,('Darbo grafikas'!AJ21-'Darbo grafikas'!AJ20+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK20&lt;&gt;"",IF('Darbo grafikas'!AK21&lt;&gt;"",IF('Darbo grafikas'!AK20='Darbo grafikas'!AK21,"",IF('Darbo grafikas'!AK20&lt;'Darbo grafikas'!AK21,('Darbo grafikas'!AK21-'Darbo grafikas'!AK20)*24,('Darbo grafikas'!AK21-'Darbo grafikas'!AK20+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -43398,11 +44173,11 @@
         <v/>
       </c>
       <c r="AD15" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AI20&lt;&gt;"",IF('Darbo grafikas'!AI21&lt;&gt;"",IF('Darbo grafikas'!AI20='Darbo grafikas'!AI21,"",IF('Darbo grafikas'!AI20&lt;'Darbo grafikas'!AI21,('Darbo grafikas'!AI21-'Darbo grafikas'!AI20)*24,('Darbo grafikas'!AI21-'Darbo grafikas'!AI20+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AJ20&lt;&gt;"",IF('Darbo grafikas'!AJ21&lt;&gt;"",IF('Darbo grafikas'!AJ20='Darbo grafikas'!AJ21,"",IF('Darbo grafikas'!AJ20&lt;'Darbo grafikas'!AJ21,('Darbo grafikas'!AJ21-'Darbo grafikas'!AJ20)*24,('Darbo grafikas'!AJ21-'Darbo grafikas'!AJ20+1)*24)),""),"")</f>
         <v/>
       </c>
       <c r="AE15" s="369" t="str">
-        <f aca="false">IF('Darbo grafikas'!AJ20&lt;&gt;"",IF('Darbo grafikas'!AJ21&lt;&gt;"",IF('Darbo grafikas'!AJ20='Darbo grafikas'!AJ21,"",IF('Darbo grafikas'!AJ20&lt;'Darbo grafikas'!AJ21,('Darbo grafikas'!AJ21-'Darbo grafikas'!AJ20)*24,('Darbo grafikas'!AJ21-'Darbo grafikas'!AJ20+1)*24)),""),"")</f>
+        <f aca="false">IF('Darbo grafikas'!AK20&lt;&gt;"",IF('Darbo grafikas'!AK21&lt;&gt;"",IF('Darbo grafikas'!AK20='Darbo grafikas'!AK21,"",IF('Darbo grafikas'!AK20&lt;'Darbo grafikas'!AK21,('Darbo grafikas'!AK21-'Darbo grafikas'!AK20)*24,('Darbo grafikas'!AK21-'Darbo grafikas'!AK20+1)*24)),""),"")</f>
         <v/>
       </c>
     </row>
@@ -45570,7 +46345,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="145"/>
